--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Solutions/ccs-enterprise-automation-ui-project/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FF93901F-1912-784D-BF8D-A5BF54E1AEF7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AD5BED9D-3941-6E46-8EA3-CFB6DBA13AA5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" tabRatio="752" windowHeight="10880" windowWidth="26200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2020"/>
+    <workbookView activeTab="1" tabRatio="752" windowHeight="10880" windowWidth="26200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2020"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" r:id="rId1" sheetId="11"/>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,22 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AD5BED9D-3941-6E46-8EA3-CFB6DBA13AA5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BB4FD0E1-AE60-0A48-A65D-B1246569796B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="752" windowHeight="10880" windowWidth="26200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2020"/>
+    <workbookView activeTab="2" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" r:id="rId1" sheetId="11"/>
     <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_SignIn" r:id="rId3" sheetId="3"/>
-    <sheet name="TC002_Login" r:id="rId4" sheetId="10"/>
+    <sheet name="TC001_RegisterOrganisation" r:id="rId3" sheetId="20"/>
+    <sheet name="TC001_AddDeleteContact" r:id="rId4" sheetId="16"/>
+    <sheet name="TC002_AddDeleteSite" r:id="rId5" sheetId="17"/>
+    <sheet name="TC003_AddDeleteGroup" r:id="rId6" sheetId="18"/>
+    <sheet name="TC004_ResetPassword" r:id="rId7" sheetId="19"/>
   </sheets>
+  <definedNames>
+    <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
+    <definedName name="TC001_SignInAddContact">TestCases!$A$3</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="318">
   <si>
     <t>TS_02</t>
   </si>
@@ -46,9 +53,6 @@
     <t>Run Mode</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -56,15 +60,6 @@
   </si>
   <si>
     <t>Selector</t>
-  </si>
-  <si>
-    <t>TC001_SignIn</t>
-  </si>
-  <si>
-    <t>To verify that user is able to sign in</t>
-  </si>
-  <si>
-    <t>To verify that user is able to sign up</t>
   </si>
   <si>
     <t>TS_01</t>
@@ -342,52 +337,774 @@
     <t>To clear value from a text box</t>
   </si>
   <si>
+    <t>To save element text to runtime session data manager. The key will be element name.</t>
+  </si>
+  <si>
+    <t>To save a value to runtime. Pass the key in 'selector' column, and value in 'data' column</t>
+  </si>
+  <si>
+    <t>To verify element text with saved session data. Pass the 'element' as selector and expected 'key' as data.</t>
+  </si>
+  <si>
+    <t>Enter with saved value from session data. Pass the expected key as 'data'</t>
+  </si>
+  <si>
+    <t>To check if element is disabled.</t>
+  </si>
+  <si>
     <t>TS_04</t>
   </si>
   <si>
     <t>TS_05</t>
   </si>
   <si>
-    <t>Wait for email field</t>
+    <t>TS_06</t>
+  </si>
+  <si>
+    <t>TS_07</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>spe1@mailinator.com</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Test_12345</t>
+  </si>
+  <si>
+    <t>Click sign in button</t>
+  </si>
+  <si>
+    <t>signin_button</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>TS_11</t>
+  </si>
+  <si>
+    <t>TS_12</t>
+  </si>
+  <si>
+    <t>TS_13</t>
+  </si>
+  <si>
+    <t>Click manage my account</t>
+  </si>
+  <si>
+    <t>TS_14</t>
+  </si>
+  <si>
+    <t>Verify dashboard text</t>
+  </si>
+  <si>
+    <t>TS_15</t>
+  </si>
+  <si>
+    <t>TS_16</t>
+  </si>
+  <si>
+    <t>TS_17</t>
+  </si>
+  <si>
+    <t>TS_18</t>
+  </si>
+  <si>
+    <t>TS_19</t>
+  </si>
+  <si>
+    <t>Click add contact</t>
+  </si>
+  <si>
+    <t>Enter name</t>
+  </si>
+  <si>
+    <t>TestContactOne</t>
+  </si>
+  <si>
+    <t>Select email checkbox</t>
+  </si>
+  <si>
+    <t>Enter contact email</t>
+  </si>
+  <si>
+    <t>contact-1@mailinator.com</t>
+  </si>
+  <si>
+    <t>Wait for page header to be displayed</t>
+  </si>
+  <si>
+    <t>elm_header</t>
+  </si>
+  <si>
+    <t>Save expected page header</t>
+  </si>
+  <si>
+    <t>Public Procurement Gateway</t>
+  </si>
+  <si>
+    <t>expected_message</t>
+  </si>
+  <si>
+    <t>Verify the page header value</t>
   </si>
   <si>
     <t>txt_email</t>
   </si>
   <si>
-    <t>pcc.esourcingtest13@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test_12345</t>
-  </si>
-  <si>
     <t>txt_password</t>
   </si>
   <si>
-    <t>Enter email</t>
-  </si>
-  <si>
-    <t>Enter password</t>
-  </si>
-  <si>
-    <t>Click on sign in button</t>
-  </si>
-  <si>
-    <t>btn_signin</t>
-  </si>
-  <si>
-    <t>Wait for dashboard title</t>
-  </si>
-  <si>
-    <t>elm_header</t>
-  </si>
-  <si>
-    <t>elm_wrong_header</t>
-  </si>
-  <si>
-    <t>TC002_Login</t>
+    <t>Wait for PPG dashboard</t>
+  </si>
+  <si>
+    <t>elm_dashboard_header</t>
+  </si>
+  <si>
+    <t>Your Dashboard</t>
+  </si>
+  <si>
+    <t>lnk_account_link</t>
+  </si>
+  <si>
+    <t>Wait for manage my account page</t>
+  </si>
+  <si>
+    <t>elm_accountTitle</t>
+  </si>
+  <si>
+    <t>elm_addContact</t>
+  </si>
+  <si>
+    <t>txt_contactname</t>
+  </si>
+  <si>
+    <t>chk_email</t>
+  </si>
+  <si>
+    <t>txt_contact_email</t>
+  </si>
+  <si>
+    <t>elm_create_contact</t>
+  </si>
+  <si>
+    <t>Wait for contact confirmation page</t>
+  </si>
+  <si>
+    <t>elm_contact_created</t>
+  </si>
+  <si>
+    <t>Your contact has been added</t>
+  </si>
+  <si>
+    <t>expected_dashboardTitle</t>
+  </si>
+  <si>
+    <t>Click create contact</t>
+  </si>
+  <si>
+    <t>Wait for user confirmation page</t>
+  </si>
+  <si>
+    <t>Click manage my organisation</t>
+  </si>
+  <si>
+    <t>lnk_org_link</t>
+  </si>
+  <si>
+    <t>Wait for manage orgs page</t>
+  </si>
+  <si>
+    <t>elm_orgsTitle</t>
+  </si>
+  <si>
+    <t>Click add site</t>
+  </si>
+  <si>
+    <t>Enter site name</t>
+  </si>
+  <si>
+    <t>Enter street address</t>
+  </si>
+  <si>
+    <t>Site1test</t>
+  </si>
+  <si>
+    <t>1 High Street</t>
+  </si>
+  <si>
+    <t>Enter post code</t>
+  </si>
+  <si>
+    <t>DY1 1AB</t>
+  </si>
+  <si>
+    <t>txt_sitename</t>
+  </si>
+  <si>
+    <t>txt_streetaddress</t>
+  </si>
+  <si>
+    <t>txt_postcode</t>
+  </si>
+  <si>
+    <t>United Kingdon - GB</t>
+  </si>
+  <si>
+    <t>Select country</t>
+  </si>
+  <si>
+    <t>opt_country</t>
+  </si>
+  <si>
+    <t>Click save and continue</t>
+  </si>
+  <si>
+    <t>Wait for site confirmation page</t>
+  </si>
+  <si>
+    <t>elm_site_created</t>
+  </si>
+  <si>
+    <t>Site successfully added</t>
+  </si>
+  <si>
+    <t>Click manage groups</t>
+  </si>
+  <si>
+    <t>lnk_group_link</t>
+  </si>
+  <si>
+    <t>elm_groupsTitle</t>
+  </si>
+  <si>
+    <t>Wait for manage groups page</t>
+  </si>
+  <si>
+    <t>Click add group</t>
+  </si>
+  <si>
+    <t>Enter group name</t>
+  </si>
+  <si>
+    <t>Group1test</t>
+  </si>
+  <si>
+    <t>txt_groupname</t>
+  </si>
+  <si>
+    <t>elm_group_created</t>
+  </si>
+  <si>
+    <t>Group successfully created</t>
+  </si>
+  <si>
+    <t>TS_20</t>
+  </si>
+  <si>
+    <t>TS_21</t>
+  </si>
+  <si>
+    <t>TS_22</t>
+  </si>
+  <si>
+    <t>TS_23</t>
+  </si>
+  <si>
+    <t>Click return to manage my account</t>
+  </si>
+  <si>
+    <t>lnk_return_link</t>
+  </si>
+  <si>
+    <t>Click edit contact</t>
+  </si>
+  <si>
+    <t>elm_editContact</t>
+  </si>
+  <si>
+    <t>Click delete contact</t>
+  </si>
+  <si>
+    <t>elm_deleteContact</t>
+  </si>
+  <si>
+    <t>TS_24</t>
+  </si>
+  <si>
+    <t>Click confirm contact delete</t>
+  </si>
+  <si>
+    <t>elm_confirmContactDelete</t>
+  </si>
+  <si>
+    <t>TS_25</t>
+  </si>
+  <si>
+    <t>TS_26</t>
+  </si>
+  <si>
+    <t>TS_27</t>
+  </si>
+  <si>
+    <t>elm_contact_deleted</t>
+  </si>
+  <si>
+    <t>Your contact has been deleted</t>
+  </si>
+  <si>
+    <t>TC001_AddDeleteContact</t>
+  </si>
+  <si>
+    <t>Enter contact name</t>
+  </si>
+  <si>
+    <t>Contact Auto</t>
+  </si>
+  <si>
+    <t>Select email address checkbox</t>
+  </si>
+  <si>
+    <t>chk_emailcheckbox</t>
+  </si>
+  <si>
+    <t>contact@mailinator.com</t>
+  </si>
+  <si>
+    <t>txt_contactemail</t>
+  </si>
+  <si>
+    <t>Click return to site details</t>
+  </si>
+  <si>
+    <t>Click edit site contact</t>
+  </si>
+  <si>
+    <t>Click delete site contact</t>
+  </si>
+  <si>
+    <t>elm_confirmSitecontactDelete</t>
+  </si>
+  <si>
+    <t>Click return to site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click delete site </t>
+  </si>
+  <si>
+    <t>elm_deleteSite</t>
+  </si>
+  <si>
+    <t>Click confirm delete site</t>
+  </si>
+  <si>
+    <t>elm_confirmSiteDelete</t>
+  </si>
+  <si>
+    <t>elm_site_deleted</t>
+  </si>
+  <si>
+    <t>Site successfully deleted</t>
+  </si>
+  <si>
+    <t>TS_28</t>
+  </si>
+  <si>
+    <t>TS_29</t>
+  </si>
+  <si>
+    <t>TS_30</t>
+  </si>
+  <si>
+    <t>TS_31</t>
+  </si>
+  <si>
+    <t>TS_32</t>
+  </si>
+  <si>
+    <t>TS_33</t>
+  </si>
+  <si>
+    <t>TS_34</t>
+  </si>
+  <si>
+    <t>TS_35</t>
+  </si>
+  <si>
+    <t>Click continue</t>
+  </si>
+  <si>
+    <t>Select group user</t>
+  </si>
+  <si>
+    <t>Select group role</t>
+  </si>
+  <si>
+    <t>Click confirm add role</t>
+  </si>
+  <si>
+    <t>Click confirm and continue</t>
+  </si>
+  <si>
+    <t>Click view new group</t>
+  </si>
+  <si>
+    <t>Click delete group</t>
+  </si>
+  <si>
+    <t>Click confirm and delete group</t>
+  </si>
+  <si>
+    <t>elm_group_deleted</t>
+  </si>
+  <si>
+    <t>Group successfully deleted</t>
+  </si>
+  <si>
+    <t>Click confirm site contact delete</t>
+  </si>
+  <si>
+    <t>expected_contactdeletedTitle</t>
+  </si>
+  <si>
+    <t>expected_contactaddedTitle</t>
+  </si>
+  <si>
+    <t>elm_confirmUser</t>
+  </si>
+  <si>
+    <t>elm_addSite</t>
+  </si>
+  <si>
+    <t>elm_saveContinue</t>
+  </si>
+  <si>
+    <t>elm_createContact</t>
+  </si>
+  <si>
+    <t>elm_returnSite</t>
+  </si>
+  <si>
+    <t>elm_editSite</t>
+  </si>
+  <si>
+    <t>elm_deleteSiteContact</t>
+  </si>
+  <si>
+    <t>elm_returnToSite</t>
+  </si>
+  <si>
+    <t>elm_addGroup</t>
+  </si>
+  <si>
+    <t>elm_saveGroup</t>
+  </si>
+  <si>
+    <t>elm_groupUser</t>
+  </si>
+  <si>
+    <t>elm_continueUser</t>
+  </si>
+  <si>
+    <t>elm_groupRole</t>
+  </si>
+  <si>
+    <t>elm_continueRole</t>
+  </si>
+  <si>
+    <t>elm_confirmRole</t>
+  </si>
+  <si>
+    <t>elm_viewGroup</t>
+  </si>
+  <si>
+    <t>elm_deleteGroup</t>
+  </si>
+  <si>
+    <t>elm_confirmGroupDelete</t>
+  </si>
+  <si>
+    <t>Click change password</t>
+  </si>
+  <si>
+    <t>elm_changePassword</t>
+  </si>
+  <si>
+    <t>Enter current password</t>
+  </si>
+  <si>
+    <t>Enter new password</t>
+  </si>
+  <si>
+    <t>Confirm new password</t>
+  </si>
+  <si>
+    <t>Test_12346</t>
+  </si>
+  <si>
+    <t>txt_currentpw</t>
+  </si>
+  <si>
+    <t>txt_newpw</t>
+  </si>
+  <si>
+    <t>txt_confirmpw</t>
+  </si>
+  <si>
+    <t>Confirm change password</t>
+  </si>
+  <si>
+    <t>elm_confirmPassword</t>
+  </si>
+  <si>
+    <t>expected_siteaddedTitle</t>
+  </si>
+  <si>
+    <t>expected_sitedeletedTitle</t>
+  </si>
+  <si>
+    <t>expected_groupaddedTitle</t>
+  </si>
+  <si>
+    <t>expected_groupdeletedTitle</t>
+  </si>
+  <si>
+    <t>expected_pwchangedTitle</t>
+  </si>
+  <si>
+    <t>elm_password_changed</t>
+  </si>
+  <si>
+    <t>Your password has been changed</t>
+  </si>
+  <si>
+    <t>To verify an org user can change their password (self-service)</t>
+  </si>
+  <si>
+    <t>TC002_AddDeleteSite</t>
+  </si>
+  <si>
+    <t>TC003_AddDeleteGroup</t>
+  </si>
+  <si>
+    <t>TC004_ResetPassword</t>
+  </si>
+  <si>
+    <t>To verify an org admin can access the  manage groups  screen and add/delete a  group containing user and role</t>
+  </si>
+  <si>
+    <t>To verify an org user can access the manage my account screen and add/delete a contact</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TC001_RegisterOrganisation</t>
+  </si>
+  <si>
+    <t>To verify if a new user can register a new organisation</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Click on create an account button</t>
+  </si>
+  <si>
+    <t>btn_register</t>
+  </si>
+  <si>
+    <t>Wait for loading create account page</t>
+  </si>
+  <si>
+    <t>elm_createAccount_header</t>
+  </si>
+  <si>
+    <t>Click on 'start now' button</t>
+  </si>
+  <si>
+    <t>btn_startNow</t>
+  </si>
+  <si>
+    <t>Wait for loading 'enter details' page header</t>
+  </si>
+  <si>
+    <t>elm_enterDetails_header</t>
+  </si>
+  <si>
+    <t>Enter organisation name</t>
+  </si>
+  <si>
+    <t>txt_RegorgName</t>
+  </si>
+  <si>
+    <t>Enter firstname of user</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Enter last name of user</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Enter email id of user</t>
+  </si>
+  <si>
+    <t>EnterRandomEmail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To enter random email id. Give </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as ' expected domain'. Eg: yopmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>yopmail.com</t>
+  </si>
+  <si>
+    <t>txt_RegfirstName</t>
+  </si>
+  <si>
+    <t>txt_ReglastName</t>
+  </si>
+  <si>
+    <t>txt_Regemail</t>
+  </si>
+  <si>
+    <t>btn_Regcontinue</t>
+  </si>
+  <si>
+    <t>Click on 'continue' button</t>
+  </si>
+  <si>
+    <t>EnterRandomText</t>
+  </si>
+  <si>
+    <t>To enter random text [Format: Automation_random letters (5) ]</t>
+  </si>
+  <si>
+    <t>Wait for loading 'register your organisation' page header</t>
+  </si>
+  <si>
+    <t>elm_regOrg_header</t>
+  </si>
+  <si>
+    <t>Wait for radio button - Org administrator</t>
+  </si>
+  <si>
+    <t>rd_orgAdmin</t>
+  </si>
+  <si>
+    <t>Click on radio button - Org administrator</t>
+  </si>
+  <si>
+    <t>Wait for loading org type page header</t>
+  </si>
+  <si>
+    <t>elm_typeofOrg</t>
+  </si>
+  <si>
+    <t>Click on 'buyer' option</t>
+  </si>
+  <si>
+    <t>rd_buyer</t>
+  </si>
+  <si>
+    <t>Wait for loading type of buyer page header</t>
+  </si>
+  <si>
+    <t>elm_typeOfBuyer</t>
+  </si>
+  <si>
+    <t>Click on 'central govt' option</t>
+  </si>
+  <si>
+    <t>rd_centralGovt</t>
+  </si>
+  <si>
+    <t>Wait for loading 'enter org details' page header</t>
+  </si>
+  <si>
+    <t>elm_orgDetails_header</t>
+  </si>
+  <si>
+    <t>Click on 'Companies House' option</t>
+  </si>
+  <si>
+    <t>rd_companiesHouse</t>
+  </si>
+  <si>
+    <t>Enter COH identifier</t>
+  </si>
+  <si>
+    <t>txt_companiesHouse</t>
+  </si>
+  <si>
+    <t>Wait for loading 'confirm org' page header</t>
+  </si>
+  <si>
+    <t>elm_confirmOrg</t>
+  </si>
+  <si>
+    <t>Click on option to confirm org details</t>
+  </si>
+  <si>
+    <t>rd_confirmOrg</t>
+  </si>
+  <si>
+    <t>Wait for loading 'create admin account' page header</t>
+  </si>
+  <si>
+    <t>elm_createAdminAccount_header</t>
+  </si>
+  <si>
+    <t>Wait for loading 'sent email confirmation' page header</t>
+  </si>
+  <si>
+    <t>elm_confirmEmailAddress</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>111111111</t>
   </si>
 </sst>
 </file>
@@ -395,7 +1112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +1160,36 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,7 +1251,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
@@ -513,31 +1260,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,249 +1647,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="13" width="142.5" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>56</v>
+    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1131,16 +1931,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="81.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
     <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
@@ -1157,175 +1957,589 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="16" r="2" s="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row ht="16" r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC001_SignIn" location="TC001_SignIn!A1" ref="A2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink display="TC002_SignUp" location="TC002_SignUp!A1" ref="A3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A3" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A4" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="40.5" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="3" t="s">
+      <c r="B6" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B8" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B9" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3" t="s">
-        <v>85</v>
+      <c r="B10" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3" xr:uid="{7D2E6ED1-C190-F443-BEB3-42C39AD6D7EA}"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{1A82EE43-19D1-E849-B185-86D9C39F7226}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
-            <xm:f>Keywords!$A$2:$A$29</xm:f>
+            <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C251</xm:sqref>
+          <xm:sqref>C2:C32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1334,138 +2548,1932 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711B2E9-84E6-C647-AF41-931D98C86C3E}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="53.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="70.1640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
+    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="3" t="s">
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3" t="s">
-        <v>86</v>
+      <c r="D20" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C7:C13" type="list" xr:uid="{27B9D99F-DC95-694B-9F80-C667522DFFA4}">
-      <formula1>"NavigateTo,ClickOnElement,HighlightElement,HoverOnElement"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3" xr:uid="{AE03CF7E-8F26-F944-8F5B-6031A1DA6B86}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink r:id="rId2" ref="D16" xr:uid="{10628E66-DCB5-A848-BD35-C3545BC23EB0}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="25" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="26" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="27" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="28" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="29" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="30" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="31" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="32" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="33" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="34" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="35" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="36" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
+    <hyperlink r:id="rId2" ref="D22" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AAC0343F-A2F4-6B45-81B5-4B2CFF5875A5}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C6</xm:sqref>
+          <xm:sqref>C11:C36</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="11" s="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="23" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="24" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="29" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="30" s="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11:C30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>C14:C20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{BB4FD0E1-AE60-0A48-A65D-B1246569796B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825637D5-C208-9E46-8C61-43AAB719D203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_RegisterOrganisation" r:id="rId3" sheetId="20"/>
-    <sheet name="TC001_AddDeleteContact" r:id="rId4" sheetId="16"/>
-    <sheet name="TC002_AddDeleteSite" r:id="rId5" sheetId="17"/>
-    <sheet name="TC003_AddDeleteGroup" r:id="rId6" sheetId="18"/>
-    <sheet name="TC004_ResetPassword" r:id="rId7" sheetId="19"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
+    <sheet name="TC001_RegisterOrganisation" sheetId="20" r:id="rId3"/>
+    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId4"/>
+    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId5"/>
+    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId6"/>
+    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="318">
   <si>
     <t>TS_02</t>
   </si>
@@ -1101,17 +1101,16 @@
     <t/>
   </si>
   <si>
+    <t>111111111</t>
+  </si>
+  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>111111111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1245,76 +1244,76 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1331,10 +1330,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1369,7 +1368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1421,7 +1420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1526,7 +1525,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1535,13 +1534,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1551,7 +1550,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1560,7 +1559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1569,7 +1568,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1579,12 +1578,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1615,7 +1614,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1634,7 +1633,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1646,8 +1645,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
@@ -1655,11 +1654,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>62</v>
       </c>
     </row>
-    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>278</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>279</v>
       </c>
     </row>
-    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>286</v>
       </c>
@@ -1924,14 +1923,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -1939,11 +1938,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,10 +1970,10 @@
         <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" s="1" spans="1:4" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>178</v>
       </c>
@@ -2028,31 +2027,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A3" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A4" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink ref="A3" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink ref="A4" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2114,7 +2113,7 @@
         <v>266</v>
       </c>
     </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>268</v>
       </c>
     </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>272</v>
       </c>
     </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>281</v>
       </c>
     </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>283</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2239,7 +2238,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>291</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>291</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>294</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>296</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>298</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>300</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>302</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>304</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -2422,13 +2421,13 @@
         <v>36</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>308</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>310</v>
       </c>
     </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>312</v>
       </c>
     </row>
-    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>198</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>199</v>
       </c>
@@ -2531,11 +2530,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2548,8 +2547,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2557,15 +2556,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
-    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
+    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3007,16 +3006,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
-    <hyperlink r:id="rId2" ref="D16" xr:uid="{10628E66-DCB5-A848-BD35-C3545BC23EB0}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{10628E66-DCB5-A848-BD35-C3545BC23EB0}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3024,12 +3023,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3111,7 +3110,7 @@
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3157,7 +3156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3191,7 +3190,7 @@
         <v>113</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>130</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>132</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>218</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>142</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>145</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>219</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>182</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>184</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>220</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>148</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="25" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>246</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="26" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>148</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="27" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>221</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="28" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>222</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="29" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>223</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="30" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>188</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="31" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>198</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>224</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="32" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>199</v>
       </c>
@@ -3532,7 +3531,7 @@
         <v>191</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="33" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>200</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>193</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="34" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>201</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>194</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="35" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>202</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>247</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="36" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>203</v>
       </c>
@@ -3598,14 +3597,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
-    <hyperlink r:id="rId2" ref="D22" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -3618,8 +3617,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -3627,13 +3626,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>86</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>151</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>225</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>157</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>226</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>227</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>228</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>217</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>229</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>230</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>231</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>158</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="23" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>248</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="24" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>158</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>232</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>234</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>212</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="29" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>249</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="30" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
@@ -4105,13 +4104,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4124,8 +4123,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4133,13 +4132,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>117</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>236</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>241</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>242</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>243</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>245</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>251</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>250</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -4463,13 +4462,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825637D5-C208-9E46-8C61-43AAB719D203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{45DFFD96-D747-0140-BBD3-E838E405C42C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
-    <sheet name="TC001_RegisterOrganisation" sheetId="20" r:id="rId3"/>
-    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId4"/>
-    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId5"/>
-    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId6"/>
-    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId7"/>
+    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
+    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
+    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
+    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
+    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
+    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
+    <sheet name="TC004_ResetPassword" r:id="rId8" sheetId="19"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
-    <definedName name="TC001_SignInAddContact">TestCases!$A$3</definedName>
+    <definedName name="TC001_SignInAddContact">TestCases!$A$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="322">
   <si>
     <t>TS_02</t>
   </si>
@@ -910,12 +911,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>TC001_RegisterOrganisation</t>
-  </si>
-  <si>
-    <t>To verify if a new user can register a new organisation</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -1104,13 +1099,32 @@
     <t>111111111</t>
   </si>
   <si>
+    <t>TC001_RegBuyerOrganisation</t>
+  </si>
+  <si>
+    <t>TC002_RegSupplierOrganisation</t>
+  </si>
+  <si>
+    <t>To verify if a new user can register a new buyer  organisation</t>
+  </si>
+  <si>
+    <t>To verify if a new user can register a new supplier  organisation</t>
+  </si>
+  <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Click on 'supplier' option</t>
+  </si>
+  <si>
+    <t>rd_supplier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1244,76 +1258,76 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1330,10 +1344,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1368,7 +1382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,7 +1434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1525,7 +1539,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1534,13 +1548,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1550,7 +1564,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1559,7 +1573,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1568,7 +1582,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1578,12 +1592,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1614,7 +1628,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1633,7 +1647,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1645,8 +1659,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
@@ -1654,11 +1668,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1688,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1698,7 +1712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1722,7 +1736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1730,7 +1744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1762,7 +1776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1770,7 +1784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1778,7 +1792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1786,7 +1800,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1794,7 +1808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1810,7 +1824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1818,7 +1832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1826,7 +1840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1834,7 +1848,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1842,7 +1856,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1858,7 +1872,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1880,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1874,7 +1888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -1882,7 +1896,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1890,7 +1904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1898,7 +1912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -1906,43 +1920,43 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
+    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,97 +1975,112 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="D2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="D4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>315</v>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink ref="A4" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A4" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A5" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink display="TC002_RegSupplierOrganisation" location="TC002_RegSupplierOrganisation!A1" ref="A3" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +2097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2083,458 +2112,458 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>198</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2547,8 +2576,476 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2556,15 +3053,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
-    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
+    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
+    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3006,16 +3503,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{10628E66-DCB5-A848-BD35-C3545BC23EB0}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink r:id="rId2" ref="D16" xr:uid="{10628E66-DCB5-A848-BD35-C3545BC23EB0}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E36"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3023,12 +3520,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3045,7 +3542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3059,7 +3556,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3076,7 +3573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3093,7 +3590,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3110,7 +3607,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3127,7 +3624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3142,7 +3639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3156,7 +3653,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3173,7 +3670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3190,7 +3687,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3205,7 +3702,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3220,7 +3717,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3235,7 +3732,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3252,7 +3749,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3269,7 +3766,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3286,7 +3783,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3303,7 +3800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3318,7 +3815,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3333,7 +3830,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3350,7 +3847,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -3365,7 +3862,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
@@ -3382,7 +3879,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -3397,7 +3894,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
@@ -3412,7 +3909,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="25" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -3429,7 +3926,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="26" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
@@ -3446,7 +3943,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="27" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
@@ -3460,7 +3957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="28" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
@@ -3474,7 +3971,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="29" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
@@ -3489,7 +3986,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="30" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
@@ -3503,7 +4000,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="31" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>198</v>
       </c>
@@ -3517,7 +4014,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="32" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>199</v>
       </c>
@@ -3531,7 +4028,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="33" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>200</v>
       </c>
@@ -3545,7 +4042,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="34" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>201</v>
       </c>
@@ -3560,7 +4057,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="35" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>202</v>
       </c>
@@ -3577,7 +4074,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="36" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>203</v>
       </c>
@@ -3597,14 +4094,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
-    <hyperlink ref="D22" r:id="rId2" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
+    <hyperlink r:id="rId2" ref="D22" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -3616,9 +4113,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:E30"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -3626,13 +4123,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3649,7 +4146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3663,7 +4160,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3680,7 +4177,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3697,7 +4194,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3714,7 +4211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3731,7 +4228,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3746,7 +4243,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3760,7 +4257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3777,7 +4274,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3794,7 +4291,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="11" s="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>86</v>
       </c>
@@ -3809,7 +4306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3824,7 +4321,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3839,7 +4336,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3856,7 +4353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3871,7 +4368,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3886,7 +4383,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3901,7 +4398,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3916,7 +4413,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3931,7 +4428,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3946,7 +4443,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -3961,7 +4458,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
@@ -3976,7 +4473,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="23" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -3993,7 +4490,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="24" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
@@ -4010,7 +4507,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -4024,7 +4521,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
@@ -4038,7 +4535,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
@@ -4052,7 +4549,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
@@ -4067,7 +4564,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="29" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
@@ -4084,7 +4581,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="30" s="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
@@ -4104,13 +4601,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4122,9 +4619,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:E20"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4132,13 +4629,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4155,7 +4652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4169,7 +4666,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4186,7 +4683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4203,7 +4700,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4220,7 +4717,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4237,7 +4734,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4252,7 +4749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4266,7 +4763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4283,7 +4780,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4300,7 +4797,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -4315,7 +4812,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4329,7 +4826,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4344,7 +4841,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4361,7 +4858,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4378,7 +4875,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4395,7 +4892,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4410,7 +4907,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4425,7 +4922,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4442,7 +4939,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -4462,13 +4959,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{45DFFD96-D747-0140-BBD3-E838E405C42C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3201C98B-92AF-8944-A127-C0E67E572512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
-    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
-    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
-    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
-    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
-    <sheet name="TC004_ResetPassword" r:id="rId8" sheetId="19"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
+    <sheet name="TC001_RegBuyerOrganisation" sheetId="20" r:id="rId3"/>
+    <sheet name="TC002_RegSupplierOrganisation" sheetId="21" r:id="rId4"/>
+    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
+    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
+    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
+    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="321">
   <si>
     <t>TS_02</t>
   </si>
@@ -1111,9 +1111,6 @@
     <t>To verify if a new user can register a new supplier  organisation</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Click on 'supplier' option</t>
   </si>
   <si>
@@ -1124,7 +1121,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1258,76 +1254,76 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1344,10 +1340,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1382,7 +1378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1434,7 +1430,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1539,7 +1535,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1548,13 +1544,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1564,7 +1560,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1573,7 +1569,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1582,7 +1578,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1592,12 +1588,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1628,7 +1624,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1647,7 +1643,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1659,20 +1655,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1680,7 +1676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>44</v>
       </c>
     </row>
-    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1696,7 +1692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1720,7 +1716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1728,7 +1724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1736,7 +1732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1744,7 +1740,7 @@
         <v>51</v>
       </c>
     </row>
-    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1752,7 +1748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1768,7 +1764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1772,7 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1792,7 +1788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1800,7 +1796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1808,7 +1804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1824,7 +1820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1832,7 +1828,7 @@
         <v>63</v>
       </c>
     </row>
-    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1840,7 +1836,7 @@
         <v>64</v>
       </c>
     </row>
-    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1848,7 +1844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1856,7 +1852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1864,7 +1860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1888,7 +1884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +1892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1904,7 +1900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1912,7 +1908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -1920,7 +1916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>276</v>
       </c>
@@ -1928,7 +1924,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>284</v>
       </c>
@@ -1937,26 +1933,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1984,7 +1980,7 @@
         <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2001,7 +1997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>178</v>
       </c>
@@ -2055,32 +2051,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A4" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A5" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
-    <hyperlink display="TC002_RegSupplierOrganisation" location="TC002_RegSupplierOrganisation!A1" ref="A3" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2097,7 +2093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +2108,7 @@
         <v>105</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2123,7 @@
         <v>262</v>
       </c>
     </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2142,7 +2138,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2157,7 +2153,7 @@
         <v>266</v>
       </c>
     </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>268</v>
       </c>
     </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2187,7 +2183,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2204,7 +2200,7 @@
         <v>279</v>
       </c>
     </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2221,7 +2217,7 @@
         <v>280</v>
       </c>
     </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2238,7 +2234,7 @@
         <v>281</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2253,7 +2249,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2267,7 +2263,7 @@
         <v>287</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2282,7 +2278,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2296,7 +2292,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2310,7 +2306,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2325,7 +2321,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2339,7 +2335,7 @@
         <v>292</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2353,7 +2349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2368,7 +2364,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>296</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -2396,7 +2392,7 @@
         <v>298</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
@@ -2411,7 +2407,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -2425,7 +2421,7 @@
         <v>300</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
@@ -2439,7 +2435,7 @@
         <v>302</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>304</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
@@ -2471,7 +2467,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
@@ -2485,7 +2481,7 @@
         <v>306</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
@@ -2499,7 +2495,7 @@
         <v>308</v>
       </c>
     </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
@@ -2514,7 +2510,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
@@ -2528,7 +2524,7 @@
         <v>310</v>
       </c>
     </row>
-    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>198</v>
       </c>
@@ -2543,7 +2539,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>199</v>
       </c>
@@ -2559,11 +2555,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2576,22 +2572,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2623,7 +2619,7 @@
         <v>105</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2634,7 @@
         <v>262</v>
       </c>
     </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2653,7 +2649,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2668,7 +2664,7 @@
         <v>266</v>
       </c>
     </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2683,7 +2679,7 @@
         <v>268</v>
       </c>
     </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2698,7 +2694,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2715,7 +2711,7 @@
         <v>279</v>
       </c>
     </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2732,7 +2728,7 @@
         <v>280</v>
       </c>
     </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2749,7 +2745,7 @@
         <v>281</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2764,7 +2760,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2778,7 +2774,7 @@
         <v>287</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2793,7 +2789,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2807,7 +2803,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2821,7 +2817,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2836,7 +2832,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2850,21 +2846,21 @@
         <v>292</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2879,7 +2875,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>162</v>
       </c>
@@ -2893,7 +2889,7 @@
         <v>300</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>163</v>
       </c>
@@ -2907,7 +2903,7 @@
         <v>302</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>170</v>
       </c>
@@ -2924,7 +2920,7 @@
         <v>304</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>173</v>
       </c>
@@ -2939,7 +2935,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>174</v>
       </c>
@@ -2953,7 +2949,7 @@
         <v>306</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>175</v>
       </c>
@@ -2967,7 +2963,7 @@
         <v>308</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>196</v>
       </c>
@@ -2982,7 +2978,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>197</v>
       </c>
@@ -2996,7 +2992,7 @@
         <v>310</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>198</v>
       </c>
@@ -3011,7 +3007,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>199</v>
       </c>
@@ -3027,11 +3023,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3044,8 +3040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3053,15 +3049,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
-    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
+    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3503,16 +3499,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
-    <hyperlink r:id="rId2" ref="D16" xr:uid="{10628E66-DCB5-A848-BD35-C3545BC23EB0}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{10628E66-DCB5-A848-BD35-C3545BC23EB0}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3520,12 +3516,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3542,7 +3538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3556,7 +3552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3573,7 +3569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3590,7 +3586,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3607,7 +3603,7 @@
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3624,7 +3620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3639,7 +3635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3653,7 +3649,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3670,7 +3666,7 @@
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3687,7 +3683,7 @@
         <v>113</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3702,7 +3698,7 @@
         <v>130</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3717,7 +3713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3732,7 +3728,7 @@
         <v>218</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>140</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3766,7 +3762,7 @@
         <v>141</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3783,7 +3779,7 @@
         <v>142</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3800,7 +3796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>219</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3830,7 +3826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3847,7 +3843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -3862,7 +3858,7 @@
         <v>182</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
@@ -3879,7 +3875,7 @@
         <v>184</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -3894,7 +3890,7 @@
         <v>220</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
@@ -3909,7 +3905,7 @@
         <v>148</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="25" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -3926,7 +3922,7 @@
         <v>246</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="26" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
@@ -3943,7 +3939,7 @@
         <v>148</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="27" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
@@ -3957,7 +3953,7 @@
         <v>221</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="28" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
@@ -3971,7 +3967,7 @@
         <v>222</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="29" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
@@ -3986,7 +3982,7 @@
         <v>223</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="30" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
@@ -4000,7 +3996,7 @@
         <v>188</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="31" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>198</v>
       </c>
@@ -4014,7 +4010,7 @@
         <v>224</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="32" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>199</v>
       </c>
@@ -4028,7 +4024,7 @@
         <v>191</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="33" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>200</v>
       </c>
@@ -4042,7 +4038,7 @@
         <v>193</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="34" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>201</v>
       </c>
@@ -4057,7 +4053,7 @@
         <v>194</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="35" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>202</v>
       </c>
@@ -4074,7 +4070,7 @@
         <v>247</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="36" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>203</v>
       </c>
@@ -4094,14 +4090,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
-    <hyperlink r:id="rId2" ref="D22" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4114,8 +4110,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4123,13 +4119,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4146,7 +4142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4160,7 +4156,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4177,7 +4173,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4194,7 +4190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4211,7 +4207,7 @@
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4228,7 +4224,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4243,7 +4239,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4257,7 +4253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4274,7 +4270,7 @@
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>86</v>
       </c>
@@ -4306,7 +4302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4321,7 +4317,7 @@
         <v>152</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4336,7 +4332,7 @@
         <v>225</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4353,7 +4349,7 @@
         <v>157</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4368,7 +4364,7 @@
         <v>226</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4383,7 +4379,7 @@
         <v>227</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4398,7 +4394,7 @@
         <v>228</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4413,7 +4409,7 @@
         <v>217</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4428,7 +4424,7 @@
         <v>229</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -4443,7 +4439,7 @@
         <v>230</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -4458,7 +4454,7 @@
         <v>231</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>161</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="23" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
@@ -4490,7 +4486,7 @@
         <v>248</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="24" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>163</v>
       </c>
@@ -4507,7 +4503,7 @@
         <v>158</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
@@ -4521,7 +4517,7 @@
         <v>232</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>173</v>
       </c>
@@ -4535,7 +4531,7 @@
         <v>233</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>174</v>
       </c>
@@ -4549,7 +4545,7 @@
         <v>234</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>175</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>212</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="29" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>196</v>
       </c>
@@ -4581,7 +4577,7 @@
         <v>249</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="30" s="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>197</v>
       </c>
@@ -4601,13 +4597,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4620,8 +4616,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4629,13 +4625,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4652,7 +4648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4666,7 +4662,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4683,7 +4679,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4700,7 +4696,7 @@
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4717,7 +4713,7 @@
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4734,7 +4730,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4749,7 +4745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4780,7 +4776,7 @@
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -4812,7 +4808,7 @@
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4826,7 +4822,7 @@
         <v>117</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4841,7 +4837,7 @@
         <v>236</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4858,7 +4854,7 @@
         <v>241</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4875,7 +4871,7 @@
         <v>242</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4892,7 +4888,7 @@
         <v>243</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4907,7 +4903,7 @@
         <v>245</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4922,7 +4918,7 @@
         <v>251</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4939,7 +4935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -4959,13 +4955,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3201C98B-92AF-8944-A127-C0E67E572512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{32104FB5-6D9F-0648-B348-6A7CB2410FC4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="4" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
-    <sheet name="TC001_RegBuyerOrganisation" sheetId="20" r:id="rId3"/>
-    <sheet name="TC002_RegSupplierOrganisation" sheetId="21" r:id="rId4"/>
-    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
-    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
-    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
-    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
+    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
+    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
+    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
+    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
+    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
+    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
+    <sheet name="TC004_ResetPassword" r:id="rId8" sheetId="19"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="327">
   <si>
     <t>TS_02</t>
   </si>
@@ -431,18 +431,12 @@
     <t>Enter name</t>
   </si>
   <si>
-    <t>TestContactOne</t>
-  </si>
-  <si>
     <t>Select email checkbox</t>
   </si>
   <si>
     <t>Enter contact email</t>
   </si>
   <si>
-    <t>contact-1@mailinator.com</t>
-  </si>
-  <si>
     <t>Wait for page header to be displayed</t>
   </si>
   <si>
@@ -506,9 +500,6 @@
     <t>elm_contact_created</t>
   </si>
   <si>
-    <t>Your contact has been added</t>
-  </si>
-  <si>
     <t>expected_dashboardTitle</t>
   </si>
   <si>
@@ -662,9 +653,6 @@
     <t>elm_contact_deleted</t>
   </si>
   <si>
-    <t>Your contact has been deleted</t>
-  </si>
-  <si>
     <t>TC001_AddDeleteContact</t>
   </si>
   <si>
@@ -777,9 +765,6 @@
   </si>
   <si>
     <t>expected_contactdeletedTitle</t>
-  </si>
-  <si>
-    <t>expected_contactaddedTitle</t>
   </si>
   <si>
     <t>elm_confirmUser</t>
@@ -1116,11 +1101,45 @@
   <si>
     <t>rd_supplier</t>
   </si>
+  <si>
+    <t>Sign in to the Public Procurement Gateway</t>
+  </si>
+  <si>
+    <t>pcc.esourcingtest13@yopmail.com</t>
+  </si>
+  <si>
+    <t>Public Procurement Gateway Dashboard</t>
+  </si>
+  <si>
+    <t>Wait for add another contact page</t>
+  </si>
+  <si>
+    <t>Wait for email id field</t>
+  </si>
+  <si>
+    <t>elm_edit_header</t>
+  </si>
+  <si>
+    <t>Wait for edit contact page</t>
+  </si>
+  <si>
+    <t>Wait for confirm delete button</t>
+  </si>
+  <si>
+    <t>You have successfully deleted contact details</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Wait for add account button clickable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1254,76 +1273,78 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1340,10 +1361,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1378,7 +1399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1430,7 +1451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1535,7 +1556,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1544,13 +1565,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1560,7 +1581,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1569,7 +1590,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1578,7 +1599,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1588,12 +1609,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1624,7 +1645,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1643,7 +1664,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1655,20 +1676,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1676,7 +1697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1684,7 +1705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1700,7 +1721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1708,7 +1729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1716,7 +1737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1724,7 +1745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1753,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1748,7 +1769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1756,7 +1777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1764,7 +1785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1780,7 +1801,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1804,7 +1825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1812,7 +1833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1820,7 +1841,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1828,7 +1849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1836,7 +1857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1844,7 +1865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1852,7 +1873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1860,7 +1881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1868,7 +1889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1876,7 +1897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +1905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -1892,7 +1913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1900,7 +1921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1908,7 +1929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -1916,43 +1937,43 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
+    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1970,113 +1991,113 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>315</v>
+      <c r="A2" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>255</v>
+      <c r="A6" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>256</v>
+      <c r="A7" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
-    <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A4" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A5" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink display="TC002_RegSupplierOrganisation" location="TC002_RegSupplierOrganisation!A1" ref="A3" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2093,473 +2114,473 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>314</v>
+      <c r="D25" s="26" t="s">
+        <v>309</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2572,8 +2593,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -2581,13 +2602,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2604,430 +2625,430 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>314</v>
+      <c r="D22" s="26" t="s">
+        <v>309</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3040,24 +3061,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
-    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
+    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="14" width="50.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
+    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3079,13 +3101,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3093,16 +3115,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,16 +3132,16 @@
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3132,11 +3154,11 @@
       <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>81</v>
+      <c r="D5" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3153,7 +3175,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,13 +3198,13 @@
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,16 +3212,16 @@
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,10 +3235,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,7 +3253,7 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3239,28 +3261,27 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>98</v>
+      <c r="B13" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>19</v>
+      </c>
       <c r="E13" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3268,31 +3289,28 @@
         <v>89</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>100</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>101</v>
+      <c r="B15" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>17</v>
+      </c>
       <c r="E15" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,16 +3318,16 @@
         <v>93</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>103</v>
+      <c r="D16" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,14 +3335,14 @@
         <v>94</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3332,183 +3350,236 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>123</v>
+        <v>320</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>124</v>
+      <c r="E18" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>106</v>
+      <c r="B19" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>109</v>
+      <c r="B20" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>124</v>
+        <v>11</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13" t="s">
-        <v>165</v>
+        <v>17</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="C22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>117</v>
+        <v>11</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13" t="s">
-        <v>167</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>168</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>172</v>
+        <v>322</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>123</v>
+        <v>170</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>176</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>106</v>
+        <v>323</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>215</v>
+        <v>17</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>176</v>
+      <c r="D31" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{10628E66-DCB5-A848-BD35-C3545BC23EB0}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>C19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3516,12 +3587,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3538,55 +3609,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3600,10 +3671,10 @@
         <v>81</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3617,10 +3688,10 @@
         <v>83</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3635,38 +3706,38 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3677,427 +3748,427 @@
         <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="D15" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="D17" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="C19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="E22" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="25" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="26" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="27" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="28" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="30" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="31" s="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="32" s="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="33" s="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="34" s="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="B34" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="35" s="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="B35" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="36" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>194</v>
+        <v>242</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
-    <hyperlink ref="D22" r:id="rId2" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
+    <hyperlink r:id="rId2" ref="D22" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4110,8 +4181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4119,13 +4190,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4142,55 +4213,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4204,10 +4275,10 @@
         <v>81</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4221,10 +4292,10 @@
         <v>83</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4239,38 +4310,38 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4281,329 +4352,329 @@
         <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="11" s="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="23" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="24" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>173</v>
-      </c>
       <c r="B26" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="30" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>212</v>
+        <v>244</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4616,8 +4687,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4625,13 +4696,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4648,55 +4719,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4710,10 +4781,10 @@
         <v>81</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4727,10 +4798,10 @@
         <v>83</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4745,38 +4816,38 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4787,13 +4858,13 @@
         <v>40</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -4805,163 +4876,163 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E14" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="D15" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D16" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>251</v>
+        <v>245</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{32104FB5-6D9F-0648-B348-6A7CB2410FC4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C0C71D-A95D-774D-83CB-512DC556CD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="4" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
-    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
-    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
-    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
-    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
-    <sheet name="TC004_ResetPassword" r:id="rId8" sheetId="19"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
+    <sheet name="TC001_RegBuyerOrganisation" sheetId="20" r:id="rId3"/>
+    <sheet name="TC002_RegSupplierOrganisation" sheetId="21" r:id="rId4"/>
+    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
+    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
+    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
+    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="326">
   <si>
     <t>TS_02</t>
   </si>
@@ -1129,9 +1129,6 @@
     <t>You have successfully deleted contact details</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Wait for add account button clickable</t>
   </si>
 </sst>
@@ -1139,7 +1136,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1273,78 +1269,78 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1361,10 +1357,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1399,7 +1395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1451,7 +1447,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,7 +1552,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1565,13 +1561,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1581,7 +1577,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1590,7 +1586,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1599,7 +1595,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1609,12 +1605,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1645,7 +1641,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1664,7 +1660,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1676,8 +1672,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -1685,11 +1681,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1697,7 +1693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1745,7 +1741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1753,7 +1749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +1765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1785,7 +1781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1801,7 +1797,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1817,7 +1813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1825,7 +1821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1833,7 +1829,7 @@
         <v>61</v>
       </c>
     </row>
-    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1841,7 +1837,7 @@
         <v>62</v>
       </c>
     </row>
-    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1849,7 +1845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1857,7 +1853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1865,7 +1861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1881,7 +1877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +1885,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1897,7 +1893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1905,7 +1901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -1913,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1921,7 +1917,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1929,7 +1925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>271</v>
       </c>
@@ -1945,7 +1941,7 @@
         <v>272</v>
       </c>
     </row>
-    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>279</v>
       </c>
@@ -1954,14 +1950,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -1969,11 +1965,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,7 +2014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>174</v>
       </c>
@@ -2072,18 +2068,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A4" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A5" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
-    <hyperlink display="TC002_RegSupplierOrganisation" location="TC002_RegSupplierOrganisation!A1" ref="A3" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -2091,13 +2087,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2114,7 +2110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2129,7 +2125,7 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2140,7 @@
         <v>257</v>
       </c>
     </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2159,7 +2155,7 @@
         <v>259</v>
       </c>
     </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2174,7 +2170,7 @@
         <v>261</v>
       </c>
     </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2189,7 +2185,7 @@
         <v>263</v>
       </c>
     </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2204,7 +2200,7 @@
         <v>265</v>
       </c>
     </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2221,7 +2217,7 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2238,7 +2234,7 @@
         <v>275</v>
       </c>
     </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2255,7 +2251,7 @@
         <v>276</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2270,7 +2266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2284,7 +2280,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2299,7 +2295,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2313,7 +2309,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2327,7 +2323,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2342,7 +2338,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>287</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2370,7 +2366,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -2399,7 +2395,7 @@
         <v>291</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
@@ -2413,7 +2409,7 @@
         <v>293</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>158</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>159</v>
       </c>
@@ -2442,7 +2438,7 @@
         <v>295</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>297</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>167</v>
       </c>
@@ -2473,7 +2469,7 @@
         <v>299</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>171</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>301</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>172</v>
       </c>
@@ -2516,7 +2512,7 @@
         <v>303</v>
       </c>
     </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>192</v>
       </c>
@@ -2531,7 +2527,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>193</v>
       </c>
@@ -2545,7 +2541,7 @@
         <v>305</v>
       </c>
     </row>
-    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>194</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>195</v>
       </c>
@@ -2576,11 +2572,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2593,8 +2589,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -2602,13 +2598,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2651,7 @@
         <v>257</v>
       </c>
     </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2670,7 +2666,7 @@
         <v>259</v>
       </c>
     </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2685,7 +2681,7 @@
         <v>261</v>
       </c>
     </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2700,7 +2696,7 @@
         <v>263</v>
       </c>
     </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2715,7 +2711,7 @@
         <v>265</v>
       </c>
     </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2732,7 +2728,7 @@
         <v>274</v>
       </c>
     </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2749,7 +2745,7 @@
         <v>275</v>
       </c>
     </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2766,7 +2762,7 @@
         <v>276</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2781,7 +2777,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2795,7 +2791,7 @@
         <v>282</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2810,7 +2806,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2824,7 +2820,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2838,7 +2834,7 @@
         <v>284</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2853,7 +2849,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2867,7 +2863,7 @@
         <v>287</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2881,7 +2877,7 @@
         <v>315</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2896,7 +2892,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>159</v>
       </c>
@@ -2910,7 +2906,7 @@
         <v>295</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -2924,7 +2920,7 @@
         <v>297</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>167</v>
       </c>
@@ -2941,7 +2937,7 @@
         <v>299</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>170</v>
       </c>
@@ -2956,7 +2952,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>171</v>
       </c>
@@ -2970,7 +2966,7 @@
         <v>301</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>172</v>
       </c>
@@ -2984,7 +2980,7 @@
         <v>303</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>192</v>
       </c>
@@ -2999,7 +2995,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>193</v>
       </c>
@@ -3013,7 +3009,7 @@
         <v>305</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>194</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>195</v>
       </c>
@@ -3044,11 +3040,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3061,25 +3057,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="14" width="50.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
-    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
+    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3275,7 +3271,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>19</v>
@@ -3559,13 +3555,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3578,21 +3574,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +3605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3640,7 +3636,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3657,7 +3653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3674,7 +3670,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3691,7 +3687,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3720,7 +3716,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3737,7 +3733,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3754,7 +3750,7 @@
         <v>111</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3769,7 +3765,7 @@
         <v>127</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3784,7 +3780,7 @@
         <v>129</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3799,7 +3795,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3816,7 +3812,7 @@
         <v>137</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3833,7 +3829,7 @@
         <v>138</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3850,7 +3846,7 @@
         <v>139</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3867,7 +3863,7 @@
         <v>142</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3882,7 +3878,7 @@
         <v>214</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3897,7 +3893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3914,7 +3910,7 @@
         <v>117</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
@@ -3929,7 +3925,7 @@
         <v>178</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>158</v>
       </c>
@@ -3946,7 +3942,7 @@
         <v>180</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>159</v>
       </c>
@@ -3961,7 +3957,7 @@
         <v>215</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -3976,7 +3972,7 @@
         <v>145</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="25" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>167</v>
       </c>
@@ -3993,7 +3989,7 @@
         <v>241</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="26" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
@@ -4010,7 +4006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="27" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>171</v>
       </c>
@@ -4024,7 +4020,7 @@
         <v>216</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="28" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>172</v>
       </c>
@@ -4038,7 +4034,7 @@
         <v>217</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>192</v>
       </c>
@@ -4053,7 +4049,7 @@
         <v>218</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="30" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>193</v>
       </c>
@@ -4067,7 +4063,7 @@
         <v>184</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="31" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>194</v>
       </c>
@@ -4081,7 +4077,7 @@
         <v>219</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="32" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>195</v>
       </c>
@@ -4095,7 +4091,7 @@
         <v>187</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="33" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>196</v>
       </c>
@@ -4109,7 +4105,7 @@
         <v>189</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="34" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>197</v>
       </c>
@@ -4124,7 +4120,7 @@
         <v>190</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="35" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>198</v>
       </c>
@@ -4141,7 +4137,7 @@
         <v>242</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="36" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>199</v>
       </c>
@@ -4161,14 +4157,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
-    <hyperlink r:id="rId2" ref="D22" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4181,8 +4177,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4190,13 +4186,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4213,7 +4209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4227,7 +4223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4244,7 +4240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4261,7 +4257,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4278,7 +4274,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4295,7 +4291,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4310,7 +4306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4324,7 +4320,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4341,7 +4337,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4358,7 +4354,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
@@ -4373,7 +4369,7 @@
         <v>148</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4388,7 +4384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4403,7 +4399,7 @@
         <v>220</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4420,7 +4416,7 @@
         <v>154</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4435,7 +4431,7 @@
         <v>221</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4450,7 +4446,7 @@
         <v>222</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4465,7 +4461,7 @@
         <v>223</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4480,7 +4476,7 @@
         <v>212</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4495,7 +4491,7 @@
         <v>224</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -4510,7 +4506,7 @@
         <v>225</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
@@ -4525,7 +4521,7 @@
         <v>226</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>158</v>
       </c>
@@ -4540,7 +4536,7 @@
         <v>155</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="23" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>159</v>
       </c>
@@ -4557,7 +4553,7 @@
         <v>243</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="24" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -4574,7 +4570,7 @@
         <v>155</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>167</v>
       </c>
@@ -4588,7 +4584,7 @@
         <v>227</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
@@ -4602,7 +4598,7 @@
         <v>228</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>171</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>229</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>172</v>
       </c>
@@ -4631,7 +4627,7 @@
         <v>208</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>192</v>
       </c>
@@ -4648,7 +4644,7 @@
         <v>244</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="30" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>193</v>
       </c>
@@ -4668,13 +4664,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4687,8 +4683,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4696,13 +4692,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4719,7 +4715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4733,7 +4729,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4750,7 +4746,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4767,7 +4763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4784,7 +4780,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4801,7 +4797,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4816,7 +4812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4830,7 +4826,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4847,7 +4843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4864,7 +4860,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -4879,7 +4875,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4893,7 +4889,7 @@
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4908,7 +4904,7 @@
         <v>231</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4925,7 +4921,7 @@
         <v>236</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4942,7 +4938,7 @@
         <v>237</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4959,7 +4955,7 @@
         <v>238</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4974,7 +4970,7 @@
         <v>240</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4989,7 +4985,7 @@
         <v>246</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>245</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -5026,13 +5022,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akin.adebayo1/Documents/GitHub/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C0C71D-A95D-774D-83CB-512DC556CD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03475118-1314-AF46-99F3-3AC42EA8B62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
     <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
     <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
+    <sheet name="TC005_OrgAdmin_signIn_AddUser" sheetId="22" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="358">
   <si>
     <t>TS_02</t>
   </si>
@@ -1130,6 +1131,102 @@
   </si>
   <si>
     <t>Wait for add account button clickable</t>
+  </si>
+  <si>
+    <t>TC005_OrgAdmin_signIn_AddUser</t>
+  </si>
+  <si>
+    <t>To verify Org admin can sign in without MFA and add org User</t>
+  </si>
+  <si>
+    <t>auto_snr_supplier@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test12345@</t>
+  </si>
+  <si>
+    <t>Click manage users</t>
+  </si>
+  <si>
+    <t>lnk_user-link</t>
+  </si>
+  <si>
+    <t>Wait for manage your org user accounts page</t>
+  </si>
+  <si>
+    <t>elm_manageOrgUserAccount_header</t>
+  </si>
+  <si>
+    <t>Click add user</t>
+  </si>
+  <si>
+    <t>elm_addUsers</t>
+  </si>
+  <si>
+    <t>TS-13</t>
+  </si>
+  <si>
+    <t>Wait for Add users page</t>
+  </si>
+  <si>
+    <t>elm_addUser_header</t>
+  </si>
+  <si>
+    <t>Select Add single user radio button</t>
+  </si>
+  <si>
+    <t>elm_addSingleUser</t>
+  </si>
+  <si>
+    <t>Click Continue</t>
+  </si>
+  <si>
+    <t>elm_continueButton</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>txt.fName</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>txt.lName</t>
+  </si>
+  <si>
+    <t>Enter email Address</t>
+  </si>
+  <si>
+    <t>org_user_1@yopmail.com</t>
+  </si>
+  <si>
+    <t>txt.eMail</t>
+  </si>
+  <si>
+    <t>Select Org User-Dashboard checkbox</t>
+  </si>
+  <si>
+    <t>chk_Org_user_dashboard_checkbox</t>
+  </si>
+  <si>
+    <t>Click User ID and password</t>
+  </si>
+  <si>
+    <t>elm_userID_password</t>
+  </si>
+  <si>
+    <t>Click Save changes</t>
+  </si>
+  <si>
+    <t>elm_save_Changes</t>
+  </si>
+  <si>
+    <t>elm_email_instruction_sent</t>
   </si>
 </sst>
 </file>
@@ -1957,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2066,12 +2163,21 @@
         <v>308</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
     <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
     <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
     <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink ref="A8" location="TC005_OrgAdmin_signIn_AddUser!A1" display="TC005_OrgAdmin_signIn_AddUser" xr:uid="{46A3202A-657A-EB48-8D74-EAA484929442}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3060,7 +3166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4687,7 +4793,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5038,4 +5144,7066 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F54674-59A1-DA40-ADB4-EFF339CD27DD}">
+  <dimension ref="A1:E976"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+    </row>
+    <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+    </row>
+    <row r="98" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+    </row>
+    <row r="99" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+    </row>
+    <row r="103" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+    </row>
+    <row r="105" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+    </row>
+    <row r="107" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+    </row>
+    <row r="108" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+    </row>
+    <row r="109" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+    </row>
+    <row r="110" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+    </row>
+    <row r="111" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+    </row>
+    <row r="112" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+    </row>
+    <row r="113" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+    </row>
+    <row r="115" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+    </row>
+    <row r="116" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+    </row>
+    <row r="117" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+    </row>
+    <row r="118" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+    </row>
+    <row r="120" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+    </row>
+    <row r="121" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+    </row>
+    <row r="122" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+    </row>
+    <row r="123" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+    </row>
+    <row r="124" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+    </row>
+    <row r="125" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+    </row>
+    <row r="126" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+    </row>
+    <row r="127" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+    </row>
+    <row r="128" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+    </row>
+    <row r="129" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+    </row>
+    <row r="130" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+    </row>
+    <row r="131" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+    </row>
+    <row r="132" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+    </row>
+    <row r="133" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+    </row>
+    <row r="134" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+    </row>
+    <row r="135" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+    </row>
+    <row r="136" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+    </row>
+    <row r="137" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+    </row>
+    <row r="138" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+    </row>
+    <row r="139" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+    </row>
+    <row r="140" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+    </row>
+    <row r="141" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+    </row>
+    <row r="142" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+    </row>
+    <row r="143" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+    </row>
+    <row r="144" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+    </row>
+    <row r="145" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+    </row>
+    <row r="146" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+    </row>
+    <row r="147" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+    </row>
+    <row r="148" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+    </row>
+    <row r="149" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+    </row>
+    <row r="150" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A150" s="14"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+    </row>
+    <row r="151" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A151" s="14"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+    </row>
+    <row r="152" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+    </row>
+    <row r="153" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+    </row>
+    <row r="154" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+    </row>
+    <row r="155" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+    </row>
+    <row r="156" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+    </row>
+    <row r="157" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+    </row>
+    <row r="158" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+    </row>
+    <row r="159" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A159" s="14"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+    </row>
+    <row r="160" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+    </row>
+    <row r="161" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+    </row>
+    <row r="162" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+    </row>
+    <row r="163" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+    </row>
+    <row r="164" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+    </row>
+    <row r="165" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+    </row>
+    <row r="166" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A166" s="14"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+    </row>
+    <row r="167" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+    </row>
+    <row r="168" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+    </row>
+    <row r="169" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A169" s="14"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+    </row>
+    <row r="170" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A170" s="14"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+    </row>
+    <row r="171" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A171" s="14"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+    </row>
+    <row r="172" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A172" s="14"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+    </row>
+    <row r="173" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+    </row>
+    <row r="175" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+    </row>
+    <row r="176" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+    </row>
+    <row r="177" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+    </row>
+    <row r="178" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+    </row>
+    <row r="179" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+    </row>
+    <row r="180" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+    </row>
+    <row r="181" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+    </row>
+    <row r="182" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+    </row>
+    <row r="183" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+    </row>
+    <row r="184" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+    </row>
+    <row r="185" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+    </row>
+    <row r="186" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+    </row>
+    <row r="187" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+    </row>
+    <row r="188" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+    </row>
+    <row r="189" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+    </row>
+    <row r="190" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+    </row>
+    <row r="191" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+    </row>
+    <row r="192" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+    </row>
+    <row r="193" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+    </row>
+    <row r="194" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+    </row>
+    <row r="195" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+    </row>
+    <row r="196" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+    </row>
+    <row r="197" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+    </row>
+    <row r="198" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+    </row>
+    <row r="199" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+    </row>
+    <row r="200" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+    </row>
+    <row r="201" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+    </row>
+    <row r="202" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+    </row>
+    <row r="203" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A203" s="14"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+    </row>
+    <row r="204" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A204" s="14"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+    </row>
+    <row r="205" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A205" s="14"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+    </row>
+    <row r="206" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A206" s="14"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14"/>
+    </row>
+    <row r="207" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A207" s="14"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="14"/>
+    </row>
+    <row r="208" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A208" s="14"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+    </row>
+    <row r="209" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A209" s="14"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+    </row>
+    <row r="210" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A210" s="14"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+    </row>
+    <row r="211" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A211" s="14"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+    </row>
+    <row r="212" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A212" s="14"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+    </row>
+    <row r="213" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A213" s="14"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+    </row>
+    <row r="214" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A214" s="14"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+    </row>
+    <row r="215" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A215" s="14"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+    </row>
+    <row r="216" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A216" s="14"/>
+      <c r="B216" s="14"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
+    </row>
+    <row r="217" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A217" s="14"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+    </row>
+    <row r="218" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A218" s="14"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+    </row>
+    <row r="219" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A219" s="14"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+    </row>
+    <row r="220" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A220" s="14"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+    </row>
+    <row r="221" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A221" s="14"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+    </row>
+    <row r="222" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A222" s="14"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+    </row>
+    <row r="223" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A223" s="14"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+    </row>
+    <row r="224" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A224" s="14"/>
+      <c r="B224" s="14"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+    </row>
+    <row r="225" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A225" s="14"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+    </row>
+    <row r="226" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A226" s="14"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+    </row>
+    <row r="227" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A227" s="14"/>
+      <c r="B227" s="14"/>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+    </row>
+    <row r="228" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A228" s="14"/>
+      <c r="B228" s="14"/>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+    </row>
+    <row r="229" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A229" s="14"/>
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+    </row>
+    <row r="230" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A230" s="14"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+    </row>
+    <row r="231" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A231" s="14"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+    </row>
+    <row r="232" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A232" s="14"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+    </row>
+    <row r="233" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A233" s="14"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+    </row>
+    <row r="234" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A234" s="14"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="14"/>
+    </row>
+    <row r="235" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A235" s="14"/>
+      <c r="B235" s="14"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="14"/>
+    </row>
+    <row r="236" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A236" s="14"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="14"/>
+    </row>
+    <row r="237" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A237" s="14"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="14"/>
+    </row>
+    <row r="238" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A238" s="14"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="14"/>
+    </row>
+    <row r="239" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A239" s="14"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="14"/>
+    </row>
+    <row r="240" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A240" s="14"/>
+      <c r="B240" s="14"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+    </row>
+    <row r="241" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A241" s="14"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14"/>
+    </row>
+    <row r="242" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A242" s="14"/>
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+    </row>
+    <row r="243" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A243" s="14"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="14"/>
+    </row>
+    <row r="244" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A244" s="14"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="14"/>
+    </row>
+    <row r="245" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A245" s="14"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
+    </row>
+    <row r="246" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A246" s="14"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+    </row>
+    <row r="247" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A247" s="14"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
+    </row>
+    <row r="248" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A248" s="14"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="14"/>
+    </row>
+    <row r="249" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A249" s="14"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="14"/>
+    </row>
+    <row r="250" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A250" s="14"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+    </row>
+    <row r="251" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+    </row>
+    <row r="252" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A252" s="14"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+    </row>
+    <row r="253" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A253" s="14"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+    </row>
+    <row r="254" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A254" s="14"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
+    </row>
+    <row r="255" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A255" s="14"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+    </row>
+    <row r="256" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A256" s="14"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="14"/>
+    </row>
+    <row r="257" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A257" s="14"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="14"/>
+    </row>
+    <row r="258" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A258" s="14"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="14"/>
+    </row>
+    <row r="259" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A259" s="14"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
+    </row>
+    <row r="260" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A260" s="14"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+    </row>
+    <row r="261" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+    </row>
+    <row r="262" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+    </row>
+    <row r="263" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+    </row>
+    <row r="264" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A264" s="14"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+    </row>
+    <row r="265" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A265" s="14"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+    </row>
+    <row r="266" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A266" s="14"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="14"/>
+    </row>
+    <row r="267" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A267" s="14"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="14"/>
+    </row>
+    <row r="268" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A268" s="14"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="14"/>
+    </row>
+    <row r="269" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A269" s="14"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="14"/>
+    </row>
+    <row r="270" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A270" s="14"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="14"/>
+    </row>
+    <row r="271" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A271" s="14"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+    </row>
+    <row r="272" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A272" s="14"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="14"/>
+    </row>
+    <row r="273" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A273" s="14"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="14"/>
+    </row>
+    <row r="274" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A274" s="14"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="14"/>
+    </row>
+    <row r="275" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A275" s="14"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="14"/>
+    </row>
+    <row r="276" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A276" s="14"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="14"/>
+    </row>
+    <row r="277" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A277" s="14"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="14"/>
+    </row>
+    <row r="278" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A278" s="14"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+    </row>
+    <row r="279" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="14"/>
+    </row>
+    <row r="280" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="14"/>
+    </row>
+    <row r="281" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A281" s="14"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="14"/>
+    </row>
+    <row r="282" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A282" s="14"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="14"/>
+    </row>
+    <row r="283" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A283" s="14"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="14"/>
+    </row>
+    <row r="284" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="14"/>
+    </row>
+    <row r="285" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="14"/>
+    </row>
+    <row r="286" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="14"/>
+    </row>
+    <row r="287" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A287" s="14"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="14"/>
+    </row>
+    <row r="288" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="14"/>
+    </row>
+    <row r="289" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="14"/>
+    </row>
+    <row r="290" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="14"/>
+    </row>
+    <row r="291" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="14"/>
+    </row>
+    <row r="292" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="14"/>
+    </row>
+    <row r="293" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A293" s="14"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="14"/>
+    </row>
+    <row r="294" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A294" s="14"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="14"/>
+    </row>
+    <row r="295" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A295" s="14"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="14"/>
+    </row>
+    <row r="296" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="14"/>
+    </row>
+    <row r="297" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="14"/>
+    </row>
+    <row r="298" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="14"/>
+    </row>
+    <row r="299" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A299" s="14"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="14"/>
+    </row>
+    <row r="300" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+    </row>
+    <row r="301" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A301" s="14"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="14"/>
+    </row>
+    <row r="302" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14"/>
+    </row>
+    <row r="303" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A303" s="14"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+    </row>
+    <row r="304" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="14"/>
+    </row>
+    <row r="305" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A305" s="14"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="14"/>
+    </row>
+    <row r="306" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="14"/>
+    </row>
+    <row r="307" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A307" s="14"/>
+      <c r="B307" s="14"/>
+      <c r="C307" s="14"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="14"/>
+    </row>
+    <row r="308" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A308" s="14"/>
+      <c r="B308" s="14"/>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="14"/>
+    </row>
+    <row r="309" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A309" s="14"/>
+      <c r="B309" s="14"/>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14"/>
+    </row>
+    <row r="310" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A310" s="14"/>
+      <c r="B310" s="14"/>
+      <c r="C310" s="14"/>
+      <c r="D310" s="14"/>
+      <c r="E310" s="14"/>
+    </row>
+    <row r="311" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A311" s="14"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="14"/>
+      <c r="D311" s="14"/>
+      <c r="E311" s="14"/>
+    </row>
+    <row r="312" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A312" s="14"/>
+      <c r="B312" s="14"/>
+      <c r="C312" s="14"/>
+      <c r="D312" s="14"/>
+      <c r="E312" s="14"/>
+    </row>
+    <row r="313" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A313" s="14"/>
+      <c r="B313" s="14"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14"/>
+      <c r="E313" s="14"/>
+    </row>
+    <row r="314" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A314" s="14"/>
+      <c r="B314" s="14"/>
+      <c r="C314" s="14"/>
+      <c r="D314" s="14"/>
+      <c r="E314" s="14"/>
+    </row>
+    <row r="315" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A315" s="14"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="14"/>
+      <c r="D315" s="14"/>
+      <c r="E315" s="14"/>
+    </row>
+    <row r="316" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A316" s="14"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="14"/>
+    </row>
+    <row r="317" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A317" s="14"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="14"/>
+      <c r="D317" s="14"/>
+      <c r="E317" s="14"/>
+    </row>
+    <row r="318" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A318" s="14"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="14"/>
+      <c r="D318" s="14"/>
+      <c r="E318" s="14"/>
+    </row>
+    <row r="319" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A319" s="14"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="14"/>
+    </row>
+    <row r="320" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A320" s="14"/>
+      <c r="B320" s="14"/>
+      <c r="C320" s="14"/>
+      <c r="D320" s="14"/>
+      <c r="E320" s="14"/>
+    </row>
+    <row r="321" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A321" s="14"/>
+      <c r="B321" s="14"/>
+      <c r="C321" s="14"/>
+      <c r="D321" s="14"/>
+      <c r="E321" s="14"/>
+    </row>
+    <row r="322" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A322" s="14"/>
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="14"/>
+    </row>
+    <row r="323" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A323" s="14"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+    </row>
+    <row r="324" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A324" s="14"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="14"/>
+    </row>
+    <row r="325" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A325" s="14"/>
+      <c r="B325" s="14"/>
+      <c r="C325" s="14"/>
+      <c r="D325" s="14"/>
+      <c r="E325" s="14"/>
+    </row>
+    <row r="326" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A326" s="14"/>
+      <c r="B326" s="14"/>
+      <c r="C326" s="14"/>
+      <c r="D326" s="14"/>
+      <c r="E326" s="14"/>
+    </row>
+    <row r="327" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A327" s="14"/>
+      <c r="B327" s="14"/>
+      <c r="C327" s="14"/>
+      <c r="D327" s="14"/>
+      <c r="E327" s="14"/>
+    </row>
+    <row r="328" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A328" s="14"/>
+      <c r="B328" s="14"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+    </row>
+    <row r="329" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A329" s="14"/>
+      <c r="B329" s="14"/>
+      <c r="C329" s="14"/>
+      <c r="D329" s="14"/>
+      <c r="E329" s="14"/>
+    </row>
+    <row r="330" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A330" s="14"/>
+      <c r="B330" s="14"/>
+      <c r="C330" s="14"/>
+      <c r="D330" s="14"/>
+      <c r="E330" s="14"/>
+    </row>
+    <row r="331" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A331" s="14"/>
+      <c r="B331" s="14"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14"/>
+      <c r="E331" s="14"/>
+    </row>
+    <row r="332" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A332" s="14"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="14"/>
+      <c r="D332" s="14"/>
+      <c r="E332" s="14"/>
+    </row>
+    <row r="333" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A333" s="14"/>
+      <c r="B333" s="14"/>
+      <c r="C333" s="14"/>
+      <c r="D333" s="14"/>
+      <c r="E333" s="14"/>
+    </row>
+    <row r="334" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A334" s="14"/>
+      <c r="B334" s="14"/>
+      <c r="C334" s="14"/>
+      <c r="D334" s="14"/>
+      <c r="E334" s="14"/>
+    </row>
+    <row r="335" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A335" s="14"/>
+      <c r="B335" s="14"/>
+      <c r="C335" s="14"/>
+      <c r="D335" s="14"/>
+      <c r="E335" s="14"/>
+    </row>
+    <row r="336" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A336" s="14"/>
+      <c r="B336" s="14"/>
+      <c r="C336" s="14"/>
+      <c r="D336" s="14"/>
+      <c r="E336" s="14"/>
+    </row>
+    <row r="337" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A337" s="14"/>
+      <c r="B337" s="14"/>
+      <c r="C337" s="14"/>
+      <c r="D337" s="14"/>
+      <c r="E337" s="14"/>
+    </row>
+    <row r="338" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A338" s="14"/>
+      <c r="B338" s="14"/>
+      <c r="C338" s="14"/>
+      <c r="D338" s="14"/>
+      <c r="E338" s="14"/>
+    </row>
+    <row r="339" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A339" s="14"/>
+      <c r="B339" s="14"/>
+      <c r="C339" s="14"/>
+      <c r="D339" s="14"/>
+      <c r="E339" s="14"/>
+    </row>
+    <row r="340" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A340" s="14"/>
+      <c r="B340" s="14"/>
+      <c r="C340" s="14"/>
+      <c r="D340" s="14"/>
+      <c r="E340" s="14"/>
+    </row>
+    <row r="341" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A341" s="14"/>
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
+      <c r="D341" s="14"/>
+      <c r="E341" s="14"/>
+    </row>
+    <row r="342" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A342" s="14"/>
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
+      <c r="D342" s="14"/>
+      <c r="E342" s="14"/>
+    </row>
+    <row r="343" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A343" s="14"/>
+      <c r="B343" s="14"/>
+      <c r="C343" s="14"/>
+      <c r="D343" s="14"/>
+      <c r="E343" s="14"/>
+    </row>
+    <row r="344" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A344" s="14"/>
+      <c r="B344" s="14"/>
+      <c r="C344" s="14"/>
+      <c r="D344" s="14"/>
+      <c r="E344" s="14"/>
+    </row>
+    <row r="345" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A345" s="14"/>
+      <c r="B345" s="14"/>
+      <c r="C345" s="14"/>
+      <c r="D345" s="14"/>
+      <c r="E345" s="14"/>
+    </row>
+    <row r="346" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A346" s="14"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="14"/>
+      <c r="D346" s="14"/>
+      <c r="E346" s="14"/>
+    </row>
+    <row r="347" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A347" s="14"/>
+      <c r="B347" s="14"/>
+      <c r="C347" s="14"/>
+      <c r="D347" s="14"/>
+      <c r="E347" s="14"/>
+    </row>
+    <row r="348" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
+      <c r="C348" s="14"/>
+      <c r="D348" s="14"/>
+      <c r="E348" s="14"/>
+    </row>
+    <row r="349" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A349" s="14"/>
+      <c r="B349" s="14"/>
+      <c r="C349" s="14"/>
+      <c r="D349" s="14"/>
+      <c r="E349" s="14"/>
+    </row>
+    <row r="350" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A350" s="14"/>
+      <c r="B350" s="14"/>
+      <c r="C350" s="14"/>
+      <c r="D350" s="14"/>
+      <c r="E350" s="14"/>
+    </row>
+    <row r="351" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A351" s="14"/>
+      <c r="B351" s="14"/>
+      <c r="C351" s="14"/>
+      <c r="D351" s="14"/>
+      <c r="E351" s="14"/>
+    </row>
+    <row r="352" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A352" s="14"/>
+      <c r="B352" s="14"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="14"/>
+    </row>
+    <row r="353" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A353" s="14"/>
+      <c r="B353" s="14"/>
+      <c r="C353" s="14"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="14"/>
+    </row>
+    <row r="354" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A354" s="14"/>
+      <c r="B354" s="14"/>
+      <c r="C354" s="14"/>
+      <c r="D354" s="14"/>
+      <c r="E354" s="14"/>
+    </row>
+    <row r="355" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A355" s="14"/>
+      <c r="B355" s="14"/>
+      <c r="C355" s="14"/>
+      <c r="D355" s="14"/>
+      <c r="E355" s="14"/>
+    </row>
+    <row r="356" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A356" s="14"/>
+      <c r="B356" s="14"/>
+      <c r="C356" s="14"/>
+      <c r="D356" s="14"/>
+      <c r="E356" s="14"/>
+    </row>
+    <row r="357" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="14"/>
+      <c r="E357" s="14"/>
+    </row>
+    <row r="358" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A358" s="14"/>
+      <c r="B358" s="14"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="14"/>
+      <c r="E358" s="14"/>
+    </row>
+    <row r="359" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A359" s="14"/>
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+      <c r="E359" s="14"/>
+    </row>
+    <row r="360" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A360" s="14"/>
+      <c r="B360" s="14"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="14"/>
+      <c r="E360" s="14"/>
+    </row>
+    <row r="361" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A361" s="14"/>
+      <c r="B361" s="14"/>
+      <c r="C361" s="14"/>
+      <c r="D361" s="14"/>
+      <c r="E361" s="14"/>
+    </row>
+    <row r="362" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A362" s="14"/>
+      <c r="B362" s="14"/>
+      <c r="C362" s="14"/>
+      <c r="D362" s="14"/>
+      <c r="E362" s="14"/>
+    </row>
+    <row r="363" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
+      <c r="C363" s="14"/>
+      <c r="D363" s="14"/>
+      <c r="E363" s="14"/>
+    </row>
+    <row r="364" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A364" s="14"/>
+      <c r="B364" s="14"/>
+      <c r="C364" s="14"/>
+      <c r="D364" s="14"/>
+      <c r="E364" s="14"/>
+    </row>
+    <row r="365" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A365" s="14"/>
+      <c r="B365" s="14"/>
+      <c r="C365" s="14"/>
+      <c r="D365" s="14"/>
+      <c r="E365" s="14"/>
+    </row>
+    <row r="366" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A366" s="14"/>
+      <c r="B366" s="14"/>
+      <c r="C366" s="14"/>
+      <c r="D366" s="14"/>
+      <c r="E366" s="14"/>
+    </row>
+    <row r="367" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A367" s="14"/>
+      <c r="B367" s="14"/>
+      <c r="C367" s="14"/>
+      <c r="D367" s="14"/>
+      <c r="E367" s="14"/>
+    </row>
+    <row r="368" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A368" s="14"/>
+      <c r="B368" s="14"/>
+      <c r="C368" s="14"/>
+      <c r="D368" s="14"/>
+      <c r="E368" s="14"/>
+    </row>
+    <row r="369" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A369" s="14"/>
+      <c r="B369" s="14"/>
+      <c r="C369" s="14"/>
+      <c r="D369" s="14"/>
+      <c r="E369" s="14"/>
+    </row>
+    <row r="370" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A370" s="14"/>
+      <c r="B370" s="14"/>
+      <c r="C370" s="14"/>
+      <c r="D370" s="14"/>
+      <c r="E370" s="14"/>
+    </row>
+    <row r="371" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A371" s="14"/>
+      <c r="B371" s="14"/>
+      <c r="C371" s="14"/>
+      <c r="D371" s="14"/>
+      <c r="E371" s="14"/>
+    </row>
+    <row r="372" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A372" s="14"/>
+      <c r="B372" s="14"/>
+      <c r="C372" s="14"/>
+      <c r="D372" s="14"/>
+      <c r="E372" s="14"/>
+    </row>
+    <row r="373" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A373" s="14"/>
+      <c r="B373" s="14"/>
+      <c r="C373" s="14"/>
+      <c r="D373" s="14"/>
+      <c r="E373" s="14"/>
+    </row>
+    <row r="374" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A374" s="14"/>
+      <c r="B374" s="14"/>
+      <c r="C374" s="14"/>
+      <c r="D374" s="14"/>
+      <c r="E374" s="14"/>
+    </row>
+    <row r="375" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A375" s="14"/>
+      <c r="B375" s="14"/>
+      <c r="C375" s="14"/>
+      <c r="D375" s="14"/>
+      <c r="E375" s="14"/>
+    </row>
+    <row r="376" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A376" s="14"/>
+      <c r="B376" s="14"/>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="14"/>
+    </row>
+    <row r="377" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A377" s="14"/>
+      <c r="B377" s="14"/>
+      <c r="C377" s="14"/>
+      <c r="D377" s="14"/>
+      <c r="E377" s="14"/>
+    </row>
+    <row r="378" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A378" s="14"/>
+      <c r="B378" s="14"/>
+      <c r="C378" s="14"/>
+      <c r="D378" s="14"/>
+      <c r="E378" s="14"/>
+    </row>
+    <row r="379" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A379" s="14"/>
+      <c r="B379" s="14"/>
+      <c r="C379" s="14"/>
+      <c r="D379" s="14"/>
+      <c r="E379" s="14"/>
+    </row>
+    <row r="380" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A380" s="14"/>
+      <c r="B380" s="14"/>
+      <c r="C380" s="14"/>
+      <c r="D380" s="14"/>
+      <c r="E380" s="14"/>
+    </row>
+    <row r="381" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A381" s="14"/>
+      <c r="B381" s="14"/>
+      <c r="C381" s="14"/>
+      <c r="D381" s="14"/>
+      <c r="E381" s="14"/>
+    </row>
+    <row r="382" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A382" s="14"/>
+      <c r="B382" s="14"/>
+      <c r="C382" s="14"/>
+      <c r="D382" s="14"/>
+      <c r="E382" s="14"/>
+    </row>
+    <row r="383" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A383" s="14"/>
+      <c r="B383" s="14"/>
+      <c r="C383" s="14"/>
+      <c r="D383" s="14"/>
+      <c r="E383" s="14"/>
+    </row>
+    <row r="384" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A384" s="14"/>
+      <c r="B384" s="14"/>
+      <c r="C384" s="14"/>
+      <c r="D384" s="14"/>
+      <c r="E384" s="14"/>
+    </row>
+    <row r="385" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A385" s="14"/>
+      <c r="B385" s="14"/>
+      <c r="C385" s="14"/>
+      <c r="D385" s="14"/>
+      <c r="E385" s="14"/>
+    </row>
+    <row r="386" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A386" s="14"/>
+      <c r="B386" s="14"/>
+      <c r="C386" s="14"/>
+      <c r="D386" s="14"/>
+      <c r="E386" s="14"/>
+    </row>
+    <row r="387" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A387" s="14"/>
+      <c r="B387" s="14"/>
+      <c r="C387" s="14"/>
+      <c r="D387" s="14"/>
+      <c r="E387" s="14"/>
+    </row>
+    <row r="388" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A388" s="14"/>
+      <c r="B388" s="14"/>
+      <c r="C388" s="14"/>
+      <c r="D388" s="14"/>
+      <c r="E388" s="14"/>
+    </row>
+    <row r="389" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A389" s="14"/>
+      <c r="B389" s="14"/>
+      <c r="C389" s="14"/>
+      <c r="D389" s="14"/>
+      <c r="E389" s="14"/>
+    </row>
+    <row r="390" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A390" s="14"/>
+      <c r="B390" s="14"/>
+      <c r="C390" s="14"/>
+      <c r="D390" s="14"/>
+      <c r="E390" s="14"/>
+    </row>
+    <row r="391" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A391" s="14"/>
+      <c r="B391" s="14"/>
+      <c r="C391" s="14"/>
+      <c r="D391" s="14"/>
+      <c r="E391" s="14"/>
+    </row>
+    <row r="392" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A392" s="14"/>
+      <c r="B392" s="14"/>
+      <c r="C392" s="14"/>
+      <c r="D392" s="14"/>
+      <c r="E392" s="14"/>
+    </row>
+    <row r="393" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A393" s="14"/>
+      <c r="B393" s="14"/>
+      <c r="C393" s="14"/>
+      <c r="D393" s="14"/>
+      <c r="E393" s="14"/>
+    </row>
+    <row r="394" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A394" s="14"/>
+      <c r="B394" s="14"/>
+      <c r="C394" s="14"/>
+      <c r="D394" s="14"/>
+      <c r="E394" s="14"/>
+    </row>
+    <row r="395" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A395" s="14"/>
+      <c r="B395" s="14"/>
+      <c r="C395" s="14"/>
+      <c r="D395" s="14"/>
+      <c r="E395" s="14"/>
+    </row>
+    <row r="396" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A396" s="14"/>
+      <c r="B396" s="14"/>
+      <c r="C396" s="14"/>
+      <c r="D396" s="14"/>
+      <c r="E396" s="14"/>
+    </row>
+    <row r="397" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A397" s="14"/>
+      <c r="B397" s="14"/>
+      <c r="C397" s="14"/>
+      <c r="D397" s="14"/>
+      <c r="E397" s="14"/>
+    </row>
+    <row r="398" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A398" s="14"/>
+      <c r="B398" s="14"/>
+      <c r="C398" s="14"/>
+      <c r="D398" s="14"/>
+      <c r="E398" s="14"/>
+    </row>
+    <row r="399" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A399" s="14"/>
+      <c r="B399" s="14"/>
+      <c r="C399" s="14"/>
+      <c r="D399" s="14"/>
+      <c r="E399" s="14"/>
+    </row>
+    <row r="400" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A400" s="14"/>
+      <c r="B400" s="14"/>
+      <c r="C400" s="14"/>
+      <c r="D400" s="14"/>
+      <c r="E400" s="14"/>
+    </row>
+    <row r="401" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A401" s="14"/>
+      <c r="B401" s="14"/>
+      <c r="C401" s="14"/>
+      <c r="D401" s="14"/>
+      <c r="E401" s="14"/>
+    </row>
+    <row r="402" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A402" s="14"/>
+      <c r="B402" s="14"/>
+      <c r="C402" s="14"/>
+      <c r="D402" s="14"/>
+      <c r="E402" s="14"/>
+    </row>
+    <row r="403" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A403" s="14"/>
+      <c r="B403" s="14"/>
+      <c r="C403" s="14"/>
+      <c r="D403" s="14"/>
+      <c r="E403" s="14"/>
+    </row>
+    <row r="404" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A404" s="14"/>
+      <c r="B404" s="14"/>
+      <c r="C404" s="14"/>
+      <c r="D404" s="14"/>
+      <c r="E404" s="14"/>
+    </row>
+    <row r="405" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A405" s="14"/>
+      <c r="B405" s="14"/>
+      <c r="C405" s="14"/>
+      <c r="D405" s="14"/>
+      <c r="E405" s="14"/>
+    </row>
+    <row r="406" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A406" s="14"/>
+      <c r="B406" s="14"/>
+      <c r="C406" s="14"/>
+      <c r="D406" s="14"/>
+      <c r="E406" s="14"/>
+    </row>
+    <row r="407" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A407" s="14"/>
+      <c r="B407" s="14"/>
+      <c r="C407" s="14"/>
+      <c r="D407" s="14"/>
+      <c r="E407" s="14"/>
+    </row>
+    <row r="408" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A408" s="14"/>
+      <c r="B408" s="14"/>
+      <c r="C408" s="14"/>
+      <c r="D408" s="14"/>
+      <c r="E408" s="14"/>
+    </row>
+    <row r="409" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A409" s="14"/>
+      <c r="B409" s="14"/>
+      <c r="C409" s="14"/>
+      <c r="D409" s="14"/>
+      <c r="E409" s="14"/>
+    </row>
+    <row r="410" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A410" s="14"/>
+      <c r="B410" s="14"/>
+      <c r="C410" s="14"/>
+      <c r="D410" s="14"/>
+      <c r="E410" s="14"/>
+    </row>
+    <row r="411" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A411" s="14"/>
+      <c r="B411" s="14"/>
+      <c r="C411" s="14"/>
+      <c r="D411" s="14"/>
+      <c r="E411" s="14"/>
+    </row>
+    <row r="412" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A412" s="14"/>
+      <c r="B412" s="14"/>
+      <c r="C412" s="14"/>
+      <c r="D412" s="14"/>
+      <c r="E412" s="14"/>
+    </row>
+    <row r="413" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A413" s="14"/>
+      <c r="B413" s="14"/>
+      <c r="C413" s="14"/>
+      <c r="D413" s="14"/>
+      <c r="E413" s="14"/>
+    </row>
+    <row r="414" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A414" s="14"/>
+      <c r="B414" s="14"/>
+      <c r="C414" s="14"/>
+      <c r="D414" s="14"/>
+      <c r="E414" s="14"/>
+    </row>
+    <row r="415" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
+      <c r="D415" s="14"/>
+      <c r="E415" s="14"/>
+    </row>
+    <row r="416" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A416" s="14"/>
+      <c r="B416" s="14"/>
+      <c r="C416" s="14"/>
+      <c r="D416" s="14"/>
+      <c r="E416" s="14"/>
+    </row>
+    <row r="417" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A417" s="14"/>
+      <c r="B417" s="14"/>
+      <c r="C417" s="14"/>
+      <c r="D417" s="14"/>
+      <c r="E417" s="14"/>
+    </row>
+    <row r="418" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A418" s="14"/>
+      <c r="B418" s="14"/>
+      <c r="C418" s="14"/>
+      <c r="D418" s="14"/>
+      <c r="E418" s="14"/>
+    </row>
+    <row r="419" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A419" s="14"/>
+      <c r="B419" s="14"/>
+      <c r="C419" s="14"/>
+      <c r="D419" s="14"/>
+      <c r="E419" s="14"/>
+    </row>
+    <row r="420" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A420" s="14"/>
+      <c r="B420" s="14"/>
+      <c r="C420" s="14"/>
+      <c r="D420" s="14"/>
+      <c r="E420" s="14"/>
+    </row>
+    <row r="421" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A421" s="14"/>
+      <c r="B421" s="14"/>
+      <c r="C421" s="14"/>
+      <c r="D421" s="14"/>
+      <c r="E421" s="14"/>
+    </row>
+    <row r="422" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A422" s="14"/>
+      <c r="B422" s="14"/>
+      <c r="C422" s="14"/>
+      <c r="D422" s="14"/>
+      <c r="E422" s="14"/>
+    </row>
+    <row r="423" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A423" s="14"/>
+      <c r="B423" s="14"/>
+      <c r="C423" s="14"/>
+      <c r="D423" s="14"/>
+      <c r="E423" s="14"/>
+    </row>
+    <row r="424" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A424" s="14"/>
+      <c r="B424" s="14"/>
+      <c r="C424" s="14"/>
+      <c r="D424" s="14"/>
+      <c r="E424" s="14"/>
+    </row>
+    <row r="425" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A425" s="14"/>
+      <c r="B425" s="14"/>
+      <c r="C425" s="14"/>
+      <c r="D425" s="14"/>
+      <c r="E425" s="14"/>
+    </row>
+    <row r="426" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A426" s="14"/>
+      <c r="B426" s="14"/>
+      <c r="C426" s="14"/>
+      <c r="D426" s="14"/>
+      <c r="E426" s="14"/>
+    </row>
+    <row r="427" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A427" s="14"/>
+      <c r="B427" s="14"/>
+      <c r="C427" s="14"/>
+      <c r="D427" s="14"/>
+      <c r="E427" s="14"/>
+    </row>
+    <row r="428" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A428" s="14"/>
+      <c r="B428" s="14"/>
+      <c r="C428" s="14"/>
+      <c r="D428" s="14"/>
+      <c r="E428" s="14"/>
+    </row>
+    <row r="429" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A429" s="14"/>
+      <c r="B429" s="14"/>
+      <c r="C429" s="14"/>
+      <c r="D429" s="14"/>
+      <c r="E429" s="14"/>
+    </row>
+    <row r="430" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A430" s="14"/>
+      <c r="B430" s="14"/>
+      <c r="C430" s="14"/>
+      <c r="D430" s="14"/>
+      <c r="E430" s="14"/>
+    </row>
+    <row r="431" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A431" s="14"/>
+      <c r="B431" s="14"/>
+      <c r="C431" s="14"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="14"/>
+    </row>
+    <row r="432" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A432" s="14"/>
+      <c r="B432" s="14"/>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="14"/>
+    </row>
+    <row r="433" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A433" s="14"/>
+      <c r="B433" s="14"/>
+      <c r="C433" s="14"/>
+      <c r="D433" s="14"/>
+      <c r="E433" s="14"/>
+    </row>
+    <row r="434" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A434" s="14"/>
+      <c r="B434" s="14"/>
+      <c r="C434" s="14"/>
+      <c r="D434" s="14"/>
+      <c r="E434" s="14"/>
+    </row>
+    <row r="435" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A435" s="14"/>
+      <c r="B435" s="14"/>
+      <c r="C435" s="14"/>
+      <c r="D435" s="14"/>
+      <c r="E435" s="14"/>
+    </row>
+    <row r="436" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A436" s="14"/>
+      <c r="B436" s="14"/>
+      <c r="C436" s="14"/>
+      <c r="D436" s="14"/>
+      <c r="E436" s="14"/>
+    </row>
+    <row r="437" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A437" s="14"/>
+      <c r="B437" s="14"/>
+      <c r="C437" s="14"/>
+      <c r="D437" s="14"/>
+      <c r="E437" s="14"/>
+    </row>
+    <row r="438" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A438" s="14"/>
+      <c r="B438" s="14"/>
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="14"/>
+    </row>
+    <row r="439" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A439" s="14"/>
+      <c r="B439" s="14"/>
+      <c r="C439" s="14"/>
+      <c r="D439" s="14"/>
+      <c r="E439" s="14"/>
+    </row>
+    <row r="440" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A440" s="14"/>
+      <c r="B440" s="14"/>
+      <c r="C440" s="14"/>
+      <c r="D440" s="14"/>
+      <c r="E440" s="14"/>
+    </row>
+    <row r="441" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A441" s="14"/>
+      <c r="B441" s="14"/>
+      <c r="C441" s="14"/>
+      <c r="D441" s="14"/>
+      <c r="E441" s="14"/>
+    </row>
+    <row r="442" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A442" s="14"/>
+      <c r="B442" s="14"/>
+      <c r="C442" s="14"/>
+      <c r="D442" s="14"/>
+      <c r="E442" s="14"/>
+    </row>
+    <row r="443" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A443" s="14"/>
+      <c r="B443" s="14"/>
+      <c r="C443" s="14"/>
+      <c r="D443" s="14"/>
+      <c r="E443" s="14"/>
+    </row>
+    <row r="444" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A444" s="14"/>
+      <c r="B444" s="14"/>
+      <c r="C444" s="14"/>
+      <c r="D444" s="14"/>
+      <c r="E444" s="14"/>
+    </row>
+    <row r="445" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A445" s="14"/>
+      <c r="B445" s="14"/>
+      <c r="C445" s="14"/>
+      <c r="D445" s="14"/>
+      <c r="E445" s="14"/>
+    </row>
+    <row r="446" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="14"/>
+    </row>
+    <row r="447" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A447" s="14"/>
+      <c r="B447" s="14"/>
+      <c r="C447" s="14"/>
+      <c r="D447" s="14"/>
+      <c r="E447" s="14"/>
+    </row>
+    <row r="448" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A448" s="14"/>
+      <c r="B448" s="14"/>
+      <c r="C448" s="14"/>
+      <c r="D448" s="14"/>
+      <c r="E448" s="14"/>
+    </row>
+    <row r="449" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A449" s="14"/>
+      <c r="B449" s="14"/>
+      <c r="C449" s="14"/>
+      <c r="D449" s="14"/>
+      <c r="E449" s="14"/>
+    </row>
+    <row r="450" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A450" s="14"/>
+      <c r="B450" s="14"/>
+      <c r="C450" s="14"/>
+      <c r="D450" s="14"/>
+      <c r="E450" s="14"/>
+    </row>
+    <row r="451" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A451" s="14"/>
+      <c r="B451" s="14"/>
+      <c r="C451" s="14"/>
+      <c r="D451" s="14"/>
+      <c r="E451" s="14"/>
+    </row>
+    <row r="452" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A452" s="14"/>
+      <c r="B452" s="14"/>
+      <c r="C452" s="14"/>
+      <c r="D452" s="14"/>
+      <c r="E452" s="14"/>
+    </row>
+    <row r="453" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A453" s="14"/>
+      <c r="B453" s="14"/>
+      <c r="C453" s="14"/>
+      <c r="D453" s="14"/>
+      <c r="E453" s="14"/>
+    </row>
+    <row r="454" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A454" s="14"/>
+      <c r="B454" s="14"/>
+      <c r="C454" s="14"/>
+      <c r="D454" s="14"/>
+      <c r="E454" s="14"/>
+    </row>
+    <row r="455" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A455" s="14"/>
+      <c r="B455" s="14"/>
+      <c r="C455" s="14"/>
+      <c r="D455" s="14"/>
+      <c r="E455" s="14"/>
+    </row>
+    <row r="456" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A456" s="14"/>
+      <c r="B456" s="14"/>
+      <c r="C456" s="14"/>
+      <c r="D456" s="14"/>
+      <c r="E456" s="14"/>
+    </row>
+    <row r="457" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A457" s="14"/>
+      <c r="B457" s="14"/>
+      <c r="C457" s="14"/>
+      <c r="D457" s="14"/>
+      <c r="E457" s="14"/>
+    </row>
+    <row r="458" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A458" s="14"/>
+      <c r="B458" s="14"/>
+      <c r="C458" s="14"/>
+      <c r="D458" s="14"/>
+      <c r="E458" s="14"/>
+    </row>
+    <row r="459" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A459" s="14"/>
+      <c r="B459" s="14"/>
+      <c r="C459" s="14"/>
+      <c r="D459" s="14"/>
+      <c r="E459" s="14"/>
+    </row>
+    <row r="460" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A460" s="14"/>
+      <c r="B460" s="14"/>
+      <c r="C460" s="14"/>
+      <c r="D460" s="14"/>
+      <c r="E460" s="14"/>
+    </row>
+    <row r="461" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A461" s="14"/>
+      <c r="B461" s="14"/>
+      <c r="C461" s="14"/>
+      <c r="D461" s="14"/>
+      <c r="E461" s="14"/>
+    </row>
+    <row r="462" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A462" s="14"/>
+      <c r="B462" s="14"/>
+      <c r="C462" s="14"/>
+      <c r="D462" s="14"/>
+      <c r="E462" s="14"/>
+    </row>
+    <row r="463" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A463" s="14"/>
+      <c r="B463" s="14"/>
+      <c r="C463" s="14"/>
+      <c r="D463" s="14"/>
+      <c r="E463" s="14"/>
+    </row>
+    <row r="464" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A464" s="14"/>
+      <c r="B464" s="14"/>
+      <c r="C464" s="14"/>
+      <c r="D464" s="14"/>
+      <c r="E464" s="14"/>
+    </row>
+    <row r="465" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A465" s="14"/>
+      <c r="B465" s="14"/>
+      <c r="C465" s="14"/>
+      <c r="D465" s="14"/>
+      <c r="E465" s="14"/>
+    </row>
+    <row r="466" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A466" s="14"/>
+      <c r="B466" s="14"/>
+      <c r="C466" s="14"/>
+      <c r="D466" s="14"/>
+      <c r="E466" s="14"/>
+    </row>
+    <row r="467" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A467" s="14"/>
+      <c r="B467" s="14"/>
+      <c r="C467" s="14"/>
+      <c r="D467" s="14"/>
+      <c r="E467" s="14"/>
+    </row>
+    <row r="468" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A468" s="14"/>
+      <c r="B468" s="14"/>
+      <c r="C468" s="14"/>
+      <c r="D468" s="14"/>
+      <c r="E468" s="14"/>
+    </row>
+    <row r="469" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A469" s="14"/>
+      <c r="B469" s="14"/>
+      <c r="C469" s="14"/>
+      <c r="D469" s="14"/>
+      <c r="E469" s="14"/>
+    </row>
+    <row r="470" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A470" s="14"/>
+      <c r="B470" s="14"/>
+      <c r="C470" s="14"/>
+      <c r="D470" s="14"/>
+      <c r="E470" s="14"/>
+    </row>
+    <row r="471" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A471" s="14"/>
+      <c r="B471" s="14"/>
+      <c r="C471" s="14"/>
+      <c r="D471" s="14"/>
+      <c r="E471" s="14"/>
+    </row>
+    <row r="472" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A472" s="14"/>
+      <c r="B472" s="14"/>
+      <c r="C472" s="14"/>
+      <c r="D472" s="14"/>
+      <c r="E472" s="14"/>
+    </row>
+    <row r="473" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A473" s="14"/>
+      <c r="B473" s="14"/>
+      <c r="C473" s="14"/>
+      <c r="D473" s="14"/>
+      <c r="E473" s="14"/>
+    </row>
+    <row r="474" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A474" s="14"/>
+      <c r="B474" s="14"/>
+      <c r="C474" s="14"/>
+      <c r="D474" s="14"/>
+      <c r="E474" s="14"/>
+    </row>
+    <row r="475" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A475" s="14"/>
+      <c r="B475" s="14"/>
+      <c r="C475" s="14"/>
+      <c r="D475" s="14"/>
+      <c r="E475" s="14"/>
+    </row>
+    <row r="476" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A476" s="14"/>
+      <c r="B476" s="14"/>
+      <c r="C476" s="14"/>
+      <c r="D476" s="14"/>
+      <c r="E476" s="14"/>
+    </row>
+    <row r="477" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A477" s="14"/>
+      <c r="B477" s="14"/>
+      <c r="C477" s="14"/>
+      <c r="D477" s="14"/>
+      <c r="E477" s="14"/>
+    </row>
+    <row r="478" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A478" s="14"/>
+      <c r="B478" s="14"/>
+      <c r="C478" s="14"/>
+      <c r="D478" s="14"/>
+      <c r="E478" s="14"/>
+    </row>
+    <row r="479" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A479" s="14"/>
+      <c r="B479" s="14"/>
+      <c r="C479" s="14"/>
+      <c r="D479" s="14"/>
+      <c r="E479" s="14"/>
+    </row>
+    <row r="480" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A480" s="14"/>
+      <c r="B480" s="14"/>
+      <c r="C480" s="14"/>
+      <c r="D480" s="14"/>
+      <c r="E480" s="14"/>
+    </row>
+    <row r="481" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A481" s="14"/>
+      <c r="B481" s="14"/>
+      <c r="C481" s="14"/>
+      <c r="D481" s="14"/>
+      <c r="E481" s="14"/>
+    </row>
+    <row r="482" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A482" s="14"/>
+      <c r="B482" s="14"/>
+      <c r="C482" s="14"/>
+      <c r="D482" s="14"/>
+      <c r="E482" s="14"/>
+    </row>
+    <row r="483" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A483" s="14"/>
+      <c r="B483" s="14"/>
+      <c r="C483" s="14"/>
+      <c r="D483" s="14"/>
+      <c r="E483" s="14"/>
+    </row>
+    <row r="484" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A484" s="14"/>
+      <c r="B484" s="14"/>
+      <c r="C484" s="14"/>
+      <c r="D484" s="14"/>
+      <c r="E484" s="14"/>
+    </row>
+    <row r="485" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A485" s="14"/>
+      <c r="B485" s="14"/>
+      <c r="C485" s="14"/>
+      <c r="D485" s="14"/>
+      <c r="E485" s="14"/>
+    </row>
+    <row r="486" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A486" s="14"/>
+      <c r="B486" s="14"/>
+      <c r="C486" s="14"/>
+      <c r="D486" s="14"/>
+      <c r="E486" s="14"/>
+    </row>
+    <row r="487" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A487" s="14"/>
+      <c r="B487" s="14"/>
+      <c r="C487" s="14"/>
+      <c r="D487" s="14"/>
+      <c r="E487" s="14"/>
+    </row>
+    <row r="488" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A488" s="14"/>
+      <c r="B488" s="14"/>
+      <c r="C488" s="14"/>
+      <c r="D488" s="14"/>
+      <c r="E488" s="14"/>
+    </row>
+    <row r="489" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A489" s="14"/>
+      <c r="B489" s="14"/>
+      <c r="C489" s="14"/>
+      <c r="D489" s="14"/>
+      <c r="E489" s="14"/>
+    </row>
+    <row r="490" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A490" s="14"/>
+      <c r="B490" s="14"/>
+      <c r="C490" s="14"/>
+      <c r="D490" s="14"/>
+      <c r="E490" s="14"/>
+    </row>
+    <row r="491" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A491" s="14"/>
+      <c r="B491" s="14"/>
+      <c r="C491" s="14"/>
+      <c r="D491" s="14"/>
+      <c r="E491" s="14"/>
+    </row>
+    <row r="492" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A492" s="14"/>
+      <c r="B492" s="14"/>
+      <c r="C492" s="14"/>
+      <c r="D492" s="14"/>
+      <c r="E492" s="14"/>
+    </row>
+    <row r="493" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A493" s="14"/>
+      <c r="B493" s="14"/>
+      <c r="C493" s="14"/>
+      <c r="D493" s="14"/>
+      <c r="E493" s="14"/>
+    </row>
+    <row r="494" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A494" s="14"/>
+      <c r="B494" s="14"/>
+      <c r="C494" s="14"/>
+      <c r="D494" s="14"/>
+      <c r="E494" s="14"/>
+    </row>
+    <row r="495" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A495" s="14"/>
+      <c r="B495" s="14"/>
+      <c r="C495" s="14"/>
+      <c r="D495" s="14"/>
+      <c r="E495" s="14"/>
+    </row>
+    <row r="496" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A496" s="14"/>
+      <c r="B496" s="14"/>
+      <c r="C496" s="14"/>
+      <c r="D496" s="14"/>
+      <c r="E496" s="14"/>
+    </row>
+    <row r="497" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A497" s="14"/>
+      <c r="B497" s="14"/>
+      <c r="C497" s="14"/>
+      <c r="D497" s="14"/>
+      <c r="E497" s="14"/>
+    </row>
+    <row r="498" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A498" s="14"/>
+      <c r="B498" s="14"/>
+      <c r="C498" s="14"/>
+      <c r="D498" s="14"/>
+      <c r="E498" s="14"/>
+    </row>
+    <row r="499" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A499" s="14"/>
+      <c r="B499" s="14"/>
+      <c r="C499" s="14"/>
+      <c r="D499" s="14"/>
+      <c r="E499" s="14"/>
+    </row>
+    <row r="500" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A500" s="14"/>
+      <c r="B500" s="14"/>
+      <c r="C500" s="14"/>
+      <c r="D500" s="14"/>
+      <c r="E500" s="14"/>
+    </row>
+    <row r="501" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A501" s="14"/>
+      <c r="B501" s="14"/>
+      <c r="C501" s="14"/>
+      <c r="D501" s="14"/>
+      <c r="E501" s="14"/>
+    </row>
+    <row r="502" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A502" s="14"/>
+      <c r="B502" s="14"/>
+      <c r="C502" s="14"/>
+      <c r="D502" s="14"/>
+      <c r="E502" s="14"/>
+    </row>
+    <row r="503" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A503" s="14"/>
+      <c r="B503" s="14"/>
+      <c r="C503" s="14"/>
+      <c r="D503" s="14"/>
+      <c r="E503" s="14"/>
+    </row>
+    <row r="504" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A504" s="14"/>
+      <c r="B504" s="14"/>
+      <c r="C504" s="14"/>
+      <c r="D504" s="14"/>
+      <c r="E504" s="14"/>
+    </row>
+    <row r="505" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A505" s="14"/>
+      <c r="B505" s="14"/>
+      <c r="C505" s="14"/>
+      <c r="D505" s="14"/>
+      <c r="E505" s="14"/>
+    </row>
+    <row r="506" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A506" s="14"/>
+      <c r="B506" s="14"/>
+      <c r="C506" s="14"/>
+      <c r="D506" s="14"/>
+      <c r="E506" s="14"/>
+    </row>
+    <row r="507" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A507" s="14"/>
+      <c r="B507" s="14"/>
+      <c r="C507" s="14"/>
+      <c r="D507" s="14"/>
+      <c r="E507" s="14"/>
+    </row>
+    <row r="508" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A508" s="14"/>
+      <c r="B508" s="14"/>
+      <c r="C508" s="14"/>
+      <c r="D508" s="14"/>
+      <c r="E508" s="14"/>
+    </row>
+    <row r="509" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A509" s="14"/>
+      <c r="B509" s="14"/>
+      <c r="C509" s="14"/>
+      <c r="D509" s="14"/>
+      <c r="E509" s="14"/>
+    </row>
+    <row r="510" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A510" s="14"/>
+      <c r="B510" s="14"/>
+      <c r="C510" s="14"/>
+      <c r="D510" s="14"/>
+      <c r="E510" s="14"/>
+    </row>
+    <row r="511" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A511" s="14"/>
+      <c r="B511" s="14"/>
+      <c r="C511" s="14"/>
+      <c r="D511" s="14"/>
+      <c r="E511" s="14"/>
+    </row>
+    <row r="512" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A512" s="14"/>
+      <c r="B512" s="14"/>
+      <c r="C512" s="14"/>
+      <c r="D512" s="14"/>
+      <c r="E512" s="14"/>
+    </row>
+    <row r="513" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A513" s="14"/>
+      <c r="B513" s="14"/>
+      <c r="C513" s="14"/>
+      <c r="D513" s="14"/>
+      <c r="E513" s="14"/>
+    </row>
+    <row r="514" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A514" s="14"/>
+      <c r="B514" s="14"/>
+      <c r="C514" s="14"/>
+      <c r="D514" s="14"/>
+      <c r="E514" s="14"/>
+    </row>
+    <row r="515" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A515" s="14"/>
+      <c r="B515" s="14"/>
+      <c r="C515" s="14"/>
+      <c r="D515" s="14"/>
+      <c r="E515" s="14"/>
+    </row>
+    <row r="516" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A516" s="14"/>
+      <c r="B516" s="14"/>
+      <c r="C516" s="14"/>
+      <c r="D516" s="14"/>
+      <c r="E516" s="14"/>
+    </row>
+    <row r="517" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A517" s="14"/>
+      <c r="B517" s="14"/>
+      <c r="C517" s="14"/>
+      <c r="D517" s="14"/>
+      <c r="E517" s="14"/>
+    </row>
+    <row r="518" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A518" s="14"/>
+      <c r="B518" s="14"/>
+      <c r="C518" s="14"/>
+      <c r="D518" s="14"/>
+      <c r="E518" s="14"/>
+    </row>
+    <row r="519" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A519" s="14"/>
+      <c r="B519" s="14"/>
+      <c r="C519" s="14"/>
+      <c r="D519" s="14"/>
+      <c r="E519" s="14"/>
+    </row>
+    <row r="520" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A520" s="14"/>
+      <c r="B520" s="14"/>
+      <c r="C520" s="14"/>
+      <c r="D520" s="14"/>
+      <c r="E520" s="14"/>
+    </row>
+    <row r="521" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A521" s="14"/>
+      <c r="B521" s="14"/>
+      <c r="C521" s="14"/>
+      <c r="D521" s="14"/>
+      <c r="E521" s="14"/>
+    </row>
+    <row r="522" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A522" s="14"/>
+      <c r="B522" s="14"/>
+      <c r="C522" s="14"/>
+      <c r="D522" s="14"/>
+      <c r="E522" s="14"/>
+    </row>
+    <row r="523" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A523" s="14"/>
+      <c r="B523" s="14"/>
+      <c r="C523" s="14"/>
+      <c r="D523" s="14"/>
+      <c r="E523" s="14"/>
+    </row>
+    <row r="524" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A524" s="14"/>
+      <c r="B524" s="14"/>
+      <c r="C524" s="14"/>
+      <c r="D524" s="14"/>
+      <c r="E524" s="14"/>
+    </row>
+    <row r="525" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A525" s="14"/>
+      <c r="B525" s="14"/>
+      <c r="C525" s="14"/>
+      <c r="D525" s="14"/>
+      <c r="E525" s="14"/>
+    </row>
+    <row r="526" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A526" s="14"/>
+      <c r="B526" s="14"/>
+      <c r="C526" s="14"/>
+      <c r="D526" s="14"/>
+      <c r="E526" s="14"/>
+    </row>
+    <row r="527" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A527" s="14"/>
+      <c r="B527" s="14"/>
+      <c r="C527" s="14"/>
+      <c r="D527" s="14"/>
+      <c r="E527" s="14"/>
+    </row>
+    <row r="528" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A528" s="14"/>
+      <c r="B528" s="14"/>
+      <c r="C528" s="14"/>
+      <c r="D528" s="14"/>
+      <c r="E528" s="14"/>
+    </row>
+    <row r="529" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A529" s="14"/>
+      <c r="B529" s="14"/>
+      <c r="C529" s="14"/>
+      <c r="D529" s="14"/>
+      <c r="E529" s="14"/>
+    </row>
+    <row r="530" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A530" s="14"/>
+      <c r="B530" s="14"/>
+      <c r="C530" s="14"/>
+      <c r="D530" s="14"/>
+      <c r="E530" s="14"/>
+    </row>
+    <row r="531" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A531" s="14"/>
+      <c r="B531" s="14"/>
+      <c r="C531" s="14"/>
+      <c r="D531" s="14"/>
+      <c r="E531" s="14"/>
+    </row>
+    <row r="532" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A532" s="14"/>
+      <c r="B532" s="14"/>
+      <c r="C532" s="14"/>
+      <c r="D532" s="14"/>
+      <c r="E532" s="14"/>
+    </row>
+    <row r="533" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A533" s="14"/>
+      <c r="B533" s="14"/>
+      <c r="C533" s="14"/>
+      <c r="D533" s="14"/>
+      <c r="E533" s="14"/>
+    </row>
+    <row r="534" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A534" s="14"/>
+      <c r="B534" s="14"/>
+      <c r="C534" s="14"/>
+      <c r="D534" s="14"/>
+      <c r="E534" s="14"/>
+    </row>
+    <row r="535" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A535" s="14"/>
+      <c r="B535" s="14"/>
+      <c r="C535" s="14"/>
+      <c r="D535" s="14"/>
+      <c r="E535" s="14"/>
+    </row>
+    <row r="536" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A536" s="14"/>
+      <c r="B536" s="14"/>
+      <c r="C536" s="14"/>
+      <c r="D536" s="14"/>
+      <c r="E536" s="14"/>
+    </row>
+    <row r="537" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A537" s="14"/>
+      <c r="B537" s="14"/>
+      <c r="C537" s="14"/>
+      <c r="D537" s="14"/>
+      <c r="E537" s="14"/>
+    </row>
+    <row r="538" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A538" s="14"/>
+      <c r="B538" s="14"/>
+      <c r="C538" s="14"/>
+      <c r="D538" s="14"/>
+      <c r="E538" s="14"/>
+    </row>
+    <row r="539" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A539" s="14"/>
+      <c r="B539" s="14"/>
+      <c r="C539" s="14"/>
+      <c r="D539" s="14"/>
+      <c r="E539" s="14"/>
+    </row>
+    <row r="540" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A540" s="14"/>
+      <c r="B540" s="14"/>
+      <c r="C540" s="14"/>
+      <c r="D540" s="14"/>
+      <c r="E540" s="14"/>
+    </row>
+    <row r="541" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A541" s="14"/>
+      <c r="B541" s="14"/>
+      <c r="C541" s="14"/>
+      <c r="D541" s="14"/>
+      <c r="E541" s="14"/>
+    </row>
+    <row r="542" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A542" s="14"/>
+      <c r="B542" s="14"/>
+      <c r="C542" s="14"/>
+      <c r="D542" s="14"/>
+      <c r="E542" s="14"/>
+    </row>
+    <row r="543" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A543" s="14"/>
+      <c r="B543" s="14"/>
+      <c r="C543" s="14"/>
+      <c r="D543" s="14"/>
+      <c r="E543" s="14"/>
+    </row>
+    <row r="544" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A544" s="14"/>
+      <c r="B544" s="14"/>
+      <c r="C544" s="14"/>
+      <c r="D544" s="14"/>
+      <c r="E544" s="14"/>
+    </row>
+    <row r="545" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A545" s="14"/>
+      <c r="B545" s="14"/>
+      <c r="C545" s="14"/>
+      <c r="D545" s="14"/>
+      <c r="E545" s="14"/>
+    </row>
+    <row r="546" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A546" s="14"/>
+      <c r="B546" s="14"/>
+      <c r="C546" s="14"/>
+      <c r="D546" s="14"/>
+      <c r="E546" s="14"/>
+    </row>
+    <row r="547" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A547" s="14"/>
+      <c r="B547" s="14"/>
+      <c r="C547" s="14"/>
+      <c r="D547" s="14"/>
+      <c r="E547" s="14"/>
+    </row>
+    <row r="548" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A548" s="14"/>
+      <c r="B548" s="14"/>
+      <c r="C548" s="14"/>
+      <c r="D548" s="14"/>
+      <c r="E548" s="14"/>
+    </row>
+    <row r="549" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A549" s="14"/>
+      <c r="B549" s="14"/>
+      <c r="C549" s="14"/>
+      <c r="D549" s="14"/>
+      <c r="E549" s="14"/>
+    </row>
+    <row r="550" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A550" s="14"/>
+      <c r="B550" s="14"/>
+      <c r="C550" s="14"/>
+      <c r="D550" s="14"/>
+      <c r="E550" s="14"/>
+    </row>
+    <row r="551" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A551" s="14"/>
+      <c r="B551" s="14"/>
+      <c r="C551" s="14"/>
+      <c r="D551" s="14"/>
+      <c r="E551" s="14"/>
+    </row>
+    <row r="552" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A552" s="14"/>
+      <c r="B552" s="14"/>
+      <c r="C552" s="14"/>
+      <c r="D552" s="14"/>
+      <c r="E552" s="14"/>
+    </row>
+    <row r="553" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A553" s="14"/>
+      <c r="B553" s="14"/>
+      <c r="C553" s="14"/>
+      <c r="D553" s="14"/>
+      <c r="E553" s="14"/>
+    </row>
+    <row r="554" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A554" s="14"/>
+      <c r="B554" s="14"/>
+      <c r="C554" s="14"/>
+      <c r="D554" s="14"/>
+      <c r="E554" s="14"/>
+    </row>
+    <row r="555" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A555" s="14"/>
+      <c r="B555" s="14"/>
+      <c r="C555" s="14"/>
+      <c r="D555" s="14"/>
+      <c r="E555" s="14"/>
+    </row>
+    <row r="556" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A556" s="14"/>
+      <c r="B556" s="14"/>
+      <c r="C556" s="14"/>
+      <c r="D556" s="14"/>
+      <c r="E556" s="14"/>
+    </row>
+    <row r="557" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A557" s="14"/>
+      <c r="B557" s="14"/>
+      <c r="C557" s="14"/>
+      <c r="D557" s="14"/>
+      <c r="E557" s="14"/>
+    </row>
+    <row r="558" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A558" s="14"/>
+      <c r="B558" s="14"/>
+      <c r="C558" s="14"/>
+      <c r="D558" s="14"/>
+      <c r="E558" s="14"/>
+    </row>
+    <row r="559" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A559" s="14"/>
+      <c r="B559" s="14"/>
+      <c r="C559" s="14"/>
+      <c r="D559" s="14"/>
+      <c r="E559" s="14"/>
+    </row>
+    <row r="560" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A560" s="14"/>
+      <c r="B560" s="14"/>
+      <c r="C560" s="14"/>
+      <c r="D560" s="14"/>
+      <c r="E560" s="14"/>
+    </row>
+    <row r="561" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A561" s="14"/>
+      <c r="B561" s="14"/>
+      <c r="C561" s="14"/>
+      <c r="D561" s="14"/>
+      <c r="E561" s="14"/>
+    </row>
+    <row r="562" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A562" s="14"/>
+      <c r="B562" s="14"/>
+      <c r="C562" s="14"/>
+      <c r="D562" s="14"/>
+      <c r="E562" s="14"/>
+    </row>
+    <row r="563" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A563" s="14"/>
+      <c r="B563" s="14"/>
+      <c r="C563" s="14"/>
+      <c r="D563" s="14"/>
+      <c r="E563" s="14"/>
+    </row>
+    <row r="564" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A564" s="14"/>
+      <c r="B564" s="14"/>
+      <c r="C564" s="14"/>
+      <c r="D564" s="14"/>
+      <c r="E564" s="14"/>
+    </row>
+    <row r="565" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A565" s="14"/>
+      <c r="B565" s="14"/>
+      <c r="C565" s="14"/>
+      <c r="D565" s="14"/>
+      <c r="E565" s="14"/>
+    </row>
+    <row r="566" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A566" s="14"/>
+      <c r="B566" s="14"/>
+      <c r="C566" s="14"/>
+      <c r="D566" s="14"/>
+      <c r="E566" s="14"/>
+    </row>
+    <row r="567" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A567" s="14"/>
+      <c r="B567" s="14"/>
+      <c r="C567" s="14"/>
+      <c r="D567" s="14"/>
+      <c r="E567" s="14"/>
+    </row>
+    <row r="568" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A568" s="14"/>
+      <c r="B568" s="14"/>
+      <c r="C568" s="14"/>
+      <c r="D568" s="14"/>
+      <c r="E568" s="14"/>
+    </row>
+    <row r="569" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A569" s="14"/>
+      <c r="B569" s="14"/>
+      <c r="C569" s="14"/>
+      <c r="D569" s="14"/>
+      <c r="E569" s="14"/>
+    </row>
+    <row r="570" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A570" s="14"/>
+      <c r="B570" s="14"/>
+      <c r="C570" s="14"/>
+      <c r="D570" s="14"/>
+      <c r="E570" s="14"/>
+    </row>
+    <row r="571" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A571" s="14"/>
+      <c r="B571" s="14"/>
+      <c r="C571" s="14"/>
+      <c r="D571" s="14"/>
+      <c r="E571" s="14"/>
+    </row>
+    <row r="572" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A572" s="14"/>
+      <c r="B572" s="14"/>
+      <c r="C572" s="14"/>
+      <c r="D572" s="14"/>
+      <c r="E572" s="14"/>
+    </row>
+    <row r="573" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A573" s="14"/>
+      <c r="B573" s="14"/>
+      <c r="C573" s="14"/>
+      <c r="D573" s="14"/>
+      <c r="E573" s="14"/>
+    </row>
+    <row r="574" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A574" s="14"/>
+      <c r="B574" s="14"/>
+      <c r="C574" s="14"/>
+      <c r="D574" s="14"/>
+      <c r="E574" s="14"/>
+    </row>
+    <row r="575" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A575" s="14"/>
+      <c r="B575" s="14"/>
+      <c r="C575" s="14"/>
+      <c r="D575" s="14"/>
+      <c r="E575" s="14"/>
+    </row>
+    <row r="576" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A576" s="14"/>
+      <c r="B576" s="14"/>
+      <c r="C576" s="14"/>
+      <c r="D576" s="14"/>
+      <c r="E576" s="14"/>
+    </row>
+    <row r="577" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A577" s="14"/>
+      <c r="B577" s="14"/>
+      <c r="C577" s="14"/>
+      <c r="D577" s="14"/>
+      <c r="E577" s="14"/>
+    </row>
+    <row r="578" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A578" s="14"/>
+      <c r="B578" s="14"/>
+      <c r="C578" s="14"/>
+      <c r="D578" s="14"/>
+      <c r="E578" s="14"/>
+    </row>
+    <row r="579" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A579" s="14"/>
+      <c r="B579" s="14"/>
+      <c r="C579" s="14"/>
+      <c r="D579" s="14"/>
+      <c r="E579" s="14"/>
+    </row>
+    <row r="580" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A580" s="14"/>
+      <c r="B580" s="14"/>
+      <c r="C580" s="14"/>
+      <c r="D580" s="14"/>
+      <c r="E580" s="14"/>
+    </row>
+    <row r="581" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A581" s="14"/>
+      <c r="B581" s="14"/>
+      <c r="C581" s="14"/>
+      <c r="D581" s="14"/>
+      <c r="E581" s="14"/>
+    </row>
+    <row r="582" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A582" s="14"/>
+      <c r="B582" s="14"/>
+      <c r="C582" s="14"/>
+      <c r="D582" s="14"/>
+      <c r="E582" s="14"/>
+    </row>
+    <row r="583" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A583" s="14"/>
+      <c r="B583" s="14"/>
+      <c r="C583" s="14"/>
+      <c r="D583" s="14"/>
+      <c r="E583" s="14"/>
+    </row>
+    <row r="584" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A584" s="14"/>
+      <c r="B584" s="14"/>
+      <c r="C584" s="14"/>
+      <c r="D584" s="14"/>
+      <c r="E584" s="14"/>
+    </row>
+    <row r="585" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A585" s="14"/>
+      <c r="B585" s="14"/>
+      <c r="C585" s="14"/>
+      <c r="D585" s="14"/>
+      <c r="E585" s="14"/>
+    </row>
+    <row r="586" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A586" s="14"/>
+      <c r="B586" s="14"/>
+      <c r="C586" s="14"/>
+      <c r="D586" s="14"/>
+      <c r="E586" s="14"/>
+    </row>
+    <row r="587" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A587" s="14"/>
+      <c r="B587" s="14"/>
+      <c r="C587" s="14"/>
+      <c r="D587" s="14"/>
+      <c r="E587" s="14"/>
+    </row>
+    <row r="588" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A588" s="14"/>
+      <c r="B588" s="14"/>
+      <c r="C588" s="14"/>
+      <c r="D588" s="14"/>
+      <c r="E588" s="14"/>
+    </row>
+    <row r="589" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A589" s="14"/>
+      <c r="B589" s="14"/>
+      <c r="C589" s="14"/>
+      <c r="D589" s="14"/>
+      <c r="E589" s="14"/>
+    </row>
+    <row r="590" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A590" s="14"/>
+      <c r="B590" s="14"/>
+      <c r="C590" s="14"/>
+      <c r="D590" s="14"/>
+      <c r="E590" s="14"/>
+    </row>
+    <row r="591" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A591" s="14"/>
+      <c r="B591" s="14"/>
+      <c r="C591" s="14"/>
+      <c r="D591" s="14"/>
+      <c r="E591" s="14"/>
+    </row>
+    <row r="592" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A592" s="14"/>
+      <c r="B592" s="14"/>
+      <c r="C592" s="14"/>
+      <c r="D592" s="14"/>
+      <c r="E592" s="14"/>
+    </row>
+    <row r="593" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A593" s="14"/>
+      <c r="B593" s="14"/>
+      <c r="C593" s="14"/>
+      <c r="D593" s="14"/>
+      <c r="E593" s="14"/>
+    </row>
+    <row r="594" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A594" s="14"/>
+      <c r="B594" s="14"/>
+      <c r="C594" s="14"/>
+      <c r="D594" s="14"/>
+      <c r="E594" s="14"/>
+    </row>
+    <row r="595" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A595" s="14"/>
+      <c r="B595" s="14"/>
+      <c r="C595" s="14"/>
+      <c r="D595" s="14"/>
+      <c r="E595" s="14"/>
+    </row>
+    <row r="596" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A596" s="14"/>
+      <c r="B596" s="14"/>
+      <c r="C596" s="14"/>
+      <c r="D596" s="14"/>
+      <c r="E596" s="14"/>
+    </row>
+    <row r="597" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A597" s="14"/>
+      <c r="B597" s="14"/>
+      <c r="C597" s="14"/>
+      <c r="D597" s="14"/>
+      <c r="E597" s="14"/>
+    </row>
+    <row r="598" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A598" s="14"/>
+      <c r="B598" s="14"/>
+      <c r="C598" s="14"/>
+      <c r="D598" s="14"/>
+      <c r="E598" s="14"/>
+    </row>
+    <row r="599" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A599" s="14"/>
+      <c r="B599" s="14"/>
+      <c r="C599" s="14"/>
+      <c r="D599" s="14"/>
+      <c r="E599" s="14"/>
+    </row>
+    <row r="600" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A600" s="14"/>
+      <c r="B600" s="14"/>
+      <c r="C600" s="14"/>
+      <c r="D600" s="14"/>
+      <c r="E600" s="14"/>
+    </row>
+    <row r="601" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A601" s="14"/>
+      <c r="B601" s="14"/>
+      <c r="C601" s="14"/>
+      <c r="D601" s="14"/>
+      <c r="E601" s="14"/>
+    </row>
+    <row r="602" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A602" s="14"/>
+      <c r="B602" s="14"/>
+      <c r="C602" s="14"/>
+      <c r="D602" s="14"/>
+      <c r="E602" s="14"/>
+    </row>
+    <row r="603" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A603" s="14"/>
+      <c r="B603" s="14"/>
+      <c r="C603" s="14"/>
+      <c r="D603" s="14"/>
+      <c r="E603" s="14"/>
+    </row>
+    <row r="604" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A604" s="14"/>
+      <c r="B604" s="14"/>
+      <c r="C604" s="14"/>
+      <c r="D604" s="14"/>
+      <c r="E604" s="14"/>
+    </row>
+    <row r="605" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A605" s="14"/>
+      <c r="B605" s="14"/>
+      <c r="C605" s="14"/>
+      <c r="D605" s="14"/>
+      <c r="E605" s="14"/>
+    </row>
+    <row r="606" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A606" s="14"/>
+      <c r="B606" s="14"/>
+      <c r="C606" s="14"/>
+      <c r="D606" s="14"/>
+      <c r="E606" s="14"/>
+    </row>
+    <row r="607" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A607" s="14"/>
+      <c r="B607" s="14"/>
+      <c r="C607" s="14"/>
+      <c r="D607" s="14"/>
+      <c r="E607" s="14"/>
+    </row>
+    <row r="608" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A608" s="14"/>
+      <c r="B608" s="14"/>
+      <c r="C608" s="14"/>
+      <c r="D608" s="14"/>
+      <c r="E608" s="14"/>
+    </row>
+    <row r="609" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A609" s="14"/>
+      <c r="B609" s="14"/>
+      <c r="C609" s="14"/>
+      <c r="D609" s="14"/>
+      <c r="E609" s="14"/>
+    </row>
+    <row r="610" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A610" s="14"/>
+      <c r="B610" s="14"/>
+      <c r="C610" s="14"/>
+      <c r="D610" s="14"/>
+      <c r="E610" s="14"/>
+    </row>
+    <row r="611" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A611" s="14"/>
+      <c r="B611" s="14"/>
+      <c r="C611" s="14"/>
+      <c r="D611" s="14"/>
+      <c r="E611" s="14"/>
+    </row>
+    <row r="612" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A612" s="14"/>
+      <c r="B612" s="14"/>
+      <c r="C612" s="14"/>
+      <c r="D612" s="14"/>
+      <c r="E612" s="14"/>
+    </row>
+    <row r="613" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A613" s="14"/>
+      <c r="B613" s="14"/>
+      <c r="C613" s="14"/>
+      <c r="D613" s="14"/>
+      <c r="E613" s="14"/>
+    </row>
+    <row r="614" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A614" s="14"/>
+      <c r="B614" s="14"/>
+      <c r="C614" s="14"/>
+      <c r="D614" s="14"/>
+      <c r="E614" s="14"/>
+    </row>
+    <row r="615" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A615" s="14"/>
+      <c r="B615" s="14"/>
+      <c r="C615" s="14"/>
+      <c r="D615" s="14"/>
+      <c r="E615" s="14"/>
+    </row>
+    <row r="616" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A616" s="14"/>
+      <c r="B616" s="14"/>
+      <c r="C616" s="14"/>
+      <c r="D616" s="14"/>
+      <c r="E616" s="14"/>
+    </row>
+    <row r="617" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A617" s="14"/>
+      <c r="B617" s="14"/>
+      <c r="C617" s="14"/>
+      <c r="D617" s="14"/>
+      <c r="E617" s="14"/>
+    </row>
+    <row r="618" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A618" s="14"/>
+      <c r="B618" s="14"/>
+      <c r="C618" s="14"/>
+      <c r="D618" s="14"/>
+      <c r="E618" s="14"/>
+    </row>
+    <row r="619" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A619" s="14"/>
+      <c r="B619" s="14"/>
+      <c r="C619" s="14"/>
+      <c r="D619" s="14"/>
+      <c r="E619" s="14"/>
+    </row>
+    <row r="620" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A620" s="14"/>
+      <c r="B620" s="14"/>
+      <c r="C620" s="14"/>
+      <c r="D620" s="14"/>
+      <c r="E620" s="14"/>
+    </row>
+    <row r="621" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A621" s="14"/>
+      <c r="B621" s="14"/>
+      <c r="C621" s="14"/>
+      <c r="D621" s="14"/>
+      <c r="E621" s="14"/>
+    </row>
+    <row r="622" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A622" s="14"/>
+      <c r="B622" s="14"/>
+      <c r="C622" s="14"/>
+      <c r="D622" s="14"/>
+      <c r="E622" s="14"/>
+    </row>
+    <row r="623" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A623" s="14"/>
+      <c r="B623" s="14"/>
+      <c r="C623" s="14"/>
+      <c r="D623" s="14"/>
+      <c r="E623" s="14"/>
+    </row>
+    <row r="624" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A624" s="14"/>
+      <c r="B624" s="14"/>
+      <c r="C624" s="14"/>
+      <c r="D624" s="14"/>
+      <c r="E624" s="14"/>
+    </row>
+    <row r="625" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A625" s="14"/>
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
+      <c r="D625" s="14"/>
+      <c r="E625" s="14"/>
+    </row>
+    <row r="626" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A626" s="14"/>
+      <c r="B626" s="14"/>
+      <c r="C626" s="14"/>
+      <c r="D626" s="14"/>
+      <c r="E626" s="14"/>
+    </row>
+    <row r="627" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A627" s="14"/>
+      <c r="B627" s="14"/>
+      <c r="C627" s="14"/>
+      <c r="D627" s="14"/>
+      <c r="E627" s="14"/>
+    </row>
+    <row r="628" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A628" s="14"/>
+      <c r="B628" s="14"/>
+      <c r="C628" s="14"/>
+      <c r="D628" s="14"/>
+      <c r="E628" s="14"/>
+    </row>
+    <row r="629" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A629" s="14"/>
+      <c r="B629" s="14"/>
+      <c r="C629" s="14"/>
+      <c r="D629" s="14"/>
+      <c r="E629" s="14"/>
+    </row>
+    <row r="630" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A630" s="14"/>
+      <c r="B630" s="14"/>
+      <c r="C630" s="14"/>
+      <c r="D630" s="14"/>
+      <c r="E630" s="14"/>
+    </row>
+    <row r="631" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A631" s="14"/>
+      <c r="B631" s="14"/>
+      <c r="C631" s="14"/>
+      <c r="D631" s="14"/>
+      <c r="E631" s="14"/>
+    </row>
+    <row r="632" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A632" s="14"/>
+      <c r="B632" s="14"/>
+      <c r="C632" s="14"/>
+      <c r="D632" s="14"/>
+      <c r="E632" s="14"/>
+    </row>
+    <row r="633" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A633" s="14"/>
+      <c r="B633" s="14"/>
+      <c r="C633" s="14"/>
+      <c r="D633" s="14"/>
+      <c r="E633" s="14"/>
+    </row>
+    <row r="634" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A634" s="14"/>
+      <c r="B634" s="14"/>
+      <c r="C634" s="14"/>
+      <c r="D634" s="14"/>
+      <c r="E634" s="14"/>
+    </row>
+    <row r="635" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A635" s="14"/>
+      <c r="B635" s="14"/>
+      <c r="C635" s="14"/>
+      <c r="D635" s="14"/>
+      <c r="E635" s="14"/>
+    </row>
+    <row r="636" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A636" s="14"/>
+      <c r="B636" s="14"/>
+      <c r="C636" s="14"/>
+      <c r="D636" s="14"/>
+      <c r="E636" s="14"/>
+    </row>
+    <row r="637" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A637" s="14"/>
+      <c r="B637" s="14"/>
+      <c r="C637" s="14"/>
+      <c r="D637" s="14"/>
+      <c r="E637" s="14"/>
+    </row>
+    <row r="638" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A638" s="14"/>
+      <c r="B638" s="14"/>
+      <c r="C638" s="14"/>
+      <c r="D638" s="14"/>
+      <c r="E638" s="14"/>
+    </row>
+    <row r="639" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A639" s="14"/>
+      <c r="B639" s="14"/>
+      <c r="C639" s="14"/>
+      <c r="D639" s="14"/>
+      <c r="E639" s="14"/>
+    </row>
+    <row r="640" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A640" s="14"/>
+      <c r="B640" s="14"/>
+      <c r="C640" s="14"/>
+      <c r="D640" s="14"/>
+      <c r="E640" s="14"/>
+    </row>
+    <row r="641" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A641" s="14"/>
+      <c r="B641" s="14"/>
+      <c r="C641" s="14"/>
+      <c r="D641" s="14"/>
+      <c r="E641" s="14"/>
+    </row>
+    <row r="642" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A642" s="14"/>
+      <c r="B642" s="14"/>
+      <c r="C642" s="14"/>
+      <c r="D642" s="14"/>
+      <c r="E642" s="14"/>
+    </row>
+    <row r="643" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A643" s="14"/>
+      <c r="B643" s="14"/>
+      <c r="C643" s="14"/>
+      <c r="D643" s="14"/>
+      <c r="E643" s="14"/>
+    </row>
+    <row r="644" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A644" s="14"/>
+      <c r="B644" s="14"/>
+      <c r="C644" s="14"/>
+      <c r="D644" s="14"/>
+      <c r="E644" s="14"/>
+    </row>
+    <row r="645" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A645" s="14"/>
+      <c r="B645" s="14"/>
+      <c r="C645" s="14"/>
+      <c r="D645" s="14"/>
+      <c r="E645" s="14"/>
+    </row>
+    <row r="646" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A646" s="14"/>
+      <c r="B646" s="14"/>
+      <c r="C646" s="14"/>
+      <c r="D646" s="14"/>
+      <c r="E646" s="14"/>
+    </row>
+    <row r="647" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A647" s="14"/>
+      <c r="B647" s="14"/>
+      <c r="C647" s="14"/>
+      <c r="D647" s="14"/>
+      <c r="E647" s="14"/>
+    </row>
+    <row r="648" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A648" s="14"/>
+      <c r="B648" s="14"/>
+      <c r="C648" s="14"/>
+      <c r="D648" s="14"/>
+      <c r="E648" s="14"/>
+    </row>
+    <row r="649" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A649" s="14"/>
+      <c r="B649" s="14"/>
+      <c r="C649" s="14"/>
+      <c r="D649" s="14"/>
+      <c r="E649" s="14"/>
+    </row>
+    <row r="650" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A650" s="14"/>
+      <c r="B650" s="14"/>
+      <c r="C650" s="14"/>
+      <c r="D650" s="14"/>
+      <c r="E650" s="14"/>
+    </row>
+    <row r="651" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A651" s="14"/>
+      <c r="B651" s="14"/>
+      <c r="C651" s="14"/>
+      <c r="D651" s="14"/>
+      <c r="E651" s="14"/>
+    </row>
+    <row r="652" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A652" s="14"/>
+      <c r="B652" s="14"/>
+      <c r="C652" s="14"/>
+      <c r="D652" s="14"/>
+      <c r="E652" s="14"/>
+    </row>
+    <row r="653" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A653" s="14"/>
+      <c r="B653" s="14"/>
+      <c r="C653" s="14"/>
+      <c r="D653" s="14"/>
+      <c r="E653" s="14"/>
+    </row>
+    <row r="654" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A654" s="14"/>
+      <c r="B654" s="14"/>
+      <c r="C654" s="14"/>
+      <c r="D654" s="14"/>
+      <c r="E654" s="14"/>
+    </row>
+    <row r="655" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A655" s="14"/>
+      <c r="B655" s="14"/>
+      <c r="C655" s="14"/>
+      <c r="D655" s="14"/>
+      <c r="E655" s="14"/>
+    </row>
+    <row r="656" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A656" s="14"/>
+      <c r="B656" s="14"/>
+      <c r="C656" s="14"/>
+      <c r="D656" s="14"/>
+      <c r="E656" s="14"/>
+    </row>
+    <row r="657" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A657" s="14"/>
+      <c r="B657" s="14"/>
+      <c r="C657" s="14"/>
+      <c r="D657" s="14"/>
+      <c r="E657" s="14"/>
+    </row>
+    <row r="658" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A658" s="14"/>
+      <c r="B658" s="14"/>
+      <c r="C658" s="14"/>
+      <c r="D658" s="14"/>
+      <c r="E658" s="14"/>
+    </row>
+    <row r="659" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A659" s="14"/>
+      <c r="B659" s="14"/>
+      <c r="C659" s="14"/>
+      <c r="D659" s="14"/>
+      <c r="E659" s="14"/>
+    </row>
+    <row r="660" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A660" s="14"/>
+      <c r="B660" s="14"/>
+      <c r="C660" s="14"/>
+      <c r="D660" s="14"/>
+      <c r="E660" s="14"/>
+    </row>
+    <row r="661" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A661" s="14"/>
+      <c r="B661" s="14"/>
+      <c r="C661" s="14"/>
+      <c r="D661" s="14"/>
+      <c r="E661" s="14"/>
+    </row>
+    <row r="662" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A662" s="14"/>
+      <c r="B662" s="14"/>
+      <c r="C662" s="14"/>
+      <c r="D662" s="14"/>
+      <c r="E662" s="14"/>
+    </row>
+    <row r="663" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A663" s="14"/>
+      <c r="B663" s="14"/>
+      <c r="C663" s="14"/>
+      <c r="D663" s="14"/>
+      <c r="E663" s="14"/>
+    </row>
+    <row r="664" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A664" s="14"/>
+      <c r="B664" s="14"/>
+      <c r="C664" s="14"/>
+      <c r="D664" s="14"/>
+      <c r="E664" s="14"/>
+    </row>
+    <row r="665" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A665" s="14"/>
+      <c r="B665" s="14"/>
+      <c r="C665" s="14"/>
+      <c r="D665" s="14"/>
+      <c r="E665" s="14"/>
+    </row>
+    <row r="666" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A666" s="14"/>
+      <c r="B666" s="14"/>
+      <c r="C666" s="14"/>
+      <c r="D666" s="14"/>
+      <c r="E666" s="14"/>
+    </row>
+    <row r="667" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A667" s="14"/>
+      <c r="B667" s="14"/>
+      <c r="C667" s="14"/>
+      <c r="D667" s="14"/>
+      <c r="E667" s="14"/>
+    </row>
+    <row r="668" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A668" s="14"/>
+      <c r="B668" s="14"/>
+      <c r="C668" s="14"/>
+      <c r="D668" s="14"/>
+      <c r="E668" s="14"/>
+    </row>
+    <row r="669" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A669" s="14"/>
+      <c r="B669" s="14"/>
+      <c r="C669" s="14"/>
+      <c r="D669" s="14"/>
+      <c r="E669" s="14"/>
+    </row>
+    <row r="670" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A670" s="14"/>
+      <c r="B670" s="14"/>
+      <c r="C670" s="14"/>
+      <c r="D670" s="14"/>
+      <c r="E670" s="14"/>
+    </row>
+    <row r="671" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A671" s="14"/>
+      <c r="B671" s="14"/>
+      <c r="C671" s="14"/>
+      <c r="D671" s="14"/>
+      <c r="E671" s="14"/>
+    </row>
+    <row r="672" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A672" s="14"/>
+      <c r="B672" s="14"/>
+      <c r="C672" s="14"/>
+      <c r="D672" s="14"/>
+      <c r="E672" s="14"/>
+    </row>
+    <row r="673" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A673" s="14"/>
+      <c r="B673" s="14"/>
+      <c r="C673" s="14"/>
+      <c r="D673" s="14"/>
+      <c r="E673" s="14"/>
+    </row>
+    <row r="674" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A674" s="14"/>
+      <c r="B674" s="14"/>
+      <c r="C674" s="14"/>
+      <c r="D674" s="14"/>
+      <c r="E674" s="14"/>
+    </row>
+    <row r="675" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A675" s="14"/>
+      <c r="B675" s="14"/>
+      <c r="C675" s="14"/>
+      <c r="D675" s="14"/>
+      <c r="E675" s="14"/>
+    </row>
+    <row r="676" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A676" s="14"/>
+      <c r="B676" s="14"/>
+      <c r="C676" s="14"/>
+      <c r="D676" s="14"/>
+      <c r="E676" s="14"/>
+    </row>
+    <row r="677" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A677" s="14"/>
+      <c r="B677" s="14"/>
+      <c r="C677" s="14"/>
+      <c r="D677" s="14"/>
+      <c r="E677" s="14"/>
+    </row>
+    <row r="678" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A678" s="14"/>
+      <c r="B678" s="14"/>
+      <c r="C678" s="14"/>
+      <c r="D678" s="14"/>
+      <c r="E678" s="14"/>
+    </row>
+    <row r="679" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A679" s="14"/>
+      <c r="B679" s="14"/>
+      <c r="C679" s="14"/>
+      <c r="D679" s="14"/>
+      <c r="E679" s="14"/>
+    </row>
+    <row r="680" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A680" s="14"/>
+      <c r="B680" s="14"/>
+      <c r="C680" s="14"/>
+      <c r="D680" s="14"/>
+      <c r="E680" s="14"/>
+    </row>
+    <row r="681" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A681" s="14"/>
+      <c r="B681" s="14"/>
+      <c r="C681" s="14"/>
+      <c r="D681" s="14"/>
+      <c r="E681" s="14"/>
+    </row>
+    <row r="682" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A682" s="14"/>
+      <c r="B682" s="14"/>
+      <c r="C682" s="14"/>
+      <c r="D682" s="14"/>
+      <c r="E682" s="14"/>
+    </row>
+    <row r="683" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A683" s="14"/>
+      <c r="B683" s="14"/>
+      <c r="C683" s="14"/>
+      <c r="D683" s="14"/>
+      <c r="E683" s="14"/>
+    </row>
+    <row r="684" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A684" s="14"/>
+      <c r="B684" s="14"/>
+      <c r="C684" s="14"/>
+      <c r="D684" s="14"/>
+      <c r="E684" s="14"/>
+    </row>
+    <row r="685" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A685" s="14"/>
+      <c r="B685" s="14"/>
+      <c r="C685" s="14"/>
+      <c r="D685" s="14"/>
+      <c r="E685" s="14"/>
+    </row>
+    <row r="686" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A686" s="14"/>
+      <c r="B686" s="14"/>
+      <c r="C686" s="14"/>
+      <c r="D686" s="14"/>
+      <c r="E686" s="14"/>
+    </row>
+    <row r="687" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A687" s="14"/>
+      <c r="B687" s="14"/>
+      <c r="C687" s="14"/>
+      <c r="D687" s="14"/>
+      <c r="E687" s="14"/>
+    </row>
+    <row r="688" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A688" s="14"/>
+      <c r="B688" s="14"/>
+      <c r="C688" s="14"/>
+      <c r="D688" s="14"/>
+      <c r="E688" s="14"/>
+    </row>
+    <row r="689" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A689" s="14"/>
+      <c r="B689" s="14"/>
+      <c r="C689" s="14"/>
+      <c r="D689" s="14"/>
+      <c r="E689" s="14"/>
+    </row>
+    <row r="690" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A690" s="14"/>
+      <c r="B690" s="14"/>
+      <c r="C690" s="14"/>
+      <c r="D690" s="14"/>
+      <c r="E690" s="14"/>
+    </row>
+    <row r="691" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A691" s="14"/>
+      <c r="B691" s="14"/>
+      <c r="C691" s="14"/>
+      <c r="D691" s="14"/>
+      <c r="E691" s="14"/>
+    </row>
+    <row r="692" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A692" s="14"/>
+      <c r="B692" s="14"/>
+      <c r="C692" s="14"/>
+      <c r="D692" s="14"/>
+      <c r="E692" s="14"/>
+    </row>
+    <row r="693" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A693" s="14"/>
+      <c r="B693" s="14"/>
+      <c r="C693" s="14"/>
+      <c r="D693" s="14"/>
+      <c r="E693" s="14"/>
+    </row>
+    <row r="694" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A694" s="14"/>
+      <c r="B694" s="14"/>
+      <c r="C694" s="14"/>
+      <c r="D694" s="14"/>
+      <c r="E694" s="14"/>
+    </row>
+    <row r="695" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A695" s="14"/>
+      <c r="B695" s="14"/>
+      <c r="C695" s="14"/>
+      <c r="D695" s="14"/>
+      <c r="E695" s="14"/>
+    </row>
+    <row r="696" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A696" s="14"/>
+      <c r="B696" s="14"/>
+      <c r="C696" s="14"/>
+      <c r="D696" s="14"/>
+      <c r="E696" s="14"/>
+    </row>
+    <row r="697" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A697" s="14"/>
+      <c r="B697" s="14"/>
+      <c r="C697" s="14"/>
+      <c r="D697" s="14"/>
+      <c r="E697" s="14"/>
+    </row>
+    <row r="698" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A698" s="14"/>
+      <c r="B698" s="14"/>
+      <c r="C698" s="14"/>
+      <c r="D698" s="14"/>
+      <c r="E698" s="14"/>
+    </row>
+    <row r="699" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A699" s="14"/>
+      <c r="B699" s="14"/>
+      <c r="C699" s="14"/>
+      <c r="D699" s="14"/>
+      <c r="E699" s="14"/>
+    </row>
+    <row r="700" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A700" s="14"/>
+      <c r="B700" s="14"/>
+      <c r="C700" s="14"/>
+      <c r="D700" s="14"/>
+      <c r="E700" s="14"/>
+    </row>
+    <row r="701" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A701" s="14"/>
+      <c r="B701" s="14"/>
+      <c r="C701" s="14"/>
+      <c r="D701" s="14"/>
+      <c r="E701" s="14"/>
+    </row>
+    <row r="702" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A702" s="14"/>
+      <c r="B702" s="14"/>
+      <c r="C702" s="14"/>
+      <c r="D702" s="14"/>
+      <c r="E702" s="14"/>
+    </row>
+    <row r="703" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A703" s="14"/>
+      <c r="B703" s="14"/>
+      <c r="C703" s="14"/>
+      <c r="D703" s="14"/>
+      <c r="E703" s="14"/>
+    </row>
+    <row r="704" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A704" s="14"/>
+      <c r="B704" s="14"/>
+      <c r="C704" s="14"/>
+      <c r="D704" s="14"/>
+      <c r="E704" s="14"/>
+    </row>
+    <row r="705" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A705" s="14"/>
+      <c r="B705" s="14"/>
+      <c r="C705" s="14"/>
+      <c r="D705" s="14"/>
+      <c r="E705" s="14"/>
+    </row>
+    <row r="706" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A706" s="14"/>
+      <c r="B706" s="14"/>
+      <c r="C706" s="14"/>
+      <c r="D706" s="14"/>
+      <c r="E706" s="14"/>
+    </row>
+    <row r="707" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A707" s="14"/>
+      <c r="B707" s="14"/>
+      <c r="C707" s="14"/>
+      <c r="D707" s="14"/>
+      <c r="E707" s="14"/>
+    </row>
+    <row r="708" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A708" s="14"/>
+      <c r="B708" s="14"/>
+      <c r="C708" s="14"/>
+      <c r="D708" s="14"/>
+      <c r="E708" s="14"/>
+    </row>
+    <row r="709" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A709" s="14"/>
+      <c r="B709" s="14"/>
+      <c r="C709" s="14"/>
+      <c r="D709" s="14"/>
+      <c r="E709" s="14"/>
+    </row>
+    <row r="710" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A710" s="14"/>
+      <c r="B710" s="14"/>
+      <c r="C710" s="14"/>
+      <c r="D710" s="14"/>
+      <c r="E710" s="14"/>
+    </row>
+    <row r="711" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A711" s="14"/>
+      <c r="B711" s="14"/>
+      <c r="C711" s="14"/>
+      <c r="D711" s="14"/>
+      <c r="E711" s="14"/>
+    </row>
+    <row r="712" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A712" s="14"/>
+      <c r="B712" s="14"/>
+      <c r="C712" s="14"/>
+      <c r="D712" s="14"/>
+      <c r="E712" s="14"/>
+    </row>
+    <row r="713" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A713" s="14"/>
+      <c r="B713" s="14"/>
+      <c r="C713" s="14"/>
+      <c r="D713" s="14"/>
+      <c r="E713" s="14"/>
+    </row>
+    <row r="714" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A714" s="14"/>
+      <c r="B714" s="14"/>
+      <c r="C714" s="14"/>
+      <c r="D714" s="14"/>
+      <c r="E714" s="14"/>
+    </row>
+    <row r="715" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A715" s="14"/>
+      <c r="B715" s="14"/>
+      <c r="C715" s="14"/>
+      <c r="D715" s="14"/>
+      <c r="E715" s="14"/>
+    </row>
+    <row r="716" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A716" s="14"/>
+      <c r="B716" s="14"/>
+      <c r="C716" s="14"/>
+      <c r="D716" s="14"/>
+      <c r="E716" s="14"/>
+    </row>
+    <row r="717" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A717" s="14"/>
+      <c r="B717" s="14"/>
+      <c r="C717" s="14"/>
+      <c r="D717" s="14"/>
+      <c r="E717" s="14"/>
+    </row>
+    <row r="718" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A718" s="14"/>
+      <c r="B718" s="14"/>
+      <c r="C718" s="14"/>
+      <c r="D718" s="14"/>
+      <c r="E718" s="14"/>
+    </row>
+    <row r="719" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A719" s="14"/>
+      <c r="B719" s="14"/>
+      <c r="C719" s="14"/>
+      <c r="D719" s="14"/>
+      <c r="E719" s="14"/>
+    </row>
+    <row r="720" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A720" s="14"/>
+      <c r="B720" s="14"/>
+      <c r="C720" s="14"/>
+      <c r="D720" s="14"/>
+      <c r="E720" s="14"/>
+    </row>
+    <row r="721" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A721" s="14"/>
+      <c r="B721" s="14"/>
+      <c r="C721" s="14"/>
+      <c r="D721" s="14"/>
+      <c r="E721" s="14"/>
+    </row>
+    <row r="722" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A722" s="14"/>
+      <c r="B722" s="14"/>
+      <c r="C722" s="14"/>
+      <c r="D722" s="14"/>
+      <c r="E722" s="14"/>
+    </row>
+    <row r="723" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A723" s="14"/>
+      <c r="B723" s="14"/>
+      <c r="C723" s="14"/>
+      <c r="D723" s="14"/>
+      <c r="E723" s="14"/>
+    </row>
+    <row r="724" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A724" s="14"/>
+      <c r="B724" s="14"/>
+      <c r="C724" s="14"/>
+      <c r="D724" s="14"/>
+      <c r="E724" s="14"/>
+    </row>
+    <row r="725" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A725" s="14"/>
+      <c r="B725" s="14"/>
+      <c r="C725" s="14"/>
+      <c r="D725" s="14"/>
+      <c r="E725" s="14"/>
+    </row>
+    <row r="726" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A726" s="14"/>
+      <c r="B726" s="14"/>
+      <c r="C726" s="14"/>
+      <c r="D726" s="14"/>
+      <c r="E726" s="14"/>
+    </row>
+    <row r="727" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A727" s="14"/>
+      <c r="B727" s="14"/>
+      <c r="C727" s="14"/>
+      <c r="D727" s="14"/>
+      <c r="E727" s="14"/>
+    </row>
+    <row r="728" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A728" s="14"/>
+      <c r="B728" s="14"/>
+      <c r="C728" s="14"/>
+      <c r="D728" s="14"/>
+      <c r="E728" s="14"/>
+    </row>
+    <row r="729" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A729" s="14"/>
+      <c r="B729" s="14"/>
+      <c r="C729" s="14"/>
+      <c r="D729" s="14"/>
+      <c r="E729" s="14"/>
+    </row>
+    <row r="730" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A730" s="14"/>
+      <c r="B730" s="14"/>
+      <c r="C730" s="14"/>
+      <c r="D730" s="14"/>
+      <c r="E730" s="14"/>
+    </row>
+    <row r="731" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A731" s="14"/>
+      <c r="B731" s="14"/>
+      <c r="C731" s="14"/>
+      <c r="D731" s="14"/>
+      <c r="E731" s="14"/>
+    </row>
+    <row r="732" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A732" s="14"/>
+      <c r="B732" s="14"/>
+      <c r="C732" s="14"/>
+      <c r="D732" s="14"/>
+      <c r="E732" s="14"/>
+    </row>
+    <row r="733" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A733" s="14"/>
+      <c r="B733" s="14"/>
+      <c r="C733" s="14"/>
+      <c r="D733" s="14"/>
+      <c r="E733" s="14"/>
+    </row>
+    <row r="734" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A734" s="14"/>
+      <c r="B734" s="14"/>
+      <c r="C734" s="14"/>
+      <c r="D734" s="14"/>
+      <c r="E734" s="14"/>
+    </row>
+    <row r="735" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A735" s="14"/>
+      <c r="B735" s="14"/>
+      <c r="C735" s="14"/>
+      <c r="D735" s="14"/>
+      <c r="E735" s="14"/>
+    </row>
+    <row r="736" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A736" s="14"/>
+      <c r="B736" s="14"/>
+      <c r="C736" s="14"/>
+      <c r="D736" s="14"/>
+      <c r="E736" s="14"/>
+    </row>
+    <row r="737" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A737" s="14"/>
+      <c r="B737" s="14"/>
+      <c r="C737" s="14"/>
+      <c r="D737" s="14"/>
+      <c r="E737" s="14"/>
+    </row>
+    <row r="738" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A738" s="14"/>
+      <c r="B738" s="14"/>
+      <c r="C738" s="14"/>
+      <c r="D738" s="14"/>
+      <c r="E738" s="14"/>
+    </row>
+    <row r="739" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A739" s="14"/>
+      <c r="B739" s="14"/>
+      <c r="C739" s="14"/>
+      <c r="D739" s="14"/>
+      <c r="E739" s="14"/>
+    </row>
+    <row r="740" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A740" s="14"/>
+      <c r="B740" s="14"/>
+      <c r="C740" s="14"/>
+      <c r="D740" s="14"/>
+      <c r="E740" s="14"/>
+    </row>
+    <row r="741" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A741" s="14"/>
+      <c r="B741" s="14"/>
+      <c r="C741" s="14"/>
+      <c r="D741" s="14"/>
+      <c r="E741" s="14"/>
+    </row>
+    <row r="742" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A742" s="14"/>
+      <c r="B742" s="14"/>
+      <c r="C742" s="14"/>
+      <c r="D742" s="14"/>
+      <c r="E742" s="14"/>
+    </row>
+    <row r="743" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A743" s="14"/>
+      <c r="B743" s="14"/>
+      <c r="C743" s="14"/>
+      <c r="D743" s="14"/>
+      <c r="E743" s="14"/>
+    </row>
+    <row r="744" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A744" s="14"/>
+      <c r="B744" s="14"/>
+      <c r="C744" s="14"/>
+      <c r="D744" s="14"/>
+      <c r="E744" s="14"/>
+    </row>
+    <row r="745" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A745" s="14"/>
+      <c r="B745" s="14"/>
+      <c r="C745" s="14"/>
+      <c r="D745" s="14"/>
+      <c r="E745" s="14"/>
+    </row>
+    <row r="746" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A746" s="14"/>
+      <c r="B746" s="14"/>
+      <c r="C746" s="14"/>
+      <c r="D746" s="14"/>
+      <c r="E746" s="14"/>
+    </row>
+    <row r="747" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A747" s="14"/>
+      <c r="B747" s="14"/>
+      <c r="C747" s="14"/>
+      <c r="D747" s="14"/>
+      <c r="E747" s="14"/>
+    </row>
+    <row r="748" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A748" s="14"/>
+      <c r="B748" s="14"/>
+      <c r="C748" s="14"/>
+      <c r="D748" s="14"/>
+      <c r="E748" s="14"/>
+    </row>
+    <row r="749" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A749" s="14"/>
+      <c r="B749" s="14"/>
+      <c r="C749" s="14"/>
+      <c r="D749" s="14"/>
+      <c r="E749" s="14"/>
+    </row>
+    <row r="750" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A750" s="14"/>
+      <c r="B750" s="14"/>
+      <c r="C750" s="14"/>
+      <c r="D750" s="14"/>
+      <c r="E750" s="14"/>
+    </row>
+    <row r="751" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A751" s="14"/>
+      <c r="B751" s="14"/>
+      <c r="C751" s="14"/>
+      <c r="D751" s="14"/>
+      <c r="E751" s="14"/>
+    </row>
+    <row r="752" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A752" s="14"/>
+      <c r="B752" s="14"/>
+      <c r="C752" s="14"/>
+      <c r="D752" s="14"/>
+      <c r="E752" s="14"/>
+    </row>
+    <row r="753" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A753" s="14"/>
+      <c r="B753" s="14"/>
+      <c r="C753" s="14"/>
+      <c r="D753" s="14"/>
+      <c r="E753" s="14"/>
+    </row>
+    <row r="754" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A754" s="14"/>
+      <c r="B754" s="14"/>
+      <c r="C754" s="14"/>
+      <c r="D754" s="14"/>
+      <c r="E754" s="14"/>
+    </row>
+    <row r="755" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A755" s="14"/>
+      <c r="B755" s="14"/>
+      <c r="C755" s="14"/>
+      <c r="D755" s="14"/>
+      <c r="E755" s="14"/>
+    </row>
+    <row r="756" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A756" s="14"/>
+      <c r="B756" s="14"/>
+      <c r="C756" s="14"/>
+      <c r="D756" s="14"/>
+      <c r="E756" s="14"/>
+    </row>
+    <row r="757" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A757" s="14"/>
+      <c r="B757" s="14"/>
+      <c r="C757" s="14"/>
+      <c r="D757" s="14"/>
+      <c r="E757" s="14"/>
+    </row>
+    <row r="758" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A758" s="14"/>
+      <c r="B758" s="14"/>
+      <c r="C758" s="14"/>
+      <c r="D758" s="14"/>
+      <c r="E758" s="14"/>
+    </row>
+    <row r="759" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A759" s="14"/>
+      <c r="B759" s="14"/>
+      <c r="C759" s="14"/>
+      <c r="D759" s="14"/>
+      <c r="E759" s="14"/>
+    </row>
+    <row r="760" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A760" s="14"/>
+      <c r="B760" s="14"/>
+      <c r="C760" s="14"/>
+      <c r="D760" s="14"/>
+      <c r="E760" s="14"/>
+    </row>
+    <row r="761" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A761" s="14"/>
+      <c r="B761" s="14"/>
+      <c r="C761" s="14"/>
+      <c r="D761" s="14"/>
+      <c r="E761" s="14"/>
+    </row>
+    <row r="762" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A762" s="14"/>
+      <c r="B762" s="14"/>
+      <c r="C762" s="14"/>
+      <c r="D762" s="14"/>
+      <c r="E762" s="14"/>
+    </row>
+    <row r="763" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A763" s="14"/>
+      <c r="B763" s="14"/>
+      <c r="C763" s="14"/>
+      <c r="D763" s="14"/>
+      <c r="E763" s="14"/>
+    </row>
+    <row r="764" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A764" s="14"/>
+      <c r="B764" s="14"/>
+      <c r="C764" s="14"/>
+      <c r="D764" s="14"/>
+      <c r="E764" s="14"/>
+    </row>
+    <row r="765" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A765" s="14"/>
+      <c r="B765" s="14"/>
+      <c r="C765" s="14"/>
+      <c r="D765" s="14"/>
+      <c r="E765" s="14"/>
+    </row>
+    <row r="766" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A766" s="14"/>
+      <c r="B766" s="14"/>
+      <c r="C766" s="14"/>
+      <c r="D766" s="14"/>
+      <c r="E766" s="14"/>
+    </row>
+    <row r="767" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A767" s="14"/>
+      <c r="B767" s="14"/>
+      <c r="C767" s="14"/>
+      <c r="D767" s="14"/>
+      <c r="E767" s="14"/>
+    </row>
+    <row r="768" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A768" s="14"/>
+      <c r="B768" s="14"/>
+      <c r="C768" s="14"/>
+      <c r="D768" s="14"/>
+      <c r="E768" s="14"/>
+    </row>
+    <row r="769" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A769" s="14"/>
+      <c r="B769" s="14"/>
+      <c r="C769" s="14"/>
+      <c r="D769" s="14"/>
+      <c r="E769" s="14"/>
+    </row>
+    <row r="770" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A770" s="14"/>
+      <c r="B770" s="14"/>
+      <c r="C770" s="14"/>
+      <c r="D770" s="14"/>
+      <c r="E770" s="14"/>
+    </row>
+    <row r="771" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A771" s="14"/>
+      <c r="B771" s="14"/>
+      <c r="C771" s="14"/>
+      <c r="D771" s="14"/>
+      <c r="E771" s="14"/>
+    </row>
+    <row r="772" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A772" s="14"/>
+      <c r="B772" s="14"/>
+      <c r="C772" s="14"/>
+      <c r="D772" s="14"/>
+      <c r="E772" s="14"/>
+    </row>
+    <row r="773" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A773" s="14"/>
+      <c r="B773" s="14"/>
+      <c r="C773" s="14"/>
+      <c r="D773" s="14"/>
+      <c r="E773" s="14"/>
+    </row>
+    <row r="774" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A774" s="14"/>
+      <c r="B774" s="14"/>
+      <c r="C774" s="14"/>
+      <c r="D774" s="14"/>
+      <c r="E774" s="14"/>
+    </row>
+    <row r="775" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A775" s="14"/>
+      <c r="B775" s="14"/>
+      <c r="C775" s="14"/>
+      <c r="D775" s="14"/>
+      <c r="E775" s="14"/>
+    </row>
+    <row r="776" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A776" s="14"/>
+      <c r="B776" s="14"/>
+      <c r="C776" s="14"/>
+      <c r="D776" s="14"/>
+      <c r="E776" s="14"/>
+    </row>
+    <row r="777" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A777" s="14"/>
+      <c r="B777" s="14"/>
+      <c r="C777" s="14"/>
+      <c r="D777" s="14"/>
+      <c r="E777" s="14"/>
+    </row>
+    <row r="778" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A778" s="14"/>
+      <c r="B778" s="14"/>
+      <c r="C778" s="14"/>
+      <c r="D778" s="14"/>
+      <c r="E778" s="14"/>
+    </row>
+    <row r="779" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A779" s="14"/>
+      <c r="B779" s="14"/>
+      <c r="C779" s="14"/>
+      <c r="D779" s="14"/>
+      <c r="E779" s="14"/>
+    </row>
+    <row r="780" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A780" s="14"/>
+      <c r="B780" s="14"/>
+      <c r="C780" s="14"/>
+      <c r="D780" s="14"/>
+      <c r="E780" s="14"/>
+    </row>
+    <row r="781" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A781" s="14"/>
+      <c r="B781" s="14"/>
+      <c r="C781" s="14"/>
+      <c r="D781" s="14"/>
+      <c r="E781" s="14"/>
+    </row>
+    <row r="782" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A782" s="14"/>
+      <c r="B782" s="14"/>
+      <c r="C782" s="14"/>
+      <c r="D782" s="14"/>
+      <c r="E782" s="14"/>
+    </row>
+    <row r="783" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A783" s="14"/>
+      <c r="B783" s="14"/>
+      <c r="C783" s="14"/>
+      <c r="D783" s="14"/>
+      <c r="E783" s="14"/>
+    </row>
+    <row r="784" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A784" s="14"/>
+      <c r="B784" s="14"/>
+      <c r="C784" s="14"/>
+      <c r="D784" s="14"/>
+      <c r="E784" s="14"/>
+    </row>
+    <row r="785" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A785" s="14"/>
+      <c r="B785" s="14"/>
+      <c r="C785" s="14"/>
+      <c r="D785" s="14"/>
+      <c r="E785" s="14"/>
+    </row>
+    <row r="786" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A786" s="14"/>
+      <c r="B786" s="14"/>
+      <c r="C786" s="14"/>
+      <c r="D786" s="14"/>
+      <c r="E786" s="14"/>
+    </row>
+    <row r="787" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A787" s="14"/>
+      <c r="B787" s="14"/>
+      <c r="C787" s="14"/>
+      <c r="D787" s="14"/>
+      <c r="E787" s="14"/>
+    </row>
+    <row r="788" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A788" s="14"/>
+      <c r="B788" s="14"/>
+      <c r="C788" s="14"/>
+      <c r="D788" s="14"/>
+      <c r="E788" s="14"/>
+    </row>
+    <row r="789" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A789" s="14"/>
+      <c r="B789" s="14"/>
+      <c r="C789" s="14"/>
+      <c r="D789" s="14"/>
+      <c r="E789" s="14"/>
+    </row>
+    <row r="790" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A790" s="14"/>
+      <c r="B790" s="14"/>
+      <c r="C790" s="14"/>
+      <c r="D790" s="14"/>
+      <c r="E790" s="14"/>
+    </row>
+    <row r="791" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A791" s="14"/>
+      <c r="B791" s="14"/>
+      <c r="C791" s="14"/>
+      <c r="D791" s="14"/>
+      <c r="E791" s="14"/>
+    </row>
+    <row r="792" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A792" s="14"/>
+      <c r="B792" s="14"/>
+      <c r="C792" s="14"/>
+      <c r="D792" s="14"/>
+      <c r="E792" s="14"/>
+    </row>
+    <row r="793" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A793" s="14"/>
+      <c r="B793" s="14"/>
+      <c r="C793" s="14"/>
+      <c r="D793" s="14"/>
+      <c r="E793" s="14"/>
+    </row>
+    <row r="794" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A794" s="14"/>
+      <c r="B794" s="14"/>
+      <c r="C794" s="14"/>
+      <c r="D794" s="14"/>
+      <c r="E794" s="14"/>
+    </row>
+    <row r="795" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A795" s="14"/>
+      <c r="B795" s="14"/>
+      <c r="C795" s="14"/>
+      <c r="D795" s="14"/>
+      <c r="E795" s="14"/>
+    </row>
+    <row r="796" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A796" s="14"/>
+      <c r="B796" s="14"/>
+      <c r="C796" s="14"/>
+      <c r="D796" s="14"/>
+      <c r="E796" s="14"/>
+    </row>
+    <row r="797" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A797" s="14"/>
+      <c r="B797" s="14"/>
+      <c r="C797" s="14"/>
+      <c r="D797" s="14"/>
+      <c r="E797" s="14"/>
+    </row>
+    <row r="798" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A798" s="14"/>
+      <c r="B798" s="14"/>
+      <c r="C798" s="14"/>
+      <c r="D798" s="14"/>
+      <c r="E798" s="14"/>
+    </row>
+    <row r="799" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A799" s="14"/>
+      <c r="B799" s="14"/>
+      <c r="C799" s="14"/>
+      <c r="D799" s="14"/>
+      <c r="E799" s="14"/>
+    </row>
+    <row r="800" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A800" s="14"/>
+      <c r="B800" s="14"/>
+      <c r="C800" s="14"/>
+      <c r="D800" s="14"/>
+      <c r="E800" s="14"/>
+    </row>
+    <row r="801" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A801" s="14"/>
+      <c r="B801" s="14"/>
+      <c r="C801" s="14"/>
+      <c r="D801" s="14"/>
+      <c r="E801" s="14"/>
+    </row>
+    <row r="802" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A802" s="14"/>
+      <c r="B802" s="14"/>
+      <c r="C802" s="14"/>
+      <c r="D802" s="14"/>
+      <c r="E802" s="14"/>
+    </row>
+    <row r="803" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A803" s="14"/>
+      <c r="B803" s="14"/>
+      <c r="C803" s="14"/>
+      <c r="D803" s="14"/>
+      <c r="E803" s="14"/>
+    </row>
+    <row r="804" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A804" s="14"/>
+      <c r="B804" s="14"/>
+      <c r="C804" s="14"/>
+      <c r="D804" s="14"/>
+      <c r="E804" s="14"/>
+    </row>
+    <row r="805" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A805" s="14"/>
+      <c r="B805" s="14"/>
+      <c r="C805" s="14"/>
+      <c r="D805" s="14"/>
+      <c r="E805" s="14"/>
+    </row>
+    <row r="806" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A806" s="14"/>
+      <c r="B806" s="14"/>
+      <c r="C806" s="14"/>
+      <c r="D806" s="14"/>
+      <c r="E806" s="14"/>
+    </row>
+    <row r="807" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A807" s="14"/>
+      <c r="B807" s="14"/>
+      <c r="C807" s="14"/>
+      <c r="D807" s="14"/>
+      <c r="E807" s="14"/>
+    </row>
+    <row r="808" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A808" s="14"/>
+      <c r="B808" s="14"/>
+      <c r="C808" s="14"/>
+      <c r="D808" s="14"/>
+      <c r="E808" s="14"/>
+    </row>
+    <row r="809" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A809" s="14"/>
+      <c r="B809" s="14"/>
+      <c r="C809" s="14"/>
+      <c r="D809" s="14"/>
+      <c r="E809" s="14"/>
+    </row>
+    <row r="810" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A810" s="14"/>
+      <c r="B810" s="14"/>
+      <c r="C810" s="14"/>
+      <c r="D810" s="14"/>
+      <c r="E810" s="14"/>
+    </row>
+    <row r="811" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A811" s="14"/>
+      <c r="B811" s="14"/>
+      <c r="C811" s="14"/>
+      <c r="D811" s="14"/>
+      <c r="E811" s="14"/>
+    </row>
+    <row r="812" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A812" s="14"/>
+      <c r="B812" s="14"/>
+      <c r="C812" s="14"/>
+      <c r="D812" s="14"/>
+      <c r="E812" s="14"/>
+    </row>
+    <row r="813" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A813" s="14"/>
+      <c r="B813" s="14"/>
+      <c r="C813" s="14"/>
+      <c r="D813" s="14"/>
+      <c r="E813" s="14"/>
+    </row>
+    <row r="814" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A814" s="14"/>
+      <c r="B814" s="14"/>
+      <c r="C814" s="14"/>
+      <c r="D814" s="14"/>
+      <c r="E814" s="14"/>
+    </row>
+    <row r="815" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A815" s="14"/>
+      <c r="B815" s="14"/>
+      <c r="C815" s="14"/>
+      <c r="D815" s="14"/>
+      <c r="E815" s="14"/>
+    </row>
+    <row r="816" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A816" s="14"/>
+      <c r="B816" s="14"/>
+      <c r="C816" s="14"/>
+      <c r="D816" s="14"/>
+      <c r="E816" s="14"/>
+    </row>
+    <row r="817" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A817" s="14"/>
+      <c r="B817" s="14"/>
+      <c r="C817" s="14"/>
+      <c r="D817" s="14"/>
+      <c r="E817" s="14"/>
+    </row>
+    <row r="818" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A818" s="14"/>
+      <c r="B818" s="14"/>
+      <c r="C818" s="14"/>
+      <c r="D818" s="14"/>
+      <c r="E818" s="14"/>
+    </row>
+    <row r="819" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A819" s="14"/>
+      <c r="B819" s="14"/>
+      <c r="C819" s="14"/>
+      <c r="D819" s="14"/>
+      <c r="E819" s="14"/>
+    </row>
+    <row r="820" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A820" s="14"/>
+      <c r="B820" s="14"/>
+      <c r="C820" s="14"/>
+      <c r="D820" s="14"/>
+      <c r="E820" s="14"/>
+    </row>
+    <row r="821" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A821" s="14"/>
+      <c r="B821" s="14"/>
+      <c r="C821" s="14"/>
+      <c r="D821" s="14"/>
+      <c r="E821" s="14"/>
+    </row>
+    <row r="822" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A822" s="14"/>
+      <c r="B822" s="14"/>
+      <c r="C822" s="14"/>
+      <c r="D822" s="14"/>
+      <c r="E822" s="14"/>
+    </row>
+    <row r="823" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A823" s="14"/>
+      <c r="B823" s="14"/>
+      <c r="C823" s="14"/>
+      <c r="D823" s="14"/>
+      <c r="E823" s="14"/>
+    </row>
+    <row r="824" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A824" s="14"/>
+      <c r="B824" s="14"/>
+      <c r="C824" s="14"/>
+      <c r="D824" s="14"/>
+      <c r="E824" s="14"/>
+    </row>
+    <row r="825" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A825" s="14"/>
+      <c r="B825" s="14"/>
+      <c r="C825" s="14"/>
+      <c r="D825" s="14"/>
+      <c r="E825" s="14"/>
+    </row>
+    <row r="826" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A826" s="14"/>
+      <c r="B826" s="14"/>
+      <c r="C826" s="14"/>
+      <c r="D826" s="14"/>
+      <c r="E826" s="14"/>
+    </row>
+    <row r="827" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A827" s="14"/>
+      <c r="B827" s="14"/>
+      <c r="C827" s="14"/>
+      <c r="D827" s="14"/>
+      <c r="E827" s="14"/>
+    </row>
+    <row r="828" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A828" s="14"/>
+      <c r="B828" s="14"/>
+      <c r="C828" s="14"/>
+      <c r="D828" s="14"/>
+      <c r="E828" s="14"/>
+    </row>
+    <row r="829" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A829" s="14"/>
+      <c r="B829" s="14"/>
+      <c r="C829" s="14"/>
+      <c r="D829" s="14"/>
+      <c r="E829" s="14"/>
+    </row>
+    <row r="830" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A830" s="14"/>
+      <c r="B830" s="14"/>
+      <c r="C830" s="14"/>
+      <c r="D830" s="14"/>
+      <c r="E830" s="14"/>
+    </row>
+    <row r="831" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A831" s="14"/>
+      <c r="B831" s="14"/>
+      <c r="C831" s="14"/>
+      <c r="D831" s="14"/>
+      <c r="E831" s="14"/>
+    </row>
+    <row r="832" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A832" s="14"/>
+      <c r="B832" s="14"/>
+      <c r="C832" s="14"/>
+      <c r="D832" s="14"/>
+      <c r="E832" s="14"/>
+    </row>
+    <row r="833" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A833" s="14"/>
+      <c r="B833" s="14"/>
+      <c r="C833" s="14"/>
+      <c r="D833" s="14"/>
+      <c r="E833" s="14"/>
+    </row>
+    <row r="834" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A834" s="14"/>
+      <c r="B834" s="14"/>
+      <c r="C834" s="14"/>
+      <c r="D834" s="14"/>
+      <c r="E834" s="14"/>
+    </row>
+    <row r="835" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A835" s="14"/>
+      <c r="B835" s="14"/>
+      <c r="C835" s="14"/>
+      <c r="D835" s="14"/>
+      <c r="E835" s="14"/>
+    </row>
+    <row r="836" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A836" s="14"/>
+      <c r="B836" s="14"/>
+      <c r="C836" s="14"/>
+      <c r="D836" s="14"/>
+      <c r="E836" s="14"/>
+    </row>
+    <row r="837" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A837" s="14"/>
+      <c r="B837" s="14"/>
+      <c r="C837" s="14"/>
+      <c r="D837" s="14"/>
+      <c r="E837" s="14"/>
+    </row>
+    <row r="838" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A838" s="14"/>
+      <c r="B838" s="14"/>
+      <c r="C838" s="14"/>
+      <c r="D838" s="14"/>
+      <c r="E838" s="14"/>
+    </row>
+    <row r="839" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A839" s="14"/>
+      <c r="B839" s="14"/>
+      <c r="C839" s="14"/>
+      <c r="D839" s="14"/>
+      <c r="E839" s="14"/>
+    </row>
+    <row r="840" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A840" s="14"/>
+      <c r="B840" s="14"/>
+      <c r="C840" s="14"/>
+      <c r="D840" s="14"/>
+      <c r="E840" s="14"/>
+    </row>
+    <row r="841" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A841" s="14"/>
+      <c r="B841" s="14"/>
+      <c r="C841" s="14"/>
+      <c r="D841" s="14"/>
+      <c r="E841" s="14"/>
+    </row>
+    <row r="842" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A842" s="14"/>
+      <c r="B842" s="14"/>
+      <c r="C842" s="14"/>
+      <c r="D842" s="14"/>
+      <c r="E842" s="14"/>
+    </row>
+    <row r="843" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A843" s="14"/>
+      <c r="B843" s="14"/>
+      <c r="C843" s="14"/>
+      <c r="D843" s="14"/>
+      <c r="E843" s="14"/>
+    </row>
+    <row r="844" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A844" s="14"/>
+      <c r="B844" s="14"/>
+      <c r="C844" s="14"/>
+      <c r="D844" s="14"/>
+      <c r="E844" s="14"/>
+    </row>
+    <row r="845" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A845" s="14"/>
+      <c r="B845" s="14"/>
+      <c r="C845" s="14"/>
+      <c r="D845" s="14"/>
+      <c r="E845" s="14"/>
+    </row>
+    <row r="846" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A846" s="14"/>
+      <c r="B846" s="14"/>
+      <c r="C846" s="14"/>
+      <c r="D846" s="14"/>
+      <c r="E846" s="14"/>
+    </row>
+    <row r="847" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A847" s="14"/>
+      <c r="B847" s="14"/>
+      <c r="C847" s="14"/>
+      <c r="D847" s="14"/>
+      <c r="E847" s="14"/>
+    </row>
+    <row r="848" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A848" s="14"/>
+      <c r="B848" s="14"/>
+      <c r="C848" s="14"/>
+      <c r="D848" s="14"/>
+      <c r="E848" s="14"/>
+    </row>
+    <row r="849" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A849" s="14"/>
+      <c r="B849" s="14"/>
+      <c r="C849" s="14"/>
+      <c r="D849" s="14"/>
+      <c r="E849" s="14"/>
+    </row>
+    <row r="850" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A850" s="14"/>
+      <c r="B850" s="14"/>
+      <c r="C850" s="14"/>
+      <c r="D850" s="14"/>
+      <c r="E850" s="14"/>
+    </row>
+    <row r="851" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A851" s="14"/>
+      <c r="B851" s="14"/>
+      <c r="C851" s="14"/>
+      <c r="D851" s="14"/>
+      <c r="E851" s="14"/>
+    </row>
+    <row r="852" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A852" s="14"/>
+      <c r="B852" s="14"/>
+      <c r="C852" s="14"/>
+      <c r="D852" s="14"/>
+      <c r="E852" s="14"/>
+    </row>
+    <row r="853" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A853" s="14"/>
+      <c r="B853" s="14"/>
+      <c r="C853" s="14"/>
+      <c r="D853" s="14"/>
+      <c r="E853" s="14"/>
+    </row>
+    <row r="854" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A854" s="14"/>
+      <c r="B854" s="14"/>
+      <c r="C854" s="14"/>
+      <c r="D854" s="14"/>
+      <c r="E854" s="14"/>
+    </row>
+    <row r="855" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A855" s="14"/>
+      <c r="B855" s="14"/>
+      <c r="C855" s="14"/>
+      <c r="D855" s="14"/>
+      <c r="E855" s="14"/>
+    </row>
+    <row r="856" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A856" s="14"/>
+      <c r="B856" s="14"/>
+      <c r="C856" s="14"/>
+      <c r="D856" s="14"/>
+      <c r="E856" s="14"/>
+    </row>
+    <row r="857" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A857" s="14"/>
+      <c r="B857" s="14"/>
+      <c r="C857" s="14"/>
+      <c r="D857" s="14"/>
+      <c r="E857" s="14"/>
+    </row>
+    <row r="858" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A858" s="14"/>
+      <c r="B858" s="14"/>
+      <c r="C858" s="14"/>
+      <c r="D858" s="14"/>
+      <c r="E858" s="14"/>
+    </row>
+    <row r="859" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A859" s="14"/>
+      <c r="B859" s="14"/>
+      <c r="C859" s="14"/>
+      <c r="D859" s="14"/>
+      <c r="E859" s="14"/>
+    </row>
+    <row r="860" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A860" s="14"/>
+      <c r="B860" s="14"/>
+      <c r="C860" s="14"/>
+      <c r="D860" s="14"/>
+      <c r="E860" s="14"/>
+    </row>
+    <row r="861" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A861" s="14"/>
+      <c r="B861" s="14"/>
+      <c r="C861" s="14"/>
+      <c r="D861" s="14"/>
+      <c r="E861" s="14"/>
+    </row>
+    <row r="862" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A862" s="14"/>
+      <c r="B862" s="14"/>
+      <c r="C862" s="14"/>
+      <c r="D862" s="14"/>
+      <c r="E862" s="14"/>
+    </row>
+    <row r="863" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A863" s="14"/>
+      <c r="B863" s="14"/>
+      <c r="C863" s="14"/>
+      <c r="D863" s="14"/>
+      <c r="E863" s="14"/>
+    </row>
+    <row r="864" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A864" s="14"/>
+      <c r="B864" s="14"/>
+      <c r="C864" s="14"/>
+      <c r="D864" s="14"/>
+      <c r="E864" s="14"/>
+    </row>
+    <row r="865" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A865" s="14"/>
+      <c r="B865" s="14"/>
+      <c r="C865" s="14"/>
+      <c r="D865" s="14"/>
+      <c r="E865" s="14"/>
+    </row>
+    <row r="866" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A866" s="14"/>
+      <c r="B866" s="14"/>
+      <c r="C866" s="14"/>
+      <c r="D866" s="14"/>
+      <c r="E866" s="14"/>
+    </row>
+    <row r="867" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A867" s="14"/>
+      <c r="B867" s="14"/>
+      <c r="C867" s="14"/>
+      <c r="D867" s="14"/>
+      <c r="E867" s="14"/>
+    </row>
+    <row r="868" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A868" s="14"/>
+      <c r="B868" s="14"/>
+      <c r="C868" s="14"/>
+      <c r="D868" s="14"/>
+      <c r="E868" s="14"/>
+    </row>
+    <row r="869" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A869" s="14"/>
+      <c r="B869" s="14"/>
+      <c r="C869" s="14"/>
+      <c r="D869" s="14"/>
+      <c r="E869" s="14"/>
+    </row>
+    <row r="870" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A870" s="14"/>
+      <c r="B870" s="14"/>
+      <c r="C870" s="14"/>
+      <c r="D870" s="14"/>
+      <c r="E870" s="14"/>
+    </row>
+    <row r="871" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A871" s="14"/>
+      <c r="B871" s="14"/>
+      <c r="C871" s="14"/>
+      <c r="D871" s="14"/>
+      <c r="E871" s="14"/>
+    </row>
+    <row r="872" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A872" s="14"/>
+      <c r="B872" s="14"/>
+      <c r="C872" s="14"/>
+      <c r="D872" s="14"/>
+      <c r="E872" s="14"/>
+    </row>
+    <row r="873" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A873" s="14"/>
+      <c r="B873" s="14"/>
+      <c r="C873" s="14"/>
+      <c r="D873" s="14"/>
+      <c r="E873" s="14"/>
+    </row>
+    <row r="874" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A874" s="14"/>
+      <c r="B874" s="14"/>
+      <c r="C874" s="14"/>
+      <c r="D874" s="14"/>
+      <c r="E874" s="14"/>
+    </row>
+    <row r="875" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A875" s="14"/>
+      <c r="B875" s="14"/>
+      <c r="C875" s="14"/>
+      <c r="D875" s="14"/>
+      <c r="E875" s="14"/>
+    </row>
+    <row r="876" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A876" s="14"/>
+      <c r="B876" s="14"/>
+      <c r="C876" s="14"/>
+      <c r="D876" s="14"/>
+      <c r="E876" s="14"/>
+    </row>
+    <row r="877" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A877" s="14"/>
+      <c r="B877" s="14"/>
+      <c r="C877" s="14"/>
+      <c r="D877" s="14"/>
+      <c r="E877" s="14"/>
+    </row>
+    <row r="878" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A878" s="14"/>
+      <c r="B878" s="14"/>
+      <c r="C878" s="14"/>
+      <c r="D878" s="14"/>
+      <c r="E878" s="14"/>
+    </row>
+    <row r="879" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A879" s="14"/>
+      <c r="B879" s="14"/>
+      <c r="C879" s="14"/>
+      <c r="D879" s="14"/>
+      <c r="E879" s="14"/>
+    </row>
+    <row r="880" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A880" s="14"/>
+      <c r="B880" s="14"/>
+      <c r="C880" s="14"/>
+      <c r="D880" s="14"/>
+      <c r="E880" s="14"/>
+    </row>
+    <row r="881" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A881" s="14"/>
+      <c r="B881" s="14"/>
+      <c r="C881" s="14"/>
+      <c r="D881" s="14"/>
+      <c r="E881" s="14"/>
+    </row>
+    <row r="882" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A882" s="14"/>
+      <c r="B882" s="14"/>
+      <c r="C882" s="14"/>
+      <c r="D882" s="14"/>
+      <c r="E882" s="14"/>
+    </row>
+    <row r="883" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A883" s="14"/>
+      <c r="B883" s="14"/>
+      <c r="C883" s="14"/>
+      <c r="D883" s="14"/>
+      <c r="E883" s="14"/>
+    </row>
+    <row r="884" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A884" s="14"/>
+      <c r="B884" s="14"/>
+      <c r="C884" s="14"/>
+      <c r="D884" s="14"/>
+      <c r="E884" s="14"/>
+    </row>
+    <row r="885" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A885" s="14"/>
+      <c r="B885" s="14"/>
+      <c r="C885" s="14"/>
+      <c r="D885" s="14"/>
+      <c r="E885" s="14"/>
+    </row>
+    <row r="886" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A886" s="14"/>
+      <c r="B886" s="14"/>
+      <c r="C886" s="14"/>
+      <c r="D886" s="14"/>
+      <c r="E886" s="14"/>
+    </row>
+    <row r="887" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A887" s="14"/>
+      <c r="B887" s="14"/>
+      <c r="C887" s="14"/>
+      <c r="D887" s="14"/>
+      <c r="E887" s="14"/>
+    </row>
+    <row r="888" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A888" s="14"/>
+      <c r="B888" s="14"/>
+      <c r="C888" s="14"/>
+      <c r="D888" s="14"/>
+      <c r="E888" s="14"/>
+    </row>
+    <row r="889" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A889" s="14"/>
+      <c r="B889" s="14"/>
+      <c r="C889" s="14"/>
+      <c r="D889" s="14"/>
+      <c r="E889" s="14"/>
+    </row>
+    <row r="890" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A890" s="14"/>
+      <c r="B890" s="14"/>
+      <c r="C890" s="14"/>
+      <c r="D890" s="14"/>
+      <c r="E890" s="14"/>
+    </row>
+    <row r="891" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A891" s="14"/>
+      <c r="B891" s="14"/>
+      <c r="C891" s="14"/>
+      <c r="D891" s="14"/>
+      <c r="E891" s="14"/>
+    </row>
+    <row r="892" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A892" s="14"/>
+      <c r="B892" s="14"/>
+      <c r="C892" s="14"/>
+      <c r="D892" s="14"/>
+      <c r="E892" s="14"/>
+    </row>
+    <row r="893" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A893" s="14"/>
+      <c r="B893" s="14"/>
+      <c r="C893" s="14"/>
+      <c r="D893" s="14"/>
+      <c r="E893" s="14"/>
+    </row>
+    <row r="894" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A894" s="14"/>
+      <c r="B894" s="14"/>
+      <c r="C894" s="14"/>
+      <c r="D894" s="14"/>
+      <c r="E894" s="14"/>
+    </row>
+    <row r="895" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A895" s="14"/>
+      <c r="B895" s="14"/>
+      <c r="C895" s="14"/>
+      <c r="D895" s="14"/>
+      <c r="E895" s="14"/>
+    </row>
+    <row r="896" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A896" s="14"/>
+      <c r="B896" s="14"/>
+      <c r="C896" s="14"/>
+      <c r="D896" s="14"/>
+      <c r="E896" s="14"/>
+    </row>
+    <row r="897" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A897" s="14"/>
+      <c r="B897" s="14"/>
+      <c r="C897" s="14"/>
+      <c r="D897" s="14"/>
+      <c r="E897" s="14"/>
+    </row>
+    <row r="898" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A898" s="14"/>
+      <c r="B898" s="14"/>
+      <c r="C898" s="14"/>
+      <c r="D898" s="14"/>
+      <c r="E898" s="14"/>
+    </row>
+    <row r="899" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A899" s="14"/>
+      <c r="B899" s="14"/>
+      <c r="C899" s="14"/>
+      <c r="D899" s="14"/>
+      <c r="E899" s="14"/>
+    </row>
+    <row r="900" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A900" s="14"/>
+      <c r="B900" s="14"/>
+      <c r="C900" s="14"/>
+      <c r="D900" s="14"/>
+      <c r="E900" s="14"/>
+    </row>
+    <row r="901" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A901" s="14"/>
+      <c r="B901" s="14"/>
+      <c r="C901" s="14"/>
+      <c r="D901" s="14"/>
+      <c r="E901" s="14"/>
+    </row>
+    <row r="902" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A902" s="14"/>
+      <c r="B902" s="14"/>
+      <c r="C902" s="14"/>
+      <c r="D902" s="14"/>
+      <c r="E902" s="14"/>
+    </row>
+    <row r="903" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A903" s="14"/>
+      <c r="B903" s="14"/>
+      <c r="C903" s="14"/>
+      <c r="D903" s="14"/>
+      <c r="E903" s="14"/>
+    </row>
+    <row r="904" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A904" s="14"/>
+      <c r="B904" s="14"/>
+      <c r="C904" s="14"/>
+      <c r="D904" s="14"/>
+      <c r="E904" s="14"/>
+    </row>
+    <row r="905" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A905" s="14"/>
+      <c r="B905" s="14"/>
+      <c r="C905" s="14"/>
+      <c r="D905" s="14"/>
+      <c r="E905" s="14"/>
+    </row>
+    <row r="906" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A906" s="14"/>
+      <c r="B906" s="14"/>
+      <c r="C906" s="14"/>
+      <c r="D906" s="14"/>
+      <c r="E906" s="14"/>
+    </row>
+    <row r="907" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A907" s="14"/>
+      <c r="B907" s="14"/>
+      <c r="C907" s="14"/>
+      <c r="D907" s="14"/>
+      <c r="E907" s="14"/>
+    </row>
+    <row r="908" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A908" s="14"/>
+      <c r="B908" s="14"/>
+      <c r="C908" s="14"/>
+      <c r="D908" s="14"/>
+      <c r="E908" s="14"/>
+    </row>
+    <row r="909" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A909" s="14"/>
+      <c r="B909" s="14"/>
+      <c r="C909" s="14"/>
+      <c r="D909" s="14"/>
+      <c r="E909" s="14"/>
+    </row>
+    <row r="910" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A910" s="14"/>
+      <c r="B910" s="14"/>
+      <c r="C910" s="14"/>
+      <c r="D910" s="14"/>
+      <c r="E910" s="14"/>
+    </row>
+    <row r="911" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A911" s="14"/>
+      <c r="B911" s="14"/>
+      <c r="C911" s="14"/>
+      <c r="D911" s="14"/>
+      <c r="E911" s="14"/>
+    </row>
+    <row r="912" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A912" s="14"/>
+      <c r="B912" s="14"/>
+      <c r="C912" s="14"/>
+      <c r="D912" s="14"/>
+      <c r="E912" s="14"/>
+    </row>
+    <row r="913" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A913" s="14"/>
+      <c r="B913" s="14"/>
+      <c r="C913" s="14"/>
+      <c r="D913" s="14"/>
+      <c r="E913" s="14"/>
+    </row>
+    <row r="914" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A914" s="14"/>
+      <c r="B914" s="14"/>
+      <c r="C914" s="14"/>
+      <c r="D914" s="14"/>
+      <c r="E914" s="14"/>
+    </row>
+    <row r="915" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A915" s="14"/>
+      <c r="B915" s="14"/>
+      <c r="C915" s="14"/>
+      <c r="D915" s="14"/>
+      <c r="E915" s="14"/>
+    </row>
+    <row r="916" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A916" s="14"/>
+      <c r="B916" s="14"/>
+      <c r="C916" s="14"/>
+      <c r="D916" s="14"/>
+      <c r="E916" s="14"/>
+    </row>
+    <row r="917" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A917" s="14"/>
+      <c r="B917" s="14"/>
+      <c r="C917" s="14"/>
+      <c r="D917" s="14"/>
+      <c r="E917" s="14"/>
+    </row>
+    <row r="918" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A918" s="14"/>
+      <c r="B918" s="14"/>
+      <c r="C918" s="14"/>
+      <c r="D918" s="14"/>
+      <c r="E918" s="14"/>
+    </row>
+    <row r="919" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A919" s="14"/>
+      <c r="B919" s="14"/>
+      <c r="C919" s="14"/>
+      <c r="D919" s="14"/>
+      <c r="E919" s="14"/>
+    </row>
+    <row r="920" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A920" s="14"/>
+      <c r="B920" s="14"/>
+      <c r="C920" s="14"/>
+      <c r="D920" s="14"/>
+      <c r="E920" s="14"/>
+    </row>
+    <row r="921" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A921" s="14"/>
+      <c r="B921" s="14"/>
+      <c r="C921" s="14"/>
+      <c r="D921" s="14"/>
+      <c r="E921" s="14"/>
+    </row>
+    <row r="922" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A922" s="14"/>
+      <c r="B922" s="14"/>
+      <c r="C922" s="14"/>
+      <c r="D922" s="14"/>
+      <c r="E922" s="14"/>
+    </row>
+    <row r="923" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A923" s="14"/>
+      <c r="B923" s="14"/>
+      <c r="C923" s="14"/>
+      <c r="D923" s="14"/>
+      <c r="E923" s="14"/>
+    </row>
+    <row r="924" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A924" s="14"/>
+      <c r="B924" s="14"/>
+      <c r="C924" s="14"/>
+      <c r="D924" s="14"/>
+      <c r="E924" s="14"/>
+    </row>
+    <row r="925" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A925" s="14"/>
+      <c r="B925" s="14"/>
+      <c r="C925" s="14"/>
+      <c r="D925" s="14"/>
+      <c r="E925" s="14"/>
+    </row>
+    <row r="926" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A926" s="14"/>
+      <c r="B926" s="14"/>
+      <c r="C926" s="14"/>
+      <c r="D926" s="14"/>
+      <c r="E926" s="14"/>
+    </row>
+    <row r="927" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A927" s="14"/>
+      <c r="B927" s="14"/>
+      <c r="C927" s="14"/>
+      <c r="D927" s="14"/>
+      <c r="E927" s="14"/>
+    </row>
+    <row r="928" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A928" s="14"/>
+      <c r="B928" s="14"/>
+      <c r="C928" s="14"/>
+      <c r="D928" s="14"/>
+      <c r="E928" s="14"/>
+    </row>
+    <row r="929" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A929" s="14"/>
+      <c r="B929" s="14"/>
+      <c r="C929" s="14"/>
+      <c r="D929" s="14"/>
+      <c r="E929" s="14"/>
+    </row>
+    <row r="930" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A930" s="14"/>
+      <c r="B930" s="14"/>
+      <c r="C930" s="14"/>
+      <c r="D930" s="14"/>
+      <c r="E930" s="14"/>
+    </row>
+    <row r="931" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A931" s="14"/>
+      <c r="B931" s="14"/>
+      <c r="C931" s="14"/>
+      <c r="D931" s="14"/>
+      <c r="E931" s="14"/>
+    </row>
+    <row r="932" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A932" s="14"/>
+      <c r="B932" s="14"/>
+      <c r="C932" s="14"/>
+      <c r="D932" s="14"/>
+      <c r="E932" s="14"/>
+    </row>
+    <row r="933" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A933" s="14"/>
+      <c r="B933" s="14"/>
+      <c r="C933" s="14"/>
+      <c r="D933" s="14"/>
+      <c r="E933" s="14"/>
+    </row>
+    <row r="934" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A934" s="14"/>
+      <c r="B934" s="14"/>
+      <c r="C934" s="14"/>
+      <c r="D934" s="14"/>
+      <c r="E934" s="14"/>
+    </row>
+    <row r="935" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A935" s="14"/>
+      <c r="B935" s="14"/>
+      <c r="C935" s="14"/>
+      <c r="D935" s="14"/>
+      <c r="E935" s="14"/>
+    </row>
+    <row r="936" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A936" s="14"/>
+      <c r="B936" s="14"/>
+      <c r="C936" s="14"/>
+      <c r="D936" s="14"/>
+      <c r="E936" s="14"/>
+    </row>
+    <row r="937" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A937" s="14"/>
+      <c r="B937" s="14"/>
+      <c r="C937" s="14"/>
+      <c r="D937" s="14"/>
+      <c r="E937" s="14"/>
+    </row>
+    <row r="938" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A938" s="14"/>
+      <c r="B938" s="14"/>
+      <c r="C938" s="14"/>
+      <c r="D938" s="14"/>
+      <c r="E938" s="14"/>
+    </row>
+    <row r="939" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A939" s="14"/>
+      <c r="B939" s="14"/>
+      <c r="C939" s="14"/>
+      <c r="D939" s="14"/>
+      <c r="E939" s="14"/>
+    </row>
+    <row r="940" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A940" s="14"/>
+      <c r="B940" s="14"/>
+      <c r="C940" s="14"/>
+      <c r="D940" s="14"/>
+      <c r="E940" s="14"/>
+    </row>
+    <row r="941" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A941" s="14"/>
+      <c r="B941" s="14"/>
+      <c r="C941" s="14"/>
+      <c r="D941" s="14"/>
+      <c r="E941" s="14"/>
+    </row>
+    <row r="942" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A942" s="14"/>
+      <c r="B942" s="14"/>
+      <c r="C942" s="14"/>
+      <c r="D942" s="14"/>
+      <c r="E942" s="14"/>
+    </row>
+    <row r="943" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A943" s="14"/>
+      <c r="B943" s="14"/>
+      <c r="C943" s="14"/>
+      <c r="D943" s="14"/>
+      <c r="E943" s="14"/>
+    </row>
+    <row r="944" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A944" s="14"/>
+      <c r="B944" s="14"/>
+      <c r="C944" s="14"/>
+      <c r="D944" s="14"/>
+      <c r="E944" s="14"/>
+    </row>
+    <row r="945" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A945" s="14"/>
+      <c r="B945" s="14"/>
+      <c r="C945" s="14"/>
+      <c r="D945" s="14"/>
+      <c r="E945" s="14"/>
+    </row>
+    <row r="946" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A946" s="14"/>
+      <c r="B946" s="14"/>
+      <c r="C946" s="14"/>
+      <c r="D946" s="14"/>
+      <c r="E946" s="14"/>
+    </row>
+    <row r="947" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A947" s="14"/>
+      <c r="B947" s="14"/>
+      <c r="C947" s="14"/>
+      <c r="D947" s="14"/>
+      <c r="E947" s="14"/>
+    </row>
+    <row r="948" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A948" s="14"/>
+      <c r="B948" s="14"/>
+      <c r="C948" s="14"/>
+      <c r="D948" s="14"/>
+      <c r="E948" s="14"/>
+    </row>
+    <row r="949" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A949" s="14"/>
+      <c r="B949" s="14"/>
+      <c r="C949" s="14"/>
+      <c r="D949" s="14"/>
+      <c r="E949" s="14"/>
+    </row>
+    <row r="950" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A950" s="14"/>
+      <c r="B950" s="14"/>
+      <c r="C950" s="14"/>
+      <c r="D950" s="14"/>
+      <c r="E950" s="14"/>
+    </row>
+    <row r="951" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A951" s="14"/>
+      <c r="B951" s="14"/>
+      <c r="C951" s="14"/>
+      <c r="D951" s="14"/>
+      <c r="E951" s="14"/>
+    </row>
+    <row r="952" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A952" s="14"/>
+      <c r="B952" s="14"/>
+      <c r="C952" s="14"/>
+      <c r="D952" s="14"/>
+      <c r="E952" s="14"/>
+    </row>
+    <row r="953" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A953" s="14"/>
+      <c r="B953" s="14"/>
+      <c r="C953" s="14"/>
+      <c r="D953" s="14"/>
+      <c r="E953" s="14"/>
+    </row>
+    <row r="954" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A954" s="14"/>
+      <c r="B954" s="14"/>
+      <c r="C954" s="14"/>
+      <c r="D954" s="14"/>
+      <c r="E954" s="14"/>
+    </row>
+    <row r="955" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A955" s="14"/>
+      <c r="B955" s="14"/>
+      <c r="C955" s="14"/>
+      <c r="D955" s="14"/>
+      <c r="E955" s="14"/>
+    </row>
+    <row r="956" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A956" s="14"/>
+      <c r="B956" s="14"/>
+      <c r="C956" s="14"/>
+      <c r="D956" s="14"/>
+      <c r="E956" s="14"/>
+    </row>
+    <row r="957" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A957" s="14"/>
+      <c r="B957" s="14"/>
+      <c r="C957" s="14"/>
+      <c r="D957" s="14"/>
+      <c r="E957" s="14"/>
+    </row>
+    <row r="958" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A958" s="14"/>
+      <c r="B958" s="14"/>
+      <c r="C958" s="14"/>
+      <c r="D958" s="14"/>
+      <c r="E958" s="14"/>
+    </row>
+    <row r="959" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A959" s="14"/>
+      <c r="B959" s="14"/>
+      <c r="C959" s="14"/>
+      <c r="D959" s="14"/>
+      <c r="E959" s="14"/>
+    </row>
+    <row r="960" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A960" s="14"/>
+      <c r="B960" s="14"/>
+      <c r="C960" s="14"/>
+      <c r="D960" s="14"/>
+      <c r="E960" s="14"/>
+    </row>
+    <row r="961" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A961" s="14"/>
+      <c r="B961" s="14"/>
+      <c r="C961" s="14"/>
+      <c r="D961" s="14"/>
+      <c r="E961" s="14"/>
+    </row>
+    <row r="962" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A962" s="14"/>
+      <c r="B962" s="14"/>
+      <c r="C962" s="14"/>
+      <c r="D962" s="14"/>
+      <c r="E962" s="14"/>
+    </row>
+    <row r="963" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A963" s="14"/>
+      <c r="B963" s="14"/>
+      <c r="C963" s="14"/>
+      <c r="D963" s="14"/>
+      <c r="E963" s="14"/>
+    </row>
+    <row r="964" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A964" s="14"/>
+      <c r="B964" s="14"/>
+      <c r="C964" s="14"/>
+      <c r="D964" s="14"/>
+      <c r="E964" s="14"/>
+    </row>
+    <row r="965" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A965" s="14"/>
+      <c r="B965" s="14"/>
+      <c r="C965" s="14"/>
+      <c r="D965" s="14"/>
+      <c r="E965" s="14"/>
+    </row>
+    <row r="966" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A966" s="14"/>
+      <c r="B966" s="14"/>
+      <c r="C966" s="14"/>
+      <c r="D966" s="14"/>
+      <c r="E966" s="14"/>
+    </row>
+    <row r="967" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A967" s="14"/>
+      <c r="B967" s="14"/>
+      <c r="C967" s="14"/>
+      <c r="D967" s="14"/>
+      <c r="E967" s="14"/>
+    </row>
+    <row r="968" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A968" s="14"/>
+      <c r="B968" s="14"/>
+      <c r="C968" s="14"/>
+      <c r="D968" s="14"/>
+      <c r="E968" s="14"/>
+    </row>
+    <row r="969" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A969" s="14"/>
+      <c r="B969" s="14"/>
+      <c r="C969" s="14"/>
+      <c r="D969" s="14"/>
+      <c r="E969" s="14"/>
+    </row>
+    <row r="970" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A970" s="14"/>
+      <c r="B970" s="14"/>
+      <c r="C970" s="14"/>
+      <c r="D970" s="14"/>
+      <c r="E970" s="14"/>
+    </row>
+    <row r="971" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A971" s="14"/>
+      <c r="B971" s="14"/>
+      <c r="C971" s="14"/>
+      <c r="D971" s="14"/>
+      <c r="E971" s="14"/>
+    </row>
+    <row r="972" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A972" s="14"/>
+      <c r="B972" s="14"/>
+      <c r="C972" s="14"/>
+      <c r="D972" s="14"/>
+      <c r="E972" s="14"/>
+    </row>
+    <row r="973" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A973" s="14"/>
+      <c r="B973" s="14"/>
+      <c r="C973" s="14"/>
+      <c r="D973" s="14"/>
+      <c r="E973" s="14"/>
+    </row>
+    <row r="974" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A974" s="14"/>
+      <c r="B974" s="14"/>
+      <c r="C974" s="14"/>
+      <c r="D974" s="14"/>
+      <c r="E974" s="14"/>
+    </row>
+    <row r="975" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A975" s="14"/>
+      <c r="B975" s="14"/>
+      <c r="C975" s="14"/>
+      <c r="D975" s="14"/>
+      <c r="E975" s="14"/>
+    </row>
+    <row r="976" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A976" s="14"/>
+      <c r="B976" s="14"/>
+      <c r="C976" s="14"/>
+      <c r="D976" s="14"/>
+      <c r="E976" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C0C71D-A95D-774D-83CB-512DC556CD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E5710-A03A-7D41-B167-AA4C6098ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="329">
   <si>
     <t>TS_02</t>
   </si>
@@ -1130,6 +1130,15 @@
   </si>
   <si>
     <t>Wait for add account button clickable</t>
+  </si>
+  <si>
+    <t>Wait for absence of overlay</t>
+  </si>
+  <si>
+    <t>elm_accountOverlay</t>
+  </si>
+  <si>
+    <t>Scroll to add contact</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1685,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3058,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3271,26 +3280,25 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>116</v>
+        <v>18</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>98</v>
+      <c r="B14" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>23</v>
+      </c>
       <c r="E14" s="13" t="s">
         <v>116</v>
       </c>
@@ -3300,13 +3308,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,45 +3322,45 @@
         <v>93</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>267</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>100</v>
+      <c r="B17" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>17</v>
+      </c>
       <c r="E17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>320</v>
+      <c r="B18" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3360,45 +3368,45 @@
         <v>96</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>273</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>124</v>
+      <c r="B20" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>17</v>
+      </c>
       <c r="E20" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>121</v>
+      <c r="B21" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>122</v>
+        <v>271</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,14 +3414,14 @@
         <v>158</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3421,13 +3429,13 @@
         <v>159</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,14 +3443,14 @@
         <v>160</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3450,14 +3458,13 @@
         <v>167</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>322</v>
+        <v>114</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
-        <v>321</v>
+      <c r="E25" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,14 +3472,14 @@
         <v>170</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3480,28 +3487,29 @@
         <v>171</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="14" t="s">
-        <v>169</v>
+      <c r="E27" s="13" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>169</v>
+      <c r="B28" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3509,13 +3517,14 @@
         <v>192</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="D29" s="12"/>
       <c r="E29" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3523,16 +3532,13 @@
         <v>193</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>211</v>
+        <v>168</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3540,15 +3546,46 @@
         <v>194</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3565,7 +3602,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C19</xm:sqref>
+          <xm:sqref>C21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E5710-A03A-7D41-B167-AA4C6098ED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DFD2FC1C-E44B-944C-8191-299015E53267}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="4" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
-    <sheet name="TC001_RegBuyerOrganisation" sheetId="20" r:id="rId3"/>
-    <sheet name="TC002_RegSupplierOrganisation" sheetId="21" r:id="rId4"/>
-    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
-    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
-    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
-    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
+    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
+    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
+    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
+    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
+    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
+    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
+    <sheet name="TC004_ResetPassword" r:id="rId8" sheetId="19"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="330">
   <si>
     <t>TS_02</t>
   </si>
@@ -1140,11 +1140,15 @@
   <si>
     <t>Scroll to add contact</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1278,78 +1282,78 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1366,10 +1370,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1404,7 +1408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1456,7 +1460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1561,7 +1565,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1570,13 +1574,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1586,7 +1590,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1595,7 +1599,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1604,7 +1608,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1614,12 +1618,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1650,7 +1654,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1669,7 +1673,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1681,8 +1685,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1690,11 +1694,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1782,7 +1786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1830,7 +1834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -1918,7 +1922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -1942,7 +1946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>271</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>279</v>
       </c>
@@ -1959,26 +1963,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
+    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2023,7 +2027,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="4" s="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>174</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2077,18 +2081,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
-    <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A4" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A5" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink display="TC002_RegSupplierOrganisation" location="TC002_RegSupplierOrganisation!A1" ref="A3" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -2096,13 +2100,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +2138,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2153,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2164,7 +2168,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2243,7 +2247,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>158</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>159</v>
       </c>
@@ -2447,7 +2451,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -2461,7 +2465,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>167</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>171</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>172</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>192</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>193</v>
       </c>
@@ -2550,7 +2554,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>194</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>195</v>
       </c>
@@ -2581,11 +2585,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2598,8 +2602,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -2607,13 +2611,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2858,7 +2862,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>159</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>160</v>
       </c>
@@ -2929,7 +2933,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>167</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>170</v>
       </c>
@@ -2961,7 +2965,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>171</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>172</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>192</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>193</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>194</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>195</v>
       </c>
@@ -3049,11 +3053,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3066,25 +3070,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
-    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
+    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="14" width="50.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
+    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3592,13 +3596,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3611,21 +3615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3642,7 +3646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3690,7 +3694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3770,7 +3774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3817,7 +3821,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3866,7 +3870,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>158</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>159</v>
       </c>
@@ -3994,7 +3998,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="25" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>167</v>
       </c>
@@ -4026,7 +4030,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="26" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="27" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>171</v>
       </c>
@@ -4057,7 +4061,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="28" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>172</v>
       </c>
@@ -4071,7 +4075,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>192</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="30" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>193</v>
       </c>
@@ -4100,7 +4104,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="31" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>194</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="32" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>195</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="33" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>196</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="34" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>197</v>
       </c>
@@ -4157,7 +4161,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="35" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>198</v>
       </c>
@@ -4174,7 +4178,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="36" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>199</v>
       </c>
@@ -4194,14 +4198,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
-    <hyperlink ref="D22" r:id="rId2" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
+    <hyperlink r:id="rId2" ref="D22" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4214,8 +4218,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4223,13 +4227,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4277,7 +4281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4311,7 +4315,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4328,7 +4332,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4343,7 +4347,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4357,7 +4361,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="11" s="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4421,7 +4425,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4453,7 +4457,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4513,7 +4517,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>157</v>
       </c>
@@ -4558,7 +4562,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>158</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="23" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>159</v>
       </c>
@@ -4590,7 +4594,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="24" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>160</v>
       </c>
@@ -4607,7 +4611,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>167</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>171</v>
       </c>
@@ -4649,7 +4653,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>172</v>
       </c>
@@ -4664,7 +4668,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>192</v>
       </c>
@@ -4681,7 +4685,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="30" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>193</v>
       </c>
@@ -4701,13 +4705,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4720,8 +4724,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4729,13 +4733,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4766,7 +4770,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4783,7 +4787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4817,7 +4821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4834,7 +4838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4863,7 +4867,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4897,7 +4901,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -4912,7 +4916,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4926,7 +4930,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4958,7 +4962,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -5022,7 +5026,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -5059,13 +5063,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DFD2FC1C-E44B-944C-8191-299015E53267}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E47AB-37A3-8148-95C2-3F6B7702E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="4" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
-    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
-    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
-    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
-    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
-    <sheet name="TC004_ResetPassword" r:id="rId8" sheetId="19"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
+    <sheet name="TC001_RegBuyerOrganisation" sheetId="20" r:id="rId3"/>
+    <sheet name="TC002_RegSupplierOrganisation" sheetId="21" r:id="rId4"/>
+    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
+    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
+    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
+    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="359">
   <si>
     <t>TS_02</t>
   </si>
@@ -515,9 +515,6 @@
     <t>lnk_org_link</t>
   </si>
   <si>
-    <t>Wait for manage orgs page</t>
-  </si>
-  <si>
     <t>elm_orgsTitle</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>Enter street address</t>
   </si>
   <si>
-    <t>Site1test</t>
-  </si>
-  <si>
     <t>1 High Street</t>
   </si>
   <si>
@@ -551,12 +545,6 @@
     <t>txt_postcode</t>
   </si>
   <si>
-    <t>United Kingdon - GB</t>
-  </si>
-  <si>
-    <t>Select country</t>
-  </si>
-  <si>
     <t>opt_country</t>
   </si>
   <si>
@@ -569,9 +557,6 @@
     <t>elm_site_created</t>
   </si>
   <si>
-    <t>Site successfully added</t>
-  </si>
-  <si>
     <t>Click manage groups</t>
   </si>
   <si>
@@ -665,15 +650,6 @@
     <t>Select email address checkbox</t>
   </si>
   <si>
-    <t>chk_emailcheckbox</t>
-  </si>
-  <si>
-    <t>contact@mailinator.com</t>
-  </si>
-  <si>
-    <t>txt_contactemail</t>
-  </si>
-  <si>
     <t>Click return to site details</t>
   </si>
   <si>
@@ -704,9 +680,6 @@
     <t>elm_site_deleted</t>
   </si>
   <si>
-    <t>Site successfully deleted</t>
-  </si>
-  <si>
     <t>TS_28</t>
   </si>
   <si>
@@ -776,9 +749,6 @@
     <t>elm_saveContinue</t>
   </si>
   <si>
-    <t>elm_createContact</t>
-  </si>
-  <si>
     <t>elm_returnSite</t>
   </si>
   <si>
@@ -852,9 +822,6 @@
   </si>
   <si>
     <t>elm_confirmPassword</t>
-  </si>
-  <si>
-    <t>expected_siteaddedTitle</t>
   </si>
   <si>
     <t>expected_sitedeletedTitle</t>
@@ -1141,14 +1108,133 @@
     <t>Scroll to add contact</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>SelectCheckbox</t>
+  </si>
+  <si>
+    <t>To select a checkbox</t>
+  </si>
+  <si>
+    <t>Highlight confirm delete button</t>
+  </si>
+  <si>
+    <t>elm_confirmDeleteHeader</t>
+  </si>
+  <si>
+    <t>Scroll to add site</t>
+  </si>
+  <si>
+    <t>Wait for site name field</t>
+  </si>
+  <si>
+    <t>Click on country options</t>
+  </si>
+  <si>
+    <t>Select 'United Kingdom - GB'</t>
+  </si>
+  <si>
+    <t>opt_country_gb</t>
+  </si>
+  <si>
+    <t>Wait for add contact option</t>
+  </si>
+  <si>
+    <t>btn_continueSiteContact</t>
+  </si>
+  <si>
+    <t>Click continue button</t>
+  </si>
+  <si>
+    <t>Wait for contact name field</t>
+  </si>
+  <si>
+    <t>txt_sitecontactname</t>
+  </si>
+  <si>
+    <t>chk_siteemailcheckbox</t>
+  </si>
+  <si>
+    <t>txt_sitecontactemail</t>
+  </si>
+  <si>
+    <t>elm_createsiteContact</t>
+  </si>
+  <si>
+    <t>Wait for edit site link</t>
+  </si>
+  <si>
+    <t>Wait for delete site contact</t>
+  </si>
+  <si>
+    <t>Wait for confirm delete site contact</t>
+  </si>
+  <si>
+    <t>elm_deletedMessage</t>
+  </si>
+  <si>
+    <t>Wait for delete confirmation page</t>
+  </si>
+  <si>
+    <t>Wait for delete site option</t>
+  </si>
+  <si>
+    <t>Wait for confirm delete site button</t>
+  </si>
+  <si>
+    <t>Wait for delete site confirmation page</t>
+  </si>
+  <si>
+    <t>You have successfully deleted the site</t>
+  </si>
+  <si>
+    <t>TS_36</t>
+  </si>
+  <si>
+    <t>TS_37</t>
+  </si>
+  <si>
+    <t>TS_38</t>
+  </si>
+  <si>
+    <t>TS_39</t>
+  </si>
+  <si>
+    <t>TS_40</t>
+  </si>
+  <si>
+    <t>TS_41</t>
+  </si>
+  <si>
+    <t>TS_42</t>
+  </si>
+  <si>
+    <t>TS_43</t>
+  </si>
+  <si>
+    <t>TS_44</t>
+  </si>
+  <si>
+    <t>TS_45</t>
+  </si>
+  <si>
+    <t>TS_46</t>
+  </si>
+  <si>
+    <t>elm_optionHeader</t>
+  </si>
+  <si>
+    <t>Highlight options header</t>
+  </si>
+  <si>
+    <t>TS_47</t>
+  </si>
+  <si>
+    <t>rd_addsiteContact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1282,78 +1368,78 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1370,10 +1456,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1408,7 +1494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,7 +1546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1565,7 +1651,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1574,13 +1660,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1590,7 +1676,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1599,7 +1685,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1608,7 +1694,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1618,12 +1704,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1654,7 +1740,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1673,7 +1759,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1685,20 +1771,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1714,7 +1800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1722,7 +1808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1746,7 +1832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1770,7 +1856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1786,7 +1872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1794,7 +1880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1802,7 +1888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1810,7 +1896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1818,7 +1904,7 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1834,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1842,7 +1928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1850,7 +1936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +1968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1890,7 +1976,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1898,7 +1984,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1906,7 +1992,7 @@
         <v>69</v>
       </c>
     </row>
-    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1914,7 +2000,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -1922,7 +2008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -1930,7 +2016,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1938,7 +2024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -1946,43 +2032,51 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2001,112 +2095,112 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="1" spans="1:4" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A4" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A5" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
-    <hyperlink display="TC002_RegSupplierOrganisation" location="TC002_RegSupplierOrganisation!A1" ref="A3" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2123,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2138,458 +2232,458 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2602,22 +2696,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2634,7 +2728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2649,415 +2743,415 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3070,25 +3164,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="14" width="50.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
-    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
+    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3130,7 +3224,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>106</v>
@@ -3164,7 +3258,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>108</v>
@@ -3227,7 +3321,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>123</v>
@@ -3284,13 +3378,13 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3298,7 +3392,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>23</v>
@@ -3312,7 +3406,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>19</v>
@@ -3341,7 +3435,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
@@ -3361,7 +3455,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>117</v>
@@ -3375,7 +3469,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
@@ -3387,7 +3481,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
@@ -3398,16 +3492,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>119</v>
@@ -3415,7 +3509,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>124</v>
@@ -3430,7 +3524,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>121</v>
@@ -3444,22 +3538,22 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>114</v>
@@ -3473,136 +3567,151 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="13" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="12"/>
       <c r="E30" s="14" t="s">
-        <v>169</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>17</v>
+        <v>163</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>211</v>
+        <v>17</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>173</v>
+      <c r="D34" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3615,21 +3724,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" width="42.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3646,7 +3755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3660,7 +3769,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3671,13 +3780,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3694,7 +3803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3704,14 +3813,14 @@
       <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>81</v>
+      <c r="D5" s="27" t="s">
+        <v>306</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3728,7 +3837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3743,7 +3852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3757,7 +3866,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3768,13 +3877,13 @@
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3791,7 +3900,7 @@
         <v>111</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3806,410 +3915,577 @@
         <v>127</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>133</v>
-      </c>
+      <c r="B14" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>134</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>140</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="D17" s="22"/>
       <c r="E17" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="E18" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="E19" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>176</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D20" s="22"/>
       <c r="E20" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>177</v>
+        <v>325</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>179</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D22" s="21"/>
       <c r="E22" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>144</v>
+        <v>155</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="C24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="25" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B28" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="26" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="14" t="s">
+      <c r="D47" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="27" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="28" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="D48" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="30" s="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="31" s="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="32" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="33" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="34" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="35" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="36" s="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{64458F9D-55A8-DD4A-BC3F-A2BD0F7CAD29}"/>
-    <hyperlink r:id="rId2" ref="D22" xr:uid="{3B980131-B069-BB43-B5C7-EAEEBCC5437C}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{0B496968-09E8-A148-AF11-39A63A715C19}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:C36</xm:sqref>
+          <xm:sqref>C11 C15 C17:C28 C30:C48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4218,8 +4494,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4227,13 +4503,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4250,7 +4526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4264,7 +4540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4281,7 +4557,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4298,7 +4574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4315,7 +4591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4332,7 +4608,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4347,7 +4623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4361,7 +4637,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4378,7 +4654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4395,191 +4671,191 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="23" s="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>104</v>
@@ -4588,15 +4864,15 @@
         <v>39</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="24" s="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>107</v>
@@ -4605,72 +4881,72 @@
         <v>40</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>172</v>
-      </c>
       <c r="B28" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>104</v>
@@ -4679,15 +4955,15 @@
         <v>39</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="30" s="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>107</v>
@@ -4696,22 +4972,22 @@
         <v>40</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4724,22 +5000,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4756,7 +5032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4770,7 +5046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4787,7 +5063,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4804,7 +5080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4821,7 +5097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4838,7 +5114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4853,7 +5129,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4867,7 +5143,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4884,7 +5160,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4901,7 +5177,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -4916,7 +5192,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4930,27 +5206,27 @@
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>36</v>
@@ -4959,59 +5235,59 @@
         <v>83</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -5023,10 +5299,10 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -5037,13 +5313,13 @@
         <v>39</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -5054,22 +5330,22 @@
         <v>40</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E47AB-37A3-8148-95C2-3F6B7702E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{76C0C739-AADB-B348-A59A-74B9C64DD8F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
-    <sheet name="TC001_RegBuyerOrganisation" sheetId="20" r:id="rId3"/>
-    <sheet name="TC002_RegSupplierOrganisation" sheetId="21" r:id="rId4"/>
-    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
-    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
-    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
-    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
+    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
+    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
+    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
+    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
+    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
+    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
+    <sheet name="TC004_ResetPassword" r:id="rId8" sheetId="19"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="358">
   <si>
     <t>TS_02</t>
   </si>
@@ -644,9 +644,6 @@
     <t>Enter contact name</t>
   </si>
   <si>
-    <t>Contact Auto</t>
-  </si>
-  <si>
     <t>Select email address checkbox</t>
   </si>
   <si>
@@ -852,9 +849,6 @@
   </si>
   <si>
     <t>TC004_ResetPassword</t>
-  </si>
-  <si>
-    <t>To verify an org admin can access the  manage groups  screen and add/delete a  group containing user and role</t>
   </si>
   <si>
     <t>To verify an org user can access the manage my account screen and add/delete a contact</t>
@@ -961,9 +955,6 @@
     <t>EnterRandomText</t>
   </si>
   <si>
-    <t>To enter random text [Format: Automation_random letters (5) ]</t>
-  </si>
-  <si>
     <t>Wait for loading 'register your organisation' page header</t>
   </si>
   <si>
@@ -1229,12 +1220,19 @@
   </si>
   <si>
     <t>rd_addsiteContact</t>
+  </si>
+  <si>
+    <t>To verify an org admin can access the  manage organisation screen and add/delete site and site contact</t>
+  </si>
+  <si>
+    <t>To enter random text [Format: Automation+random letters (5) ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1368,78 +1366,78 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1456,10 +1454,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1494,7 +1492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1546,7 +1544,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1651,7 +1649,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1660,13 +1658,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1676,7 +1674,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1685,7 +1683,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1694,7 +1692,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1704,12 +1702,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1740,7 +1738,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1759,7 +1757,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1771,20 +1769,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1792,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1808,7 +1806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1816,7 +1814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +1830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1840,7 +1838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1848,7 +1846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1864,7 +1862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1880,7 +1878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1888,7 +1886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +1894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +1926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1936,7 +1934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1944,7 +1942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1952,7 +1950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +1966,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1976,7 +1974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1984,7 +1982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -2008,7 +2006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -2016,7 +2014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -2024,7 +2022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -2032,51 +2030,51 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row ht="20" r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
+    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2095,98 +2093,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
-    <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A4" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A5" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink display="TC002_RegSupplierOrganisation" location="TC002_RegSupplierOrganisation!A1" ref="A3" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2194,13 +2194,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2232,458 +2232,458 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2696,8 +2696,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2705,13 +2705,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2743,415 +2743,415 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>262</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3164,25 +3164,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
-    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
+    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="14" width="50.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
+    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>106</v>
@@ -3258,7 +3258,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>108</v>
@@ -3321,7 +3321,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>123</v>
@@ -3378,13 +3378,13 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3392,7 +3392,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>23</v>
@@ -3406,7 +3406,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>19</v>
@@ -3435,7 +3435,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
@@ -3452,11 +3452,9 @@
         <v>99</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>256</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D18" s="16"/>
       <c r="E18" s="13" t="s">
         <v>117</v>
       </c>
@@ -3469,7 +3467,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
@@ -3481,7 +3479,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
@@ -3498,10 +3496,10 @@
         <v>101</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>262</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>119</v>
@@ -3585,14 +3583,14 @@
         <v>166</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3612,10 +3610,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>19</v>
@@ -3627,22 +3625,22 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>163</v>
@@ -3656,7 +3654,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>121</v>
@@ -3670,7 +3668,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>104</v>
@@ -3679,15 +3677,15 @@
         <v>39</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>107</v>
@@ -3696,7 +3694,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>168</v>
@@ -3705,13 +3703,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3724,21 +3722,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3769,7 +3767,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3780,13 +3778,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3803,7 +3801,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3814,13 +3812,13 @@
         <v>36</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3837,7 +3835,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3866,7 +3864,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3877,13 +3875,13 @@
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3900,7 +3898,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3915,7 +3913,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3930,37 +3928,37 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3972,15 +3970,15 @@
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>17</v>
@@ -3990,7 +3988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3998,14 +3996,14 @@
         <v>130</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4022,7 +4020,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4039,12 +4037,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>11</v>
@@ -4054,22 +4052,22 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
@@ -4081,40 +4079,40 @@
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
@@ -4126,91 +4124,89 @@
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="C29" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>262</v>
-      </c>
       <c r="E30" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>124</v>
@@ -4220,12 +4216,12 @@
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>140</v>
@@ -4238,209 +4234,209 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="33" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="34" s="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>188</v>
-      </c>
       <c r="B34" s="20" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="35" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="36" s="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>190</v>
-      </c>
       <c r="B36" s="20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="37" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="38" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="39" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="40" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="41" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="42" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="43" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="21" r="44" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="45" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" ht="21" r="46" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="47" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>104</v>
@@ -4449,15 +4445,15 @@
         <v>39</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="48" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>107</v>
@@ -4466,26 +4462,26 @@
         <v>40</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{0B496968-09E8-A148-AF11-39A63A715C19}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{0B496968-09E8-A148-AF11-39A63A715C19}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C15 C17:C28 C30:C48</xm:sqref>
+          <xm:sqref>C11 C15 C30:C48 C17:C27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4494,8 +4490,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4503,13 +4499,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4526,7 +4522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4540,7 +4536,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4574,7 +4570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4591,7 +4587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4608,7 +4604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4623,7 +4619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4637,7 +4633,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4654,7 +4650,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4671,7 +4667,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="11" s="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
@@ -4686,7 +4682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4701,7 +4697,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4713,10 +4709,10 @@
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4733,7 +4729,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4745,100 +4741,100 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
@@ -4853,7 +4849,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="23" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
@@ -4867,10 +4863,10 @@
         <v>151</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="24" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
@@ -4881,55 +4877,55 @@
         <v>40</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
@@ -4941,12 +4937,12 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>104</v>
@@ -4955,15 +4951,15 @@
         <v>39</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="30" s="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>107</v>
@@ -4972,22 +4968,22 @@
         <v>40</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -5000,8 +4996,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -5009,13 +5005,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -5032,7 +5028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -5046,7 +5042,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -5063,7 +5059,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -5080,7 +5076,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -5097,7 +5093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -5114,7 +5110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -5143,7 +5139,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -5160,7 +5156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -5177,7 +5173,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -5192,7 +5188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -5206,27 +5202,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>36</v>
@@ -5235,59 +5231,59 @@
         <v>83</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -5299,10 +5295,10 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -5313,13 +5309,13 @@
         <v>39</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -5330,22 +5326,22 @@
         <v>40</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akin.adebayo1/Documents/GitHub/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{76C0C739-AADB-B348-A59A-74B9C64DD8F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5968A0-2967-4040-A868-EB11E253F4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="752" windowHeight="15880" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
-    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
-    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
-    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
-    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
-    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
-    <sheet name="TC004_ResetPassword" r:id="rId8" sheetId="19"/>
+    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
+    <sheet name="TC001_RegBuyerOrganisation" sheetId="20" r:id="rId3"/>
+    <sheet name="TC002_RegSupplierOrganisation" sheetId="21" r:id="rId4"/>
+    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
+    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
+    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
+    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
+    <sheet name="TC005-OrgAdminAddUser" sheetId="22" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="391">
   <si>
     <t>TS_02</t>
   </si>
@@ -1227,12 +1228,110 @@
   <si>
     <t>To enter random text [Format: Automation+random letters (5) ]</t>
   </si>
+  <si>
+    <t>TC005-OrgAdminAddUser</t>
+  </si>
+  <si>
+    <t>To verify that org Admin can add an Org user</t>
+  </si>
+  <si>
+    <t>auto_snr_supplier@yopmail.com</t>
+  </si>
+  <si>
+    <t>Test12345@</t>
+  </si>
+  <si>
+    <t>Click manage users</t>
+  </si>
+  <si>
+    <t>lnk_manage_user</t>
+  </si>
+  <si>
+    <t>Wait for manage your org user accounts page</t>
+  </si>
+  <si>
+    <t>elm_manageOrgUserAccount_header</t>
+  </si>
+  <si>
+    <t>Click add user</t>
+  </si>
+  <si>
+    <t>elm_addUsers</t>
+  </si>
+  <si>
+    <t>TS-13</t>
+  </si>
+  <si>
+    <t>Wait for Add users page</t>
+  </si>
+  <si>
+    <t>elm_addUser_header</t>
+  </si>
+  <si>
+    <t>Select Add single user radio button</t>
+  </si>
+  <si>
+    <t>elm_addSingleUser</t>
+  </si>
+  <si>
+    <t>Click Continue</t>
+  </si>
+  <si>
+    <t>elm_continueButton</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>txt.fName</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>txt.lName</t>
+  </si>
+  <si>
+    <t>Enter email Address</t>
+  </si>
+  <si>
+    <t>RandomEmail</t>
+  </si>
+  <si>
+    <t>@yopmail.com</t>
+  </si>
+  <si>
+    <t>txt.eMail_User_registered</t>
+  </si>
+  <si>
+    <t>Select Org User-Dashboard checkbox</t>
+  </si>
+  <si>
+    <t>chk_Org_user_dashboard_checkbox</t>
+  </si>
+  <si>
+    <t>Click User ID and password</t>
+  </si>
+  <si>
+    <t>elm_userID_password</t>
+  </si>
+  <si>
+    <t>Click Save changes</t>
+  </si>
+  <si>
+    <t>elm_save_Changes</t>
+  </si>
+  <si>
+    <t>elm_email_instruction_sent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1366,78 +1465,78 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1454,10 +1553,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1492,7 +1591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1544,7 +1643,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1649,7 +1748,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1658,13 +1757,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1674,7 +1773,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1683,7 +1782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1692,7 +1791,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1702,12 +1801,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1738,7 +1837,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1757,7 +1856,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1769,8 +1868,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
@@ -1778,11 +1877,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
+    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1798,7 +1897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1806,7 +1905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1814,7 +1913,7 @@
         <v>46</v>
       </c>
     </row>
-    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1822,7 +1921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1830,7 +1929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +1937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1846,7 +1945,7 @@
         <v>49</v>
       </c>
     </row>
-    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1870,7 +1969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1878,7 +1977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +1985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1894,7 +1993,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1902,7 +2001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1910,7 +2009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1918,7 +2017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1926,7 +2025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1934,7 +2033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1942,7 +2041,7 @@
         <v>63</v>
       </c>
     </row>
-    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1950,7 +2049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1958,7 +2057,7 @@
         <v>65</v>
       </c>
     </row>
-    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -1966,7 +2065,7 @@
         <v>66</v>
       </c>
     </row>
-    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -1974,7 +2073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +2081,7 @@
         <v>68</v>
       </c>
     </row>
-    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1990,7 +2089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -1998,7 +2097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -2006,7 +2105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -2014,7 +2113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -2022,7 +2121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -2030,7 +2129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>258</v>
       </c>
@@ -2038,7 +2137,7 @@
         <v>259</v>
       </c>
     </row>
-    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>266</v>
       </c>
@@ -2046,7 +2145,7 @@
         <v>357</v>
       </c>
     </row>
-    <row ht="20" r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>315</v>
       </c>
@@ -2055,26 +2154,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="37.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="84.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.83203125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="37.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="84.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.1640625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2119,7 +2218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>169</v>
       </c>
@@ -2173,20 +2272,28 @@
         <v>294</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="TC001_AddDeleteContact" location="TC001_AddDeleteContact!A1" ref="A4" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
-    <hyperlink display="TC002_AddDeleteSite" location="TC002_AddDeleteSite!A1" ref="A5" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
-    <hyperlink display="TC001_RegisterOrganisation" location="TC001_RegisterOrganisation!A1" ref="A2" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
-    <hyperlink display="TC002_RegSupplierOrganisation" location="TC002_RegSupplierOrganisation!A1" ref="A3" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
+    <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
+    <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
+    <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AFD03-FEF2-3140-AF6D-190EC0470E79}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2194,13 +2301,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2217,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +2339,7 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2354,7 @@
         <v>244</v>
       </c>
     </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2262,7 +2369,7 @@
         <v>246</v>
       </c>
     </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2277,7 +2384,7 @@
         <v>248</v>
       </c>
     </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2292,7 +2399,7 @@
         <v>250</v>
       </c>
     </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2307,7 +2414,7 @@
         <v>252</v>
       </c>
     </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2324,7 +2431,7 @@
         <v>261</v>
       </c>
     </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2341,7 +2448,7 @@
         <v>262</v>
       </c>
     </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2358,7 +2465,7 @@
         <v>263</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2373,7 +2480,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2387,7 +2494,7 @@
         <v>268</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2402,7 +2509,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2416,7 +2523,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2430,7 +2537,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2445,7 +2552,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2459,7 +2566,7 @@
         <v>273</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2473,7 +2580,7 @@
         <v>275</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2488,7 +2595,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -2502,7 +2609,7 @@
         <v>277</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
@@ -2516,7 +2623,7 @@
         <v>279</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
@@ -2531,7 +2638,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
@@ -2545,7 +2652,7 @@
         <v>281</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
@@ -2559,7 +2666,7 @@
         <v>283</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
@@ -2576,7 +2683,7 @@
         <v>285</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
@@ -2591,7 +2698,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
@@ -2605,7 +2712,7 @@
         <v>287</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
@@ -2619,7 +2726,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>182</v>
       </c>
@@ -2634,7 +2741,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>183</v>
       </c>
@@ -2648,7 +2755,7 @@
         <v>291</v>
       </c>
     </row>
-    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>184</v>
       </c>
@@ -2663,7 +2770,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>185</v>
       </c>
@@ -2679,11 +2786,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{673DA5EE-7797-4E4A-9773-9F2C7C77CD06}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -2696,8 +2803,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2705,13 +2812,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="65.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="2" max="2" width="65.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2728,7 +2835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2743,7 +2850,7 @@
         <v>103</v>
       </c>
     </row>
-    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2865,7 @@
         <v>244</v>
       </c>
     </row>
-    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2773,7 +2880,7 @@
         <v>246</v>
       </c>
     </row>
-    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2788,7 +2895,7 @@
         <v>248</v>
       </c>
     </row>
-    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2803,7 +2910,7 @@
         <v>250</v>
       </c>
     </row>
-    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2818,7 +2925,7 @@
         <v>252</v>
       </c>
     </row>
-    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2835,7 +2942,7 @@
         <v>261</v>
       </c>
     </row>
-    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2852,7 +2959,7 @@
         <v>262</v>
       </c>
     </row>
-    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2869,7 +2976,7 @@
         <v>263</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2884,7 +2991,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2898,7 +3005,7 @@
         <v>268</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2913,7 +3020,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2927,7 +3034,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2941,7 +3048,7 @@
         <v>270</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2956,7 +3063,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2970,7 +3077,7 @@
         <v>273</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2984,7 +3091,7 @@
         <v>301</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2999,7 +3106,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>154</v>
       </c>
@@ -3013,7 +3120,7 @@
         <v>281</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>155</v>
       </c>
@@ -3027,7 +3134,7 @@
         <v>283</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>162</v>
       </c>
@@ -3044,7 +3151,7 @@
         <v>285</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>165</v>
       </c>
@@ -3059,7 +3166,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>166</v>
       </c>
@@ -3073,7 +3180,7 @@
         <v>287</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>167</v>
       </c>
@@ -3087,7 +3194,7 @@
         <v>289</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>182</v>
       </c>
@@ -3102,7 +3209,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>183</v>
       </c>
@@ -3116,7 +3223,7 @@
         <v>291</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>184</v>
       </c>
@@ -3131,7 +3238,7 @@
         <v>264</v>
       </c>
     </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>185</v>
       </c>
@@ -3147,11 +3254,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71C2C0A5-75F0-C044-8439-AFDF571060AF}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3164,8 +3271,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -3173,16 +3280,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="10.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="28.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="14" width="50.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="39.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="99.6640625" collapsed="true"/>
-    <col min="7" max="16384" style="14" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="10.83203125" style="14" collapsed="1"/>
+    <col min="2" max="2" width="42" style="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.83203125" style="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50" style="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="99.6640625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3703,13 +3810,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{681CC5D2-C7F9-8C48-AD49-4568DD34C8C9}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E30CED1-26DB-6A45-8B25-994EB640CA91}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
@@ -3722,8 +3829,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
@@ -3731,12 +3838,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" width="42.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3753,7 +3860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -3767,7 +3874,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3784,7 +3891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -3801,7 +3908,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -3818,7 +3925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3835,7 +3942,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3850,7 +3957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3864,7 +3971,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3881,7 +3988,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3898,7 +4005,7 @@
         <v>111</v>
       </c>
     </row>
-    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3913,7 +4020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3928,7 +4035,7 @@
         <v>128</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3943,7 +4050,7 @@
         <v>313</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3958,7 +4065,7 @@
         <v>203</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3973,7 +4080,7 @@
         <v>203</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3988,7 +4095,7 @@
         <v>135</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4003,7 +4110,7 @@
         <v>135</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4020,7 +4127,7 @@
         <v>136</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4037,7 +4144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -4052,7 +4159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
@@ -4067,7 +4174,7 @@
         <v>323</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
@@ -4082,7 +4189,7 @@
         <v>204</v>
       </c>
     </row>
-    <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
@@ -4097,7 +4204,7 @@
         <v>355</v>
       </c>
     </row>
-    <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
@@ -4112,7 +4219,7 @@
         <v>352</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
@@ -4127,7 +4234,7 @@
         <v>355</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
@@ -4142,7 +4249,7 @@
         <v>325</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
@@ -4157,7 +4264,7 @@
         <v>328</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
@@ -4172,7 +4279,7 @@
         <v>328</v>
       </c>
     </row>
-    <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>182</v>
       </c>
@@ -4187,7 +4294,7 @@
         <v>329</v>
       </c>
     </row>
-    <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>183</v>
       </c>
@@ -4204,7 +4311,7 @@
         <v>330</v>
       </c>
     </row>
-    <row ht="21" r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>184</v>
       </c>
@@ -4219,7 +4326,7 @@
         <v>331</v>
       </c>
     </row>
-    <row ht="21" r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>185</v>
       </c>
@@ -4234,7 +4341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="33" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>186</v>
       </c>
@@ -4248,7 +4355,7 @@
         <v>205</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="34" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>187</v>
       </c>
@@ -4262,7 +4369,7 @@
         <v>206</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="35" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>188</v>
       </c>
@@ -4276,7 +4383,7 @@
         <v>206</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="36" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>189</v>
       </c>
@@ -4290,7 +4397,7 @@
         <v>207</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="37" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>341</v>
       </c>
@@ -4305,7 +4412,7 @@
         <v>207</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="38" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>342</v>
       </c>
@@ -4320,7 +4427,7 @@
         <v>175</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="39" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>343</v>
       </c>
@@ -4334,7 +4441,7 @@
         <v>175</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="40" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>344</v>
       </c>
@@ -4348,7 +4455,7 @@
         <v>335</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="41" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>345</v>
       </c>
@@ -4362,7 +4469,7 @@
         <v>208</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="42" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>346</v>
       </c>
@@ -4376,7 +4483,7 @@
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="43" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>347</v>
       </c>
@@ -4390,7 +4497,7 @@
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="44" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>348</v>
       </c>
@@ -4405,7 +4512,7 @@
         <v>180</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="45" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>349</v>
       </c>
@@ -4419,7 +4526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="46" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>350</v>
       </c>
@@ -4434,7 +4541,7 @@
         <v>181</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="47" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>351</v>
       </c>
@@ -4451,7 +4558,7 @@
         <v>230</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="48" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>354</v>
       </c>
@@ -4471,13 +4578,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{0B496968-09E8-A148-AF11-39A63A715C19}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{0B496968-09E8-A148-AF11-39A63A715C19}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFD83E70-D884-5F47-8AC6-350B03286A7E}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4490,8 +4597,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CBE7D8-2A9B-4845-B1BD-72556917A96E}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
@@ -4499,13 +4606,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -4522,7 +4629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -4536,7 +4643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4553,7 +4660,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -4570,7 +4677,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -4587,7 +4694,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -4604,7 +4711,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -4619,7 +4726,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -4633,7 +4740,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4650,7 +4757,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -4667,7 +4774,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
@@ -4682,7 +4789,7 @@
         <v>143</v>
       </c>
     </row>
-    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -4697,7 +4804,7 @@
         <v>144</v>
       </c>
     </row>
-    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -4712,7 +4819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -4729,7 +4836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -4744,7 +4851,7 @@
         <v>210</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -4759,7 +4866,7 @@
         <v>211</v>
       </c>
     </row>
-    <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -4774,7 +4881,7 @@
         <v>212</v>
       </c>
     </row>
-    <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -4789,7 +4896,7 @@
         <v>202</v>
       </c>
     </row>
-    <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4804,7 +4911,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -4819,7 +4926,7 @@
         <v>214</v>
       </c>
     </row>
-    <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
@@ -4834,7 +4941,7 @@
         <v>215</v>
       </c>
     </row>
-    <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
@@ -4849,7 +4956,7 @@
         <v>150</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="23" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
@@ -4866,7 +4973,7 @@
         <v>231</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="24" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
@@ -4883,7 +4990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
@@ -4897,7 +5004,7 @@
         <v>216</v>
       </c>
     </row>
-    <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
@@ -4911,7 +5018,7 @@
         <v>217</v>
       </c>
     </row>
-    <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
@@ -4925,7 +5032,7 @@
         <v>218</v>
       </c>
     </row>
-    <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
@@ -4940,7 +5047,7 @@
         <v>198</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="29" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>182</v>
       </c>
@@ -4957,7 +5064,7 @@
         <v>232</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="30" s="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>183</v>
       </c>
@@ -4977,13 +5084,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{0FEFF791-E541-0545-B874-553631242F7E}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3822833E-B87C-1B43-9441-A6767BBD95ED}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -4996,22 +5103,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -5028,7 +5135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -5042,7 +5149,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +5166,7 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -5076,7 +5183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -5093,7 +5200,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -5110,7 +5217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -5125,7 +5232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -5139,7 +5246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -5156,7 +5263,7 @@
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -5173,7 +5280,7 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -5188,7 +5295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -5202,7 +5309,7 @@
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -5217,7 +5324,7 @@
         <v>220</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -5234,7 +5341,7 @@
         <v>225</v>
       </c>
     </row>
-    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -5251,7 +5358,7 @@
         <v>226</v>
       </c>
     </row>
-    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -5268,7 +5375,7 @@
         <v>227</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -5283,7 +5390,7 @@
         <v>229</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -5298,7 +5405,7 @@
         <v>234</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -5315,7 +5422,7 @@
         <v>233</v>
       </c>
     </row>
-    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -5335,13 +5442,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -5351,4 +5458,412 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akin.adebayo1/Documents/GitHub/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5968A0-2967-4040-A868-EB11E253F4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8A10D-3434-8945-8C6E-B9B0B0A6A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -1229,9 +1229,6 @@
     <t>To enter random text [Format: Automation+random letters (5) ]</t>
   </si>
   <si>
-    <t>TC005-OrgAdminAddUser</t>
-  </si>
-  <si>
     <t>To verify that org Admin can add an Org user</t>
   </si>
   <si>
@@ -1326,6 +1323,9 @@
   </si>
   <si>
     <t>elm_email_instruction_sent</t>
+  </si>
+  <si>
+    <t>TC005_OrgAdminAddUser</t>
   </si>
 </sst>
 </file>
@@ -2163,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2214,9 +2214,7 @@
       <c r="C3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -2273,11 +2271,14 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>359</v>
+      <c r="C8" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2286,6 +2287,7 @@
     <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
     <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
     <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
+    <hyperlink ref="A8" location="'TC005-OrgAdminAddUser'!A1" display="TC005_OrgAdminAddUser" xr:uid="{0E1371B9-50E8-E84B-A5E0-410B089B4181}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5464,8 +5466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5554,7 +5556,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -5571,7 +5573,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -5645,13 +5647,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5659,14 +5661,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5674,27 +5676,27 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>366</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5702,13 +5704,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>371</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5716,13 +5718,13 @@
         <v>91</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5730,16 +5732,16 @@
         <v>93</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>376</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5747,7 +5749,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>36</v>
@@ -5756,7 +5758,7 @@
         <v>256</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5764,16 +5766,16 @@
         <v>95</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" t="s">
         <v>381</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="14" t="s">
         <v>382</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5781,13 +5783,13 @@
         <v>96</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5795,13 +5797,13 @@
         <v>97</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>386</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5809,13 +5811,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5830,7 +5832,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5857,10 +5859,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akin.adebayo1/Documents/GitHub/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8A10D-3434-8945-8C6E-B9B0B0A6A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39E50C-66AB-6449-B875-1315F7DFA009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akin.adebayo1/Documents/GitHub/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39E50C-66AB-6449-B875-1315F7DFA009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559D70B9-5A02-424D-BED8-48B6B16B60EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
     <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
     <sheet name="TC005-OrgAdminAddUser" sheetId="22" r:id="rId9"/>
+    <sheet name="TC006-OrgAdminEnable_DisableMFA" sheetId="23" r:id="rId10"/>
+    <sheet name="TC007-OrgAdminDeleteOrgUSer" sheetId="24" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="416">
   <si>
     <t>TS_02</t>
   </si>
@@ -1326,6 +1328,81 @@
   </si>
   <si>
     <t>TC005_OrgAdminAddUser</t>
+  </si>
+  <si>
+    <t>TC006-OrgAdminEnable_DisableMFA</t>
+  </si>
+  <si>
+    <t>TC007-OrgAdminDeleteOrgUSer</t>
+  </si>
+  <si>
+    <t>Verify Org Admin can enable and also disable the additional security(MFA) for Org user</t>
+  </si>
+  <si>
+    <t>To verify that org Admin can delete an Org user</t>
+  </si>
+  <si>
+    <t>Enter the user's email address registered previously</t>
+  </si>
+  <si>
+    <t>txt.searchForUser</t>
+  </si>
+  <si>
+    <t>Click the search button</t>
+  </si>
+  <si>
+    <t>elm_searchButton</t>
+  </si>
+  <si>
+    <t>Click on the user in the search result list</t>
+  </si>
+  <si>
+    <t>Wait for Edit your users account page</t>
+  </si>
+  <si>
+    <t>elm_editUseraccount_header</t>
+  </si>
+  <si>
+    <t>Select Additonal Security using dig device checkbox</t>
+  </si>
+  <si>
+    <t>chk_additional_sec_using_digDevice</t>
+  </si>
+  <si>
+    <t>elm_mfa_Changes_saved_successfully</t>
+  </si>
+  <si>
+    <t>Click the Return to manage user account page</t>
+  </si>
+  <si>
+    <t>elm_ReturnToManage_User_Account</t>
+  </si>
+  <si>
+    <t>elm_Changes_saved_successfully</t>
+  </si>
+  <si>
+    <t>Scroll to the bottom of the page</t>
+  </si>
+  <si>
+    <t>Click the Delete user link</t>
+  </si>
+  <si>
+    <t>lnk_delete_user</t>
+  </si>
+  <si>
+    <t>Wait for delete this user account page</t>
+  </si>
+  <si>
+    <t>elm_deleteUseraccount_header</t>
+  </si>
+  <si>
+    <t>Click Confirm and delete button</t>
+  </si>
+  <si>
+    <t>elm_confirm_delete_button</t>
+  </si>
+  <si>
+    <t>elm_Acct_deleted_successfully</t>
   </si>
 </sst>
 </file>
@@ -2159,12 +2236,877 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA5472-2B02-F049-85CB-88F3464A6385}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A7A141-B8CB-A644-A76C-157ED6699F5E}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2281,6 +3223,22 @@
         <v>241</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" location="TC001_AddDeleteContact!A1" display="TC001_AddDeleteContact" xr:uid="{495083B3-A086-144F-A4CB-0341CFDA339F}"/>
@@ -2288,6 +3246,8 @@
     <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
     <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
     <hyperlink ref="A8" location="'TC005-OrgAdminAddUser'!A1" display="TC005_OrgAdminAddUser" xr:uid="{0E1371B9-50E8-E84B-A5E0-410B089B4181}"/>
+    <hyperlink ref="A9" location="'TC006-OrgAdminEnable_DisableMFA'!A1" display="TC006-OrgAdminEnable_DisableMFA" xr:uid="{E962CC8B-A86A-454B-AE90-36F79CBB608F}"/>
+    <hyperlink ref="A10" location="'TC007-OrgAdminDeleteOrgUSer'!A1" display="TC007-OrgAdminDeleteOrgUSer" xr:uid="{FE796359-D1BA-7C4A-A0A2-F194299D45C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5466,8 +6426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akin.adebayo1/Documents/GitHub/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559D70B9-5A02-424D-BED8-48B6B16B60EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDBC7E2-5FA8-D442-8DCD-5843790FE920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="417">
   <si>
     <t>TS_02</t>
   </si>
@@ -1403,6 +1403,9 @@
   </si>
   <si>
     <t>elm_Acct_deleted_successfully</t>
+  </si>
+  <si>
+    <t>Wait for email checkbox to be clickable</t>
   </si>
 </sst>
 </file>
@@ -2739,7 +2742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A7A141-B8CB-A644-A76C-157ED6699F5E}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -4234,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4532,13 +4535,13 @@
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>100</v>
+      <c r="B19" s="14" t="s">
+        <v>416</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="13" t="s">
         <v>118</v>
       </c>
@@ -4547,28 +4550,26 @@
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>306</v>
+      <c r="B20" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>101</v>
+      <c r="B21" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>119</v>
@@ -4579,117 +4580,119 @@
         <v>153</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="12"/>
+        <v>258</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="E22" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>121</v>
+      <c r="B23" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>156</v>
+      <c r="B24" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>114</v>
+      <c r="B25" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>158</v>
+      <c r="B26" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
-        <v>159</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>308</v>
+      <c r="B27" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="13" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>160</v>
+      <c r="B28" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>309</v>
+      <c r="B29" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="E29" s="14" t="s">
-        <v>164</v>
+      <c r="E29" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4697,14 +4700,14 @@
         <v>183</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="14" t="s">
-        <v>318</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4712,13 +4715,14 @@
         <v>184</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="14" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4726,13 +4730,13 @@
         <v>185</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>17</v>
+        <v>163</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4740,16 +4744,13 @@
         <v>186</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>201</v>
+        <v>17</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4757,15 +4758,32 @@
         <v>187</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4782,7 +4800,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C21</xm:sqref>
+          <xm:sqref>C22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4794,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDBC7E2-5FA8-D442-8DCD-5843790FE920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07DE5D-0D26-D643-886C-D36C969F6962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="423">
   <si>
     <t>TS_02</t>
   </si>
@@ -1405,7 +1405,25 @@
     <t>elm_Acct_deleted_successfully</t>
   </si>
   <si>
-    <t>Wait for email checkbox to be clickable</t>
+    <t>Highlight select country option</t>
+  </si>
+  <si>
+    <t>Enter country name</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>txt_countryInput</t>
+  </si>
+  <si>
+    <t>TS_48</t>
+  </si>
+  <si>
+    <t>TS_49</t>
+  </si>
+  <si>
+    <t>Wait for email checkbox</t>
   </si>
 </sst>
 </file>
@@ -4237,10 +4255,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4507,26 +4525,25 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>117</v>
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>99</v>
+      <c r="B18" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="16"/>
+        <v>17</v>
+      </c>
       <c r="E18" s="13" t="s">
         <v>117</v>
       </c>
@@ -4535,28 +4552,28 @@
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>416</v>
+      <c r="B19" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>100</v>
+      <c r="B20" s="14" t="s">
+        <v>422</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="16"/>
       <c r="E20" s="13" t="s">
         <v>118</v>
       </c>
@@ -4565,28 +4582,26 @@
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>306</v>
+      <c r="B21" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>101</v>
+      <c r="B22" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>119</v>
@@ -4597,117 +4612,119 @@
         <v>154</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="12"/>
+        <v>258</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="E23" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>121</v>
+      <c r="B24" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>156</v>
+      <c r="B25" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>114</v>
+      <c r="B26" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>158</v>
+      <c r="B27" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13" t="s">
-        <v>159</v>
+        <v>17</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>308</v>
+      <c r="B28" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>160</v>
+      <c r="B29" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>309</v>
+      <c r="B30" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="14" t="s">
-        <v>164</v>
+      <c r="E30" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4715,14 +4732,14 @@
         <v>184</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="14" t="s">
-        <v>318</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4730,13 +4747,14 @@
         <v>185</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="12"/>
       <c r="E32" s="14" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4744,13 +4762,13 @@
         <v>186</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>17</v>
+        <v>163</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,16 +4776,13 @@
         <v>187</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>201</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4775,15 +4790,32 @@
         <v>188</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4800,7 +4832,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C22</xm:sqref>
+          <xm:sqref>C23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4810,10 +4842,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5129,10 +5161,10 @@
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>321</v>
+        <v>416</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="20" t="s">
@@ -5144,14 +5176,14 @@
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="20" t="s">
-        <v>323</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5159,14 +5191,16 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>418</v>
+      </c>
       <c r="E22" s="20" t="s">
-        <v>204</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5174,14 +5208,14 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="D23" s="22"/>
       <c r="E23" s="20" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5189,14 +5223,14 @@
         <v>155</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="20" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5204,10 +5238,10 @@
         <v>162</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="20" t="s">
@@ -5219,14 +5253,14 @@
         <v>165</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="20" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5234,14 +5268,14 @@
         <v>166</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5249,14 +5283,14 @@
         <v>167</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="21"/>
       <c r="E28" s="20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5264,14 +5298,14 @@
         <v>182</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="23"/>
+        <v>327</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="E29" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5279,16 +5313,14 @@
         <v>183</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>260</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="22"/>
       <c r="E30" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5296,71 +5328,75 @@
         <v>184</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="21"/>
+        <v>171</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="23"/>
       <c r="E31" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>140</v>
+      <c r="B32" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D33" s="21"/>
+      <c r="E33" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>332</v>
+      <c r="B34" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>206</v>
+        <v>17</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>173</v>
+      <c r="B35" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5368,13 +5404,13 @@
         <v>189</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5382,14 +5418,13 @@
         <v>341</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5397,42 +5432,43 @@
         <v>342</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>343</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>11</v>
       </c>
+      <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>336</v>
+      <c r="B40" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5440,13 +5476,13 @@
         <v>345</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5454,42 +5490,41 @@
         <v>346</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>347</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>348</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="14"/>
+        <v>17</v>
+      </c>
       <c r="E44" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5497,13 +5532,13 @@
         <v>349</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5511,14 +5546,14 @@
         <v>350</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5526,32 +5561,61 @@
         <v>351</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>230</v>
+        <v>179</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E50" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5568,7 +5632,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C15 C30:C48 C17:C27</xm:sqref>
+          <xm:sqref>C11 C15 C32:C50 C17:C29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07DE5D-0D26-D643-886C-D36C969F6962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DC2FB1-1126-F34F-842B-06E8F767AB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="425">
   <si>
     <t>TS_02</t>
   </si>
@@ -1424,6 +1424,12 @@
   </si>
   <si>
     <t>Wait for email checkbox</t>
+  </si>
+  <si>
+    <t>IsCheckboxSelected</t>
+  </si>
+  <si>
+    <t>To check a checkbox is selected or not. Pass 'data' as 'True' or 'false'</t>
   </si>
 </sst>
 </file>
@@ -1967,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2249,6 +2255,14 @@
       </c>
       <c r="B34" s="7" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4257,7 +4271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DC2FB1-1126-F34F-842B-06E8F767AB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81669459-DB2D-6B4C-A039-C3219F96401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="429">
   <si>
     <t>TS_02</t>
   </si>
@@ -1430,6 +1430,18 @@
   </si>
   <si>
     <t>To check a checkbox is selected or not. Pass 'data' as 'True' or 'false'</t>
+  </si>
+  <si>
+    <t>Wait for country dropdown input</t>
+  </si>
+  <si>
+    <t>Highlight country dropdown input</t>
+  </si>
+  <si>
+    <t>TS_50</t>
+  </si>
+  <si>
+    <t>TS_51</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -3141,7 +3153,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4856,10 +4868,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5205,14 +5217,12 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>418</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D22" s="22"/>
       <c r="E22" s="20" t="s">
         <v>419</v>
       </c>
@@ -5222,14 +5232,14 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="20" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5237,14 +5247,16 @@
         <v>155</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>418</v>
+      </c>
       <c r="E24" s="20" t="s">
-        <v>204</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5252,14 +5264,14 @@
         <v>162</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="D25" s="22"/>
       <c r="E25" s="20" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5267,14 +5279,14 @@
         <v>165</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="20" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5282,10 +5294,10 @@
         <v>166</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20" t="s">
@@ -5297,14 +5309,14 @@
         <v>167</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5312,14 +5324,14 @@
         <v>182</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5327,14 +5339,14 @@
         <v>183</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="21"/>
       <c r="E30" s="20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5342,14 +5354,14 @@
         <v>184</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D31" s="23"/>
+        <v>327</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5357,16 +5369,14 @@
         <v>185</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>260</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="22"/>
       <c r="E32" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5374,71 +5384,75 @@
         <v>186</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="21"/>
+        <v>171</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="23"/>
       <c r="E33" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>140</v>
+      <c r="B34" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>188</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D35" s="21"/>
+      <c r="E35" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>332</v>
+      <c r="B36" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>206</v>
+        <v>17</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>173</v>
+      <c r="B37" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5446,13 +5460,13 @@
         <v>342</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5460,14 +5474,13 @@
         <v>343</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5475,42 +5488,43 @@
         <v>344</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>345</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>11</v>
       </c>
+      <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>336</v>
+      <c r="B42" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5518,13 +5532,13 @@
         <v>347</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5532,42 +5546,41 @@
         <v>348</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>350</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="14"/>
+        <v>17</v>
+      </c>
       <c r="E46" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5575,13 +5588,13 @@
         <v>351</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5589,14 +5602,14 @@
         <v>354</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5604,32 +5617,61 @@
         <v>420</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>230</v>
+        <v>179</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B52" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E52" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5646,7 +5688,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C15 C32:C50 C17:C29</xm:sqref>
+          <xm:sqref>C11 C15 C34:C52 C17:C31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81669459-DB2D-6B4C-A039-C3219F96401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F22CDFD-1EFE-D849-B2EC-32D38E456677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="430">
   <si>
     <t>TS_02</t>
   </si>
@@ -1411,9 +1411,6 @@
     <t>Enter country name</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>txt_countryInput</t>
   </si>
   <si>
@@ -1442,6 +1439,12 @@
   </si>
   <si>
     <t>TS_51</t>
+  </si>
+  <si>
+    <t>United</t>
+  </si>
+  <si>
+    <t>Scroll to create contact</t>
   </si>
 </sst>
 </file>
@@ -2271,10 +2274,10 @@
     </row>
     <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4281,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4594,7 +4597,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
@@ -4655,12 +4658,11 @@
         <v>155</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>124</v>
+        <v>429</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>23</v>
+      </c>
       <c r="E24" s="13" t="s">
         <v>120</v>
       </c>
@@ -4669,103 +4671,103 @@
       <c r="A25" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>121</v>
+      <c r="B25" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>156</v>
+      <c r="B26" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>114</v>
+      <c r="B27" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>158</v>
+      <c r="B28" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13" t="s">
-        <v>159</v>
+        <v>17</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>308</v>
+      <c r="B29" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>160</v>
+      <c r="B30" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="13" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>309</v>
+      <c r="B31" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D31" s="12"/>
-      <c r="E31" s="14" t="s">
-        <v>164</v>
+      <c r="E31" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,14 +4775,14 @@
         <v>185</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="14" t="s">
-        <v>318</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4788,13 +4790,14 @@
         <v>186</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="12"/>
       <c r="E33" s="14" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4802,13 +4805,13 @@
         <v>187</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>17</v>
+        <v>163</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4816,16 +4819,13 @@
         <v>188</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>201</v>
+        <v>17</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4833,15 +4833,32 @@
         <v>189</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4858,7 +4875,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C23</xm:sqref>
+          <xm:sqref>C23:C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4870,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5217,14 +5234,14 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5232,14 +5249,14 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5253,10 +5270,10 @@
         <v>36</v>
       </c>
       <c r="D24" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>418</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5614,7 +5631,7 @@
     </row>
     <row r="49" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>179</v>
@@ -5628,7 +5645,7 @@
     </row>
     <row r="50" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>339</v>
@@ -5643,7 +5660,7 @@
     </row>
     <row r="51" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>104</v>
@@ -5660,7 +5677,7 @@
     </row>
     <row r="52" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>107</v>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F22CDFD-1EFE-D849-B2EC-32D38E456677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CFAE91-4856-9B45-80FA-2AD0D294D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="435">
   <si>
     <t>TS_02</t>
   </si>
@@ -1445,6 +1445,21 @@
   </si>
   <si>
     <t>Scroll to create contact</t>
+  </si>
+  <si>
+    <t>Highlight email checkbox</t>
+  </si>
+  <si>
+    <t>TS_52</t>
+  </si>
+  <si>
+    <t>TS_53</t>
+  </si>
+  <si>
+    <t>TS_54</t>
+  </si>
+  <si>
+    <t>TS_55</t>
   </si>
 </sst>
 </file>
@@ -4284,10 +4299,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4611,13 +4626,13 @@
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>100</v>
+      <c r="B21" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="D21" s="16"/>
       <c r="E21" s="13" t="s">
         <v>118</v>
       </c>
@@ -4626,28 +4641,26 @@
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>306</v>
+      <c r="B22" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>101</v>
+      <c r="B23" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>119</v>
@@ -4658,13 +4671,16 @@
         <v>155</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>429</v>
+        <v>101</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>23</v>
+        <v>258</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4672,12 +4688,11 @@
         <v>162</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>124</v>
+        <v>429</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="12"/>
+        <v>23</v>
+      </c>
       <c r="E25" s="13" t="s">
         <v>120</v>
       </c>
@@ -4686,103 +4701,103 @@
       <c r="A26" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>121</v>
+      <c r="B26" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>156</v>
+      <c r="B27" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>114</v>
+      <c r="B28" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>158</v>
+      <c r="B29" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13" t="s">
-        <v>159</v>
+        <v>17</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>308</v>
+      <c r="B30" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="13" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>160</v>
+      <c r="B31" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="13" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>309</v>
+      <c r="B32" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="14" t="s">
-        <v>164</v>
+      <c r="E32" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4790,14 +4805,14 @@
         <v>186</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="14" t="s">
-        <v>318</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4805,13 +4820,14 @@
         <v>187</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="12"/>
       <c r="E34" s="14" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4819,13 +4835,13 @@
         <v>188</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>17</v>
+        <v>163</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4833,16 +4849,13 @@
         <v>189</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>201</v>
+        <v>17</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4850,15 +4863,32 @@
         <v>341</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4875,7 +4905,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C23:C24</xm:sqref>
+          <xm:sqref>C24:C25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4885,10 +4915,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5385,15 +5415,15 @@
       <c r="A32" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="20" t="s">
-        <v>328</v>
+      <c r="B32" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="14" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5401,132 +5431,135 @@
         <v>186</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D33" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="22"/>
       <c r="E33" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>260</v>
-      </c>
+      <c r="B34" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="22"/>
       <c r="E34" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>124</v>
+      <c r="B35" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="D35" s="22"/>
       <c r="E35" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>342</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>332</v>
+        <v>101</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>173</v>
+      <c r="B39" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="D39" s="21"/>
+      <c r="E39" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>333</v>
+      <c r="B40" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>207</v>
+        <v>17</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>174</v>
+      <c r="B41" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5534,128 +5567,127 @@
         <v>346</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>347</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>336</v>
+      <c r="B44" s="20" t="s">
+        <v>333</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>349</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>11</v>
       </c>
+      <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>337</v>
+      <c r="B46" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>351</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>354</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="14"/>
+        <v>17</v>
+      </c>
       <c r="E48" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>419</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>420</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
-        <v>181</v>
+      <c r="E50" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5663,32 +5695,90 @@
         <v>426</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>230</v>
+        <v>177</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E56" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5705,7 +5795,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C15 C34:C52 C17:C31</xm:sqref>
+          <xm:sqref>C11 C15 C38:C56 C35 C17:C31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CFAE91-4856-9B45-80FA-2AD0D294D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B6C51E-0AF8-EA40-B697-C9A619C84A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="437">
   <si>
     <t>TS_02</t>
   </si>
@@ -1460,6 +1460,12 @@
   </si>
   <si>
     <t>TS_55</t>
+  </si>
+  <si>
+    <t>TS_56</t>
+  </si>
+  <si>
+    <t>Wait for country dropdown clickable</t>
   </si>
 </sst>
 </file>
@@ -4915,10 +4921,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5249,10 +5255,10 @@
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>321</v>
+        <v>436</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="20" t="s">
@@ -5264,14 +5270,14 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>424</v>
+        <v>321</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="20" t="s">
-        <v>418</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5279,10 +5285,10 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="20" t="s">
@@ -5294,14 +5300,12 @@
         <v>155</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>428</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D24" s="22"/>
       <c r="E24" s="20" t="s">
         <v>418</v>
       </c>
@@ -5311,14 +5315,16 @@
         <v>162</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>428</v>
+      </c>
       <c r="E25" s="20" t="s">
-        <v>323</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5326,14 +5332,14 @@
         <v>165</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="20" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5341,14 +5347,14 @@
         <v>166</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20" t="s">
-        <v>355</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5356,14 +5362,14 @@
         <v>167</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5371,14 +5377,14 @@
         <v>182</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5386,14 +5392,14 @@
         <v>183</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="20" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5401,59 +5407,59 @@
         <v>184</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>18</v>
+      <c r="B32" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="14" t="s">
-        <v>313</v>
+      <c r="E32" s="20" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="20" t="s">
-        <v>328</v>
+      <c r="B33" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="14" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>17</v>
+      <c r="B34" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5461,10 +5467,10 @@
         <v>188</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>12</v>
+        <v>421</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="20" t="s">
@@ -5475,13 +5481,13 @@
       <c r="A36" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D36" s="23"/>
+      <c r="B36" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="22"/>
       <c r="E36" s="20" t="s">
         <v>329</v>
       </c>
@@ -5490,30 +5496,28 @@
       <c r="A37" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>306</v>
+      <c r="B37" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>260</v>
-      </c>
+      <c r="B38" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="23"/>
       <c r="E38" s="20" t="s">
         <v>330</v>
       </c>
@@ -5523,43 +5527,46 @@
         <v>343</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="21"/>
+        <v>258</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>260</v>
+      </c>
       <c r="E39" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>140</v>
+      <c r="B40" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>172</v>
+      <c r="B41" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5567,24 +5574,24 @@
         <v>346</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>173</v>
+      <c r="B43" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>206</v>
@@ -5594,27 +5601,26 @@
       <c r="A44" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>333</v>
+      <c r="B44" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>174</v>
+      <c r="B45" s="20" t="s">
+        <v>333</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="14"/>
+        <v>19</v>
+      </c>
       <c r="E45" s="14" t="s">
         <v>207</v>
       </c>
@@ -5623,27 +5629,28 @@
       <c r="A46" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>334</v>
+      <c r="B46" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>200</v>
+      <c r="B47" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
         <v>175</v>
       </c>
@@ -5652,53 +5659,53 @@
       <c r="A48" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>336</v>
+      <c r="B48" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>176</v>
+      <c r="B49" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>208</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>337</v>
+      <c r="B50" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>177</v>
+      <c r="B51" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>178</v>
@@ -5708,27 +5715,27 @@
       <c r="A52" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>338</v>
+      <c r="B52" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="14"/>
+        <v>11</v>
+      </c>
       <c r="E52" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>179</v>
+      <c r="B53" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D53" s="14"/>
       <c r="E53" s="14" t="s">
         <v>180</v>
       </c>
@@ -5737,32 +5744,29 @@
       <c r="A54" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>339</v>
+      <c r="B54" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19" t="s">
-        <v>181</v>
+        <v>11</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>230</v>
+      <c r="B55" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -5770,15 +5774,32 @@
         <v>434</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E57" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5795,7 +5816,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C15 C38:C56 C35 C17:C31</xm:sqref>
+          <xm:sqref>C11 C15 C39:C57 C36 C17:C32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B6C51E-0AF8-EA40-B697-C9A619C84A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB23EC64-267B-3248-862F-8F88BC9240CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="439">
   <si>
     <t>TS_02</t>
   </si>
@@ -1466,6 +1466,12 @@
   </si>
   <si>
     <t>Wait for country dropdown clickable</t>
+  </si>
+  <si>
+    <t>TakePercySnapshot</t>
+  </si>
+  <si>
+    <t>To take snapshot in percy visual testing. Use 'data' as pagename</t>
   </si>
 </sst>
 </file>
@@ -2009,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2299,6 +2305,14 @@
       </c>
       <c r="B35" s="7" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4923,7 +4937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB23EC64-267B-3248-862F-8F88BC9240CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C44C829-0B62-434D-8990-54B403F497EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
     <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
     <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
-    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId8"/>
-    <sheet name="TC005-OrgAdminAddUser" sheetId="22" r:id="rId9"/>
-    <sheet name="TC006-OrgAdminEnable_DisableMFA" sheetId="23" r:id="rId10"/>
-    <sheet name="TC007-OrgAdminDeleteOrgUSer" sheetId="24" r:id="rId11"/>
+    <sheet name="TC004_OrgAdminCreateOrgContact" sheetId="25" r:id="rId8"/>
+    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId9"/>
+    <sheet name="TC005-OrgAdminAddUser" sheetId="22" r:id="rId10"/>
+    <sheet name="TC006-OrgAdminEnable_DisableMFA" sheetId="23" r:id="rId11"/>
+    <sheet name="TC007-OrgAdminDeleteOrgUSer" sheetId="24" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="451">
   <si>
     <t>TS_02</t>
   </si>
@@ -608,9 +609,6 @@
     <t>lnk_return_link</t>
   </si>
   <si>
-    <t>Click edit contact</t>
-  </si>
-  <si>
     <t>elm_editContact</t>
   </si>
   <si>
@@ -849,9 +847,6 @@
   </si>
   <si>
     <t>TC003_AddDeleteGroup</t>
-  </si>
-  <si>
-    <t>TC004_ResetPassword</t>
   </si>
   <si>
     <t>To verify an org user can access the manage my account screen and add/delete a contact</t>
@@ -1472,6 +1467,48 @@
   </si>
   <si>
     <t>To take snapshot in percy visual testing. Use 'data' as pagename</t>
+  </si>
+  <si>
+    <t>TC004_OrgAdminCreateOrgContact</t>
+  </si>
+  <si>
+    <t>Wait for manage organisation link</t>
+  </si>
+  <si>
+    <t>Wait for absense of overlay</t>
+  </si>
+  <si>
+    <t>Click on manage my organisation</t>
+  </si>
+  <si>
+    <t>Wait for manage organisation header</t>
+  </si>
+  <si>
+    <t>elm_addOrgContact</t>
+  </si>
+  <si>
+    <t>Scroll to add org contact button</t>
+  </si>
+  <si>
+    <t>Click on add org contact</t>
+  </si>
+  <si>
+    <t>elm_orgContactAdded</t>
+  </si>
+  <si>
+    <t>ClickWithParameter</t>
+  </si>
+  <si>
+    <t>To click on an element after replacing parameter. It will replace '#' in xpath with value in 'data' coulumn</t>
+  </si>
+  <si>
+    <t>Click on edit link</t>
+  </si>
+  <si>
+    <t>To verify org admin can add/delete org contact</t>
+  </si>
+  <si>
+    <t>You have successfully deleted the contact details.</t>
   </si>
 </sst>
 </file>
@@ -2015,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2277,42 +2314,50 @@
     </row>
     <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2322,20 +2367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA5472-2B02-F049-85CB-88F3464A6385}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -2415,7 +2460,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -2432,7 +2477,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -2506,13 +2551,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2520,14 +2565,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2535,30 +2580,27 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>89</v>
+        <v>365</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2566,253 +2608,165 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>373</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>254</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>121</v>
+        <v>377</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="14"/>
+        <v>378</v>
+      </c>
+      <c r="D19" t="s">
+        <v>379</v>
+      </c>
       <c r="E19" s="14" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="14"/>
+        <v>11</v>
+      </c>
       <c r="E21" s="14" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>363</v>
+        <v>121</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>395</v>
+        <v>104</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>396</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>397</v>
+        <v>107</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2821,20 +2775,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A7A141-B8CB-A644-A76C-157ED6699F5E}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA5472-2B02-F049-85CB-88F3464A6385}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -2914,7 +2868,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -2931,7 +2885,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -3005,13 +2959,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3019,14 +2973,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3034,16 +2988,16 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3051,13 +3005,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3065,7 +3019,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
@@ -3077,13 +3031,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3091,23 +3045,27 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="E17" s="14"/>
+        <v>400</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3115,13 +3073,14 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>411</v>
+        <v>121</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3129,28 +3088,27 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>414</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3158,19 +3116,514 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A7A141-B8CB-A644-A76C-157ED6699F5E}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -3178,7 +3631,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3190,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3219,110 +3672,127 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3"/>
+        <v>240</v>
+      </c>
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>394</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3330,9 +3800,10 @@
     <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
     <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
     <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
-    <hyperlink ref="A8" location="'TC005-OrgAdminAddUser'!A1" display="TC005_OrgAdminAddUser" xr:uid="{0E1371B9-50E8-E84B-A5E0-410B089B4181}"/>
-    <hyperlink ref="A9" location="'TC006-OrgAdminEnable_DisableMFA'!A1" display="TC006-OrgAdminEnable_DisableMFA" xr:uid="{E962CC8B-A86A-454B-AE90-36F79CBB608F}"/>
-    <hyperlink ref="A10" location="'TC007-OrgAdminDeleteOrgUSer'!A1" display="TC007-OrgAdminDeleteOrgUSer" xr:uid="{FE796359-D1BA-7C4A-A0A2-F194299D45C9}"/>
+    <hyperlink ref="A7" location="'TC005-OrgAdminAddUser'!A1" display="TC005_OrgAdminAddUser" xr:uid="{0E1371B9-50E8-E84B-A5E0-410B089B4181}"/>
+    <hyperlink ref="A8" location="'TC006-OrgAdminEnable_DisableMFA'!A1" display="TC006-OrgAdminEnable_DisableMFA" xr:uid="{E962CC8B-A86A-454B-AE90-36F79CBB608F}"/>
+    <hyperlink ref="A9" location="'TC007-OrgAdminDeleteOrgUSer'!A1" display="TC007-OrgAdminDeleteOrgUSer" xr:uid="{FE796359-D1BA-7C4A-A0A2-F194299D45C9}"/>
+    <hyperlink ref="A10" location="TC004_OrgAdminCreateOrgContact!A1" display="TC004_OrgAdminCreateOrgContact" xr:uid="{CF672290-71BE-E546-832A-3507B606ED7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3343,7 +3814,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3391,14 +3862,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3406,14 +3877,14 @@
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3421,14 +3892,14 @@
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3436,14 +3907,14 @@
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3451,14 +3922,14 @@
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3466,16 +3937,16 @@
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3483,16 +3954,16 @@
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3500,16 +3971,16 @@
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3517,14 +3988,14 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3532,13 +4003,13 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3546,14 +4017,14 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3561,13 +4032,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3575,13 +4046,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3589,14 +4060,14 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3604,13 +4075,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3618,13 +4089,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3632,14 +4103,14 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3647,13 +4118,13 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3661,13 +4132,13 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3675,14 +4146,14 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3690,13 +4161,13 @@
         <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3704,131 +4175,131 @@
         <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3853,7 +4324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D3352E-5FAD-A043-B815-800E1B99D5C6}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3902,14 +4373,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3917,14 +4388,14 @@
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3932,14 +4403,14 @@
         <v>74</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3947,14 +4418,14 @@
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3962,14 +4433,14 @@
         <v>76</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3977,16 +4448,16 @@
         <v>77</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3994,16 +4465,16 @@
         <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4011,16 +4482,16 @@
         <v>79</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4028,14 +4499,14 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4043,13 +4514,13 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4057,14 +4528,14 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4072,13 +4543,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4086,13 +4557,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4100,14 +4571,14 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4115,13 +4586,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4129,13 +4600,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4143,14 +4614,14 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4158,13 +4629,13 @@
         <v>154</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4172,131 +4643,131 @@
         <v>155</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4793,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B31" sqref="B31:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4378,7 +4849,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>106</v>
@@ -4412,7 +4883,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>108</v>
@@ -4475,7 +4946,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>123</v>
@@ -4532,13 +5003,13 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4546,7 +5017,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>23</v>
@@ -4560,7 +5031,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>19</v>
@@ -4589,13 +5060,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,7 +5074,7 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>17</v>
@@ -4620,7 +5091,7 @@
         <v>99</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="13" t="s">
@@ -4632,7 +5103,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
@@ -4647,7 +5118,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>12</v>
@@ -4665,7 +5136,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
@@ -4677,7 +5148,7 @@
         <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>17</v>
@@ -4694,10 +5165,10 @@
         <v>101</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>260</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>119</v>
@@ -4705,10 +5176,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
@@ -4719,7 +5190,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>124</v>
@@ -4734,7 +5205,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>121</v>
@@ -4748,7 +5219,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>156</v>
@@ -4763,7 +5234,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>114</v>
@@ -4777,96 +5248,98 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>121</v>
@@ -4875,12 +5348,12 @@
         <v>17</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>104</v>
@@ -4889,15 +5362,15 @@
         <v>39</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>107</v>
@@ -4906,10 +5379,10 @@
         <v>40</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4937,8 +5410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4990,7 +5463,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>106</v>
@@ -5024,7 +5497,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>108</v>
@@ -5087,7 +5560,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>123</v>
@@ -5145,14 +5618,14 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5160,14 +5633,14 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5182,7 +5655,7 @@
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5190,7 +5663,7 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>17</v>
@@ -5208,7 +5681,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="20" t="s">
@@ -5254,7 +5727,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>12</v>
@@ -5269,7 +5742,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>19</v>
@@ -5284,7 +5757,7 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>11</v>
@@ -5299,14 +5772,14 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5314,51 +5787,51 @@
         <v>155</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>139</v>
@@ -5368,42 +5841,42 @@
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>98</v>
@@ -5413,149 +5886,149 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>260</v>
-      </c>
       <c r="E39" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>124</v>
@@ -5565,12 +6038,12 @@
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>140</v>
@@ -5585,207 +6058,207 @@
     </row>
     <row r="42" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>104</v>
@@ -5794,15 +6267,15 @@
         <v>39</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>107</v>
@@ -5811,10 +6284,10 @@
         <v>40</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5843,7 +6316,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6058,7 +6531,7 @@
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6090,7 +6563,7 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6098,14 +6571,14 @@
         <v>93</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6113,14 +6586,14 @@
         <v>94</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6128,14 +6601,14 @@
         <v>95</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6143,14 +6616,14 @@
         <v>96</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6158,14 +6631,14 @@
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6173,14 +6646,14 @@
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6212,7 +6685,7 @@
         <v>151</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6226,7 +6699,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>150</v>
@@ -6234,49 +6707,49 @@
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>140</v>
@@ -6286,12 +6759,12 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>104</v>
@@ -6300,15 +6773,15 @@
         <v>39</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>107</v>
@@ -6317,10 +6790,10 @@
         <v>40</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6345,6 +6818,674 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2898620-9CC7-5647-A027-6B2B9A954795}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{690950E0-64B8-4543-BACE-F0E171E51449}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D458B2D9-C097-124F-9767-EF3131653226}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>C16 C25:C26 C32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -6556,14 +7697,14 @@
         <v>88</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6571,7 +7712,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>36</v>
@@ -6580,7 +7721,7 @@
         <v>83</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6588,16 +7729,16 @@
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6605,16 +7746,16 @@
         <v>93</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6622,14 +7763,14 @@
         <v>94</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6644,7 +7785,7 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6658,10 +7799,10 @@
         <v>39</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6675,10 +7816,10 @@
         <v>40</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6700,412 +7841,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="D19" t="s">
-        <v>381</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C44C829-0B62-434D-8990-54B403F497EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D7B829-66EA-9E49-9212-94A7F05F46D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="453">
   <si>
     <t>TS_02</t>
   </si>
@@ -1509,6 +1509,12 @@
   </si>
   <si>
     <t>You have successfully deleted the contact details.</t>
+  </si>
+  <si>
+    <t>Highlight country dropdown icon</t>
+  </si>
+  <si>
+    <t>TS_57</t>
   </si>
 </sst>
 </file>
@@ -3643,7 +3649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4792,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:E38"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5408,10 +5414,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5757,10 +5763,10 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>319</v>
+        <v>451</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="20" t="s">
@@ -5772,14 +5778,14 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>422</v>
+        <v>319</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="20" t="s">
-        <v>416</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5787,10 +5793,10 @@
         <v>155</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="20" t="s">
@@ -5802,14 +5808,12 @@
         <v>161</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>426</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D25" s="22"/>
       <c r="E25" s="20" t="s">
         <v>416</v>
       </c>
@@ -5819,14 +5823,16 @@
         <v>164</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>426</v>
+      </c>
       <c r="E26" s="20" t="s">
-        <v>321</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5834,14 +5840,14 @@
         <v>165</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>139</v>
+        <v>320</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="20" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5849,14 +5855,14 @@
         <v>166</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="20" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5864,14 +5870,14 @@
         <v>181</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5879,14 +5885,14 @@
         <v>182</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5894,14 +5900,14 @@
         <v>183</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5909,59 +5915,59 @@
         <v>184</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>18</v>
+      <c r="B33" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="21"/>
-      <c r="E33" s="14" t="s">
-        <v>311</v>
+      <c r="E33" s="20" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="20" t="s">
-        <v>326</v>
+      <c r="B34" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="14" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>17</v>
+      <c r="B35" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5969,10 +5975,10 @@
         <v>188</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>12</v>
+        <v>419</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="20" t="s">
@@ -5983,13 +5989,13 @@
       <c r="A37" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D37" s="23"/>
+      <c r="B37" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="22"/>
       <c r="E37" s="20" t="s">
         <v>327</v>
       </c>
@@ -5998,30 +6004,28 @@
       <c r="A38" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>304</v>
+      <c r="B38" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>258</v>
-      </c>
+      <c r="B39" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="23"/>
       <c r="E39" s="20" t="s">
         <v>328</v>
       </c>
@@ -6031,43 +6035,46 @@
         <v>342</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="21"/>
+        <v>256</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>258</v>
+      </c>
       <c r="E40" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>140</v>
+      <c r="B41" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>171</v>
+      <c r="B42" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>204</v>
+        <v>17</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6075,24 +6082,24 @@
         <v>345</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>330</v>
+        <v>171</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>172</v>
+      <c r="B44" s="20" t="s">
+        <v>330</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>205</v>
@@ -6102,27 +6109,26 @@
       <c r="A45" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>331</v>
+      <c r="B45" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>173</v>
+      <c r="B46" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="14"/>
+        <v>19</v>
+      </c>
       <c r="E46" s="14" t="s">
         <v>206</v>
       </c>
@@ -6131,27 +6137,28 @@
       <c r="A47" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>332</v>
+      <c r="B47" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>199</v>
+      <c r="B48" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
         <v>174</v>
       </c>
@@ -6160,53 +6167,53 @@
       <c r="A49" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>334</v>
+      <c r="B49" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>333</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>175</v>
+      <c r="B50" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>207</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>335</v>
+      <c r="B51" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>176</v>
+      <c r="B52" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>177</v>
@@ -6216,27 +6223,27 @@
       <c r="A53" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>336</v>
+      <c r="B53" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="14"/>
+        <v>11</v>
+      </c>
       <c r="E53" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>178</v>
+      <c r="B54" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
         <v>179</v>
       </c>
@@ -6245,32 +6252,29 @@
       <c r="A55" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>337</v>
+      <c r="B55" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19" t="s">
-        <v>180</v>
+        <v>11</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>229</v>
+      <c r="B56" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6278,15 +6282,32 @@
         <v>433</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D58" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E58" s="19" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6303,7 +6324,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C15 C39:C57 C36 C17:C32</xm:sqref>
+          <xm:sqref>C11 C15 C40:C58 C37 C17:C33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D7B829-66EA-9E49-9212-94A7F05F46D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC78ABAA-3B92-2843-8BAA-12844DC1AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="455">
   <si>
     <t>TS_02</t>
   </si>
@@ -1148,9 +1148,6 @@
     <t>elm_createsiteContact</t>
   </si>
   <si>
-    <t>Wait for edit site link</t>
-  </si>
-  <si>
     <t>Wait for delete site contact</t>
   </si>
   <si>
@@ -1515,6 +1512,15 @@
   </si>
   <si>
     <t>TS_57</t>
+  </si>
+  <si>
+    <t>TS_58</t>
+  </si>
+  <si>
+    <t>Wait for add site link</t>
+  </si>
+  <si>
+    <t>TS_59</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2337,7 @@
         <v>264</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.25">
@@ -2344,26 +2350,26 @@
     </row>
     <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2472,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -2483,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -2557,13 +2563,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2571,14 +2577,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2586,27 +2592,27 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>366</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2614,13 +2620,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2628,13 +2634,13 @@
         <v>91</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>370</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2642,16 +2648,16 @@
         <v>93</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2659,7 +2665,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>36</v>
@@ -2668,7 +2674,7 @@
         <v>254</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2676,16 +2682,16 @@
         <v>95</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" t="s">
         <v>378</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2693,13 +2699,13 @@
         <v>96</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>381</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2707,13 +2713,13 @@
         <v>97</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>383</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2721,13 +2727,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>385</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2742,7 +2748,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2769,10 +2775,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -2891,7 +2897,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -2965,13 +2971,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2979,14 +2985,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2994,16 +3000,16 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3011,13 +3017,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>395</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3025,7 +3031,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
@@ -3037,13 +3043,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3051,13 +3057,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3065,13 +3071,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>385</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3086,7 +3092,7 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3114,7 +3120,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3122,13 +3128,13 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3136,14 +3142,14 @@
         <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3151,16 +3157,16 @@
         <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3168,13 +3174,13 @@
         <v>161</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>395</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3182,7 +3188,7 @@
         <v>164</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>11</v>
@@ -3194,13 +3200,13 @@
         <v>165</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3208,13 +3214,13 @@
         <v>166</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3222,13 +3228,13 @@
         <v>181</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>385</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3243,7 +3249,7 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3271,7 +3277,7 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +3379,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -3390,7 +3396,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -3464,13 +3470,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3478,14 +3484,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3493,16 +3499,16 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3510,13 +3516,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>395</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3524,7 +3530,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
@@ -3536,13 +3542,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3550,7 +3556,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C17" s="14"/>
       <c r="E17" s="14"/>
@@ -3560,13 +3566,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>407</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3574,13 +3580,13 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>409</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3588,13 +3594,13 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>411</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3609,7 +3615,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3637,7 +3643,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3649,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3723,7 +3729,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>240</v>
@@ -3748,10 +3754,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>239</v>
@@ -3762,10 +3768,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>239</v>
@@ -3776,10 +3782,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>239</v>
@@ -3790,10 +3796,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>240</v>
@@ -4798,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5109,7 +5115,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
@@ -5124,7 +5130,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>12</v>
@@ -5185,7 +5191,7 @@
         <v>161</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
@@ -5257,10 +5263,10 @@
         <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>119</v>
@@ -5359,7 +5365,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>104</v>
@@ -5376,7 +5382,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>107</v>
@@ -5414,10 +5420,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5683,15 +5689,15 @@
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="20" t="s">
-        <v>135</v>
+      <c r="B17" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5699,16 +5705,14 @@
         <v>95</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="E18" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5716,16 +5720,16 @@
         <v>96</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5733,14 +5737,16 @@
         <v>97</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>414</v>
+        <v>133</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="E20" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5748,10 +5754,10 @@
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="20" t="s">
@@ -5763,10 +5769,10 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="20" t="s">
@@ -5778,10 +5784,10 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>319</v>
+        <v>450</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="20" t="s">
@@ -5793,14 +5799,14 @@
         <v>155</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>422</v>
+        <v>319</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="20" t="s">
-        <v>416</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5808,14 +5814,14 @@
         <v>161</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5823,16 +5829,14 @@
         <v>164</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="20" t="s">
         <v>415</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5840,14 +5844,16 @@
         <v>165</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>425</v>
+      </c>
       <c r="E27" s="20" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5855,14 +5861,14 @@
         <v>166</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>139</v>
+        <v>320</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="20" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5870,14 +5876,14 @@
         <v>181</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>322</v>
+        <v>139</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="20" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5885,14 +5891,14 @@
         <v>182</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5900,14 +5906,14 @@
         <v>183</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5915,14 +5921,14 @@
         <v>184</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5930,70 +5936,70 @@
         <v>185</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="20" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>18</v>
+      <c r="B34" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="14" t="s">
-        <v>311</v>
+      <c r="E34" s="20" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="20" t="s">
-        <v>326</v>
+      <c r="B35" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="14" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>17</v>
+      <c r="B36" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>12</v>
+        <v>418</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="20" t="s">
@@ -6002,312 +6008,345 @@
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D38" s="23"/>
+        <v>339</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="22"/>
       <c r="E38" s="20" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>304</v>
+        <v>340</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>258</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="23"/>
       <c r="E40" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="21"/>
+        <v>256</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>258</v>
+      </c>
       <c r="E41" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19" t="s">
+      <c r="C43" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>330</v>
+        <v>171</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>172</v>
+        <v>346</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>453</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>19</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="14"/>
+        <v>172</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="E47" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19" t="s">
-        <v>180</v>
+        <v>19</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>229</v>
+        <v>178</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E60" s="19" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6324,7 +6363,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C15 C40:C58 C37 C17:C33</xm:sqref>
+          <xm:sqref>C11 C15 C18:C34 C38 C48:C60 C41:C45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7023,7 +7062,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>19</v>
@@ -7037,7 +7076,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
@@ -7052,7 +7091,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>11</v>
@@ -7066,7 +7105,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>17</v>
@@ -7080,7 +7119,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>18</v>
@@ -7095,13 +7134,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7109,13 +7148,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7168,7 +7207,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>17</v>
@@ -7183,7 +7222,7 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>12</v>
@@ -7245,7 +7284,7 @@
         <v>164</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>23</v>
@@ -7282,7 +7321,7 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7305,7 +7344,7 @@
         <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>17</v>
@@ -7319,7 +7358,7 @@
         <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>18</v>
@@ -7334,14 +7373,14 @@
         <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7349,10 +7388,10 @@
         <v>185</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>119</v>
@@ -7408,7 +7447,7 @@
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>315</v>
@@ -7423,7 +7462,7 @@
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>162</v>
@@ -7438,7 +7477,7 @@
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>121</v>
@@ -7453,7 +7492,7 @@
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>104</v>
@@ -7462,7 +7501,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>200</v>
@@ -7470,7 +7509,7 @@
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>107</v>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC78ABAA-3B92-2843-8BAA-12844DC1AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2302BA7-C50D-C44F-ADA6-1E33800C98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="456">
   <si>
     <t>TS_02</t>
   </si>
@@ -1196,9 +1196,6 @@
     <t>TS_43</t>
   </si>
   <si>
-    <t>TS_44</t>
-  </si>
-  <si>
     <t>TS_45</t>
   </si>
   <si>
@@ -1517,10 +1514,16 @@
     <t>TS_58</t>
   </si>
   <si>
-    <t>Wait for add site link</t>
-  </si>
-  <si>
     <t>TS_59</t>
+  </si>
+  <si>
+    <t>elm_contactHeader</t>
+  </si>
+  <si>
+    <t>Wait for add contact button in edit site page</t>
+  </si>
+  <si>
+    <t>TS_60</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2340,7 @@
         <v>264</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.25">
@@ -2350,26 +2353,26 @@
     </row>
     <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -2472,7 +2475,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -2489,7 +2492,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -2563,13 +2566,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2577,14 +2580,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2592,27 +2595,27 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2620,13 +2623,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>367</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2634,13 +2637,13 @@
         <v>91</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2648,16 +2651,16 @@
         <v>93</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>372</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2665,7 +2668,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>36</v>
@@ -2674,7 +2677,7 @@
         <v>254</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2682,16 +2685,16 @@
         <v>95</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D19" t="s">
         <v>377</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="14" t="s">
         <v>378</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2699,13 +2702,13 @@
         <v>96</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2713,13 +2716,13 @@
         <v>97</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>382</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2727,13 +2730,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2748,7 +2751,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2775,10 +2778,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -2880,7 +2883,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -2897,7 +2900,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -2971,13 +2974,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2985,14 +2988,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3000,16 +3003,16 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3017,13 +3020,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3031,7 +3034,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
@@ -3043,13 +3046,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3057,13 +3060,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>399</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3071,13 +3074,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3092,7 +3095,7 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3120,7 +3123,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3128,13 +3131,13 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>402</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3142,14 +3145,14 @@
         <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3157,16 +3160,16 @@
         <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3174,13 +3177,13 @@
         <v>161</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3188,7 +3191,7 @@
         <v>164</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>11</v>
@@ -3200,13 +3203,13 @@
         <v>165</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3214,13 +3217,13 @@
         <v>166</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>399</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3228,13 +3231,13 @@
         <v>181</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3249,7 +3252,7 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3277,7 +3280,7 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3379,7 +3382,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -3396,7 +3399,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -3470,13 +3473,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3484,14 +3487,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3499,16 +3502,16 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3516,13 +3519,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3530,7 +3533,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
@@ -3542,13 +3545,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3556,7 +3559,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C17" s="14"/>
       <c r="E17" s="14"/>
@@ -3566,13 +3569,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3580,13 +3583,13 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>408</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3594,13 +3597,13 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>410</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3615,7 +3618,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3643,7 +3646,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3655,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3729,7 +3732,7 @@
         <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>240</v>
@@ -3754,10 +3757,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>239</v>
@@ -3768,10 +3771,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>239</v>
@@ -3782,10 +3785,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>239</v>
@@ -3796,10 +3799,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>240</v>
@@ -5115,7 +5118,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
@@ -5130,7 +5133,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>12</v>
@@ -5191,7 +5194,7 @@
         <v>161</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
@@ -5263,10 +5266,10 @@
         <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>119</v>
@@ -5422,13 +5425,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -5754,7 +5757,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>12</v>
@@ -5769,7 +5772,7 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>19</v>
@@ -5784,7 +5787,7 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>12</v>
@@ -5814,14 +5817,14 @@
         <v>161</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5829,14 +5832,14 @@
         <v>164</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5844,16 +5847,16 @@
         <v>165</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5898,7 +5901,7 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5906,14 +5909,14 @@
         <v>183</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5928,7 +5931,7 @@
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -5996,7 +5999,7 @@
         <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>17</v>
@@ -6011,7 +6014,7 @@
         <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>12</v>
@@ -6116,43 +6119,44 @@
       <c r="A45" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="B45" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>18</v>
+      <c r="B46" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>311</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>205</v>
@@ -6160,7 +6164,7 @@
     </row>
     <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>330</v>
@@ -6189,7 +6193,7 @@
     </row>
     <row r="50" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>331</v>
@@ -6218,7 +6222,7 @@
     </row>
     <row r="52" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>333</v>
@@ -6289,7 +6293,7 @@
     </row>
     <row r="57" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>178</v>
@@ -6335,7 +6339,7 @@
     </row>
     <row r="60" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>107</v>
@@ -6363,7 +6367,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C15 C18:C34 C38 C48:C60 C41:C45</xm:sqref>
+          <xm:sqref>C11 C15 C18:C34 C38 C48:C60 C41:C44 C46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6881,8 +6885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2898620-9CC7-5647-A027-6B2B9A954795}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7062,7 +7066,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>19</v>
@@ -7076,7 +7080,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
@@ -7091,7 +7095,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>11</v>
@@ -7105,7 +7109,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>17</v>
@@ -7119,7 +7123,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>18</v>
@@ -7134,13 +7138,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7148,13 +7152,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7207,7 +7211,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>17</v>
@@ -7222,7 +7226,7 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>12</v>
@@ -7284,7 +7288,7 @@
         <v>164</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>23</v>
@@ -7321,7 +7325,7 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7344,7 +7348,7 @@
         <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>17</v>
@@ -7358,7 +7362,7 @@
         <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>18</v>
@@ -7373,14 +7377,14 @@
         <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7388,10 +7392,10 @@
         <v>185</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>119</v>
@@ -7501,7 +7505,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>200</v>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2302BA7-C50D-C44F-ADA6-1E33800C98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312C339C-F730-3447-AFA5-B2CE0774A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
     <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
     <sheet name="TC004_OrgAdminCreateOrgContact" sheetId="25" r:id="rId8"/>
-    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId9"/>
-    <sheet name="TC005-OrgAdminAddUser" sheetId="22" r:id="rId10"/>
-    <sheet name="TC006-OrgAdminEnable_DisableMFA" sheetId="23" r:id="rId11"/>
-    <sheet name="TC007-OrgAdminDeleteOrgUSer" sheetId="24" r:id="rId12"/>
+    <sheet name="TS005_OrgadminCreateRegistry" sheetId="26" r:id="rId9"/>
+    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId10"/>
+    <sheet name="TC005-OrgAdminAddUser" sheetId="22" r:id="rId11"/>
+    <sheet name="TC006-OrgAdminEnable_DisableMFA" sheetId="23" r:id="rId12"/>
+    <sheet name="TC007-OrgAdminDeleteOrgUSer" sheetId="24" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="483">
   <si>
     <t>TS_02</t>
   </si>
@@ -1524,6 +1525,87 @@
   </si>
   <si>
     <t>TS_60</t>
+  </si>
+  <si>
+    <t>TS005_OrgadminCreateRegistry</t>
+  </si>
+  <si>
+    <t>To verify org admin can add/delete org registry</t>
+  </si>
+  <si>
+    <t>Sroll to add new registry button</t>
+  </si>
+  <si>
+    <t>elm_addRegistry</t>
+  </si>
+  <si>
+    <t>Click on add new registry</t>
+  </si>
+  <si>
+    <t>Wait for add new registry page</t>
+  </si>
+  <si>
+    <t>elm_addNewRegistry</t>
+  </si>
+  <si>
+    <t>btn_continueRegistry</t>
+  </si>
+  <si>
+    <t>rd_confirmRegistryOrg</t>
+  </si>
+  <si>
+    <t>Wait for registry added confirmation page</t>
+  </si>
+  <si>
+    <t>elm_Regadded</t>
+  </si>
+  <si>
+    <t>expected_addRegistry</t>
+  </si>
+  <si>
+    <t>You have successfully added to your organisation</t>
+  </si>
+  <si>
+    <t>Click on 'return to manage org' button</t>
+  </si>
+  <si>
+    <t>elm_returnManageorg</t>
+  </si>
+  <si>
+    <t>Scroll to add new site button area</t>
+  </si>
+  <si>
+    <t>Save expected registry name</t>
+  </si>
+  <si>
+    <t>elm_expectedRegistryName</t>
+  </si>
+  <si>
+    <t>Nicks Testing Organisation</t>
+  </si>
+  <si>
+    <t>Click remove link for registry</t>
+  </si>
+  <si>
+    <t>elm_removeRegistry</t>
+  </si>
+  <si>
+    <t>elm_confirmRemoveregistry</t>
+  </si>
+  <si>
+    <t>Wait for confirm registry remove header</t>
+  </si>
+  <si>
+    <t>Click on confirm to delete</t>
+  </si>
+  <si>
+    <t>Wait for registry deleted message</t>
+  </si>
+  <si>
+    <t>expected_removeRegistry</t>
+  </si>
+  <si>
+    <t>You have successfully removed additional registries from your organisation</t>
   </si>
 </sst>
 </file>
@@ -2382,6 +2464,364 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>C14:C20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2789,7 +3229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA5472-2B02-F049-85CB-88F3464A6385}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -3288,7 +3728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A7A141-B8CB-A644-A76C-157ED6699F5E}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3656,10 +4096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3807,7 +4247,21 @@
       <c r="C10" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3819,6 +4273,7 @@
     <hyperlink ref="A8" location="'TC006-OrgAdminEnable_DisableMFA'!A1" display="TC006-OrgAdminEnable_DisableMFA" xr:uid="{E962CC8B-A86A-454B-AE90-36F79CBB608F}"/>
     <hyperlink ref="A9" location="'TC007-OrgAdminDeleteOrgUSer'!A1" display="TC007-OrgAdminDeleteOrgUSer" xr:uid="{FE796359-D1BA-7C4A-A0A2-F194299D45C9}"/>
     <hyperlink ref="A10" location="TC004_OrgAdminCreateOrgContact!A1" display="TC004_OrgAdminCreateOrgContact" xr:uid="{CF672290-71BE-E546-832A-3507B606ED7B}"/>
+    <hyperlink ref="A11" location="TS005_OrgadminCreateRegistry!A1" display="TS005_OrgadminCreateRegistry" xr:uid="{8BE668EC-DAE2-8C44-BF9D-5DC86D6F2DA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4340,7 +4795,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4807,8 +5262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5425,7 +5880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -6380,7 +6835,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6886,7 +7341,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7550,22 +8005,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74E2150-0FED-F24A-A5C1-F70208B8B334}">
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A33" sqref="A33:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -7582,7 +8037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -7592,11 +8047,12 @@
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -7607,13 +8063,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -7630,7 +8086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -7640,14 +8096,14 @@
       <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>81</v>
+      <c r="D5" s="27" t="s">
+        <v>301</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -7664,7 +8120,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -7679,7 +8135,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -7689,11 +8145,12 @@
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -7704,13 +8161,13 @@
         <v>39</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -7727,179 +8184,468 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>114</v>
+        <v>437</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>224</v>
+      <c r="B14" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>225</v>
+      <c r="B15" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>233</v>
+      <c r="D27" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{E41EC00C-38BA-D743-9E4C-AB0E79DAC3AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0CA0EF74-DB5C-A149-940C-5B858FA6A662}">
           <x14:formula1>
-            <xm:f>Keywords!$A$2:$A$29</xm:f>
+            <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C14:C20</xm:sqref>
+          <xm:sqref>C16 C19:C24 C28 C31 C35:C36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akin.adebayo1/Documents/GitHub/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312C339C-F730-3447-AFA5-B2CE0774A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE5C40D-6C8F-AE4B-A1C0-CA3AE82EB665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="752" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="TC004_OrgAdminCreateOrgContact" sheetId="25" r:id="rId8"/>
     <sheet name="TS005_OrgadminCreateRegistry" sheetId="26" r:id="rId9"/>
     <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId10"/>
-    <sheet name="TC005-OrgAdminAddUser" sheetId="22" r:id="rId11"/>
+    <sheet name="TC005-OrgAdminAddDeleteUser" sheetId="22" r:id="rId11"/>
     <sheet name="TC006-OrgAdminEnable_DisableMFA" sheetId="23" r:id="rId12"/>
     <sheet name="TC007-OrgAdminDeleteOrgUSer" sheetId="24" r:id="rId13"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="490">
   <si>
     <t>TS_02</t>
   </si>
@@ -1221,9 +1221,6 @@
     <t>To enter random text [Format: Automation+random letters (5) ]</t>
   </si>
   <si>
-    <t>To verify that org Admin can add an Org user</t>
-  </si>
-  <si>
     <t>auto_snr_supplier@yopmail.com</t>
   </si>
   <si>
@@ -1248,9 +1245,6 @@
     <t>elm_addUsers</t>
   </si>
   <si>
-    <t>TS-13</t>
-  </si>
-  <si>
     <t>Wait for Add users page</t>
   </si>
   <si>
@@ -1326,9 +1320,6 @@
     <t>TC007-OrgAdminDeleteOrgUSer</t>
   </si>
   <si>
-    <t>Verify Org Admin can enable and also disable the additional security(MFA) for Org user</t>
-  </si>
-  <si>
     <t>To verify that org Admin can delete an Org user</t>
   </si>
   <si>
@@ -1606,6 +1597,36 @@
   </si>
   <si>
     <t>You have successfully removed additional registries from your organisation</t>
+  </si>
+  <si>
+    <t>To verify that org Admin can add and delete an Org user</t>
+  </si>
+  <si>
+    <t>Verify Org Admin can enable and disable the additional security(MFA) for Org user</t>
+  </si>
+  <si>
+    <t>Check if the Additional Security checkbox is checked</t>
+  </si>
+  <si>
+    <t>TS_44</t>
+  </si>
+  <si>
+    <t>TS_61</t>
+  </si>
+  <si>
+    <t>TS_62</t>
+  </si>
+  <si>
+    <t>TS_63</t>
+  </si>
+  <si>
+    <t>TS_64</t>
+  </si>
+  <si>
+    <t>TS_65</t>
+  </si>
+  <si>
+    <t>TS_66</t>
   </si>
 </sst>
 </file>
@@ -2435,26 +2456,26 @@
     </row>
     <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -2823,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2915,7 +2936,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -2932,7 +2953,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -3006,13 +3027,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3020,14 +3041,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3035,27 +3056,27 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3063,52 +3084,52 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>36</v>
@@ -3117,71 +3138,71 @@
         <v>254</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" t="s">
         <v>375</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>376</v>
-      </c>
-      <c r="D19" t="s">
-        <v>377</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>121</v>
@@ -3191,12 +3212,12 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>104</v>
@@ -3209,7 +3230,7 @@
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>107</v>
@@ -3218,10 +3239,191 @@
         <v>40</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3231,10 +3433,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA5472-2B02-F049-85CB-88F3464A6385}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3323,7 +3525,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -3340,7 +3542,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -3414,13 +3616,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3428,14 +3630,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3443,16 +3645,13 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3460,13 +3659,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3474,25 +3673,27 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3500,13 +3701,16 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>369</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3514,13 +3718,16 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>254</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3528,14 +3735,16 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>121</v>
+        <v>373</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="14"/>
+        <v>374</v>
+      </c>
+      <c r="D19" t="s">
+        <v>375</v>
+      </c>
       <c r="E19" s="14" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3543,27 +3752,27 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>107</v>
+        <v>379</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="14"/>
+        <v>11</v>
+      </c>
       <c r="E21" s="14" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3571,13 +3780,13 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3585,14 +3794,14 @@
         <v>154</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>359</v>
+        <v>121</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3600,30 +3809,29 @@
         <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>391</v>
+        <v>104</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>392</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3631,25 +3839,28 @@
         <v>164</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3657,13 +3868,13 @@
         <v>166</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3671,13 +3882,13 @@
         <v>181</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3692,7 +3903,7 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3720,7 +3931,507 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +4533,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>108</v>
@@ -3839,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>109</v>
@@ -3913,13 +4624,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3927,14 +4638,14 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3942,16 +4653,16 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3959,13 +4670,13 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3973,7 +4684,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>11</v>
@@ -3985,13 +4696,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3999,7 +4710,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C17" s="14"/>
       <c r="E17" s="14"/>
@@ -4009,13 +4720,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4023,13 +4734,13 @@
         <v>96</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4037,13 +4748,13 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4058,7 +4769,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4086,7 +4797,7 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4098,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4197,10 +4908,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>239</v>
@@ -4211,10 +4922,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>239</v>
@@ -4225,10 +4936,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>239</v>
@@ -4239,10 +4950,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>240</v>
@@ -4253,10 +4964,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>240</v>
@@ -5573,7 +6284,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
@@ -5588,7 +6299,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>12</v>
@@ -5649,7 +6360,7 @@
         <v>161</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>23</v>
@@ -5721,10 +6432,10 @@
         <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>119</v>
@@ -6212,7 +6923,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>12</v>
@@ -6227,7 +6938,7 @@
         <v>153</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>19</v>
@@ -6242,7 +6953,7 @@
         <v>154</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>12</v>
@@ -6272,14 +6983,14 @@
         <v>161</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6287,14 +6998,14 @@
         <v>164</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6302,16 +7013,16 @@
         <v>165</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -6454,7 +7165,7 @@
         <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>17</v>
@@ -6469,7 +7180,7 @@
         <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>12</v>
@@ -6590,14 +7301,14 @@
         <v>347</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -6608,7 +7319,7 @@
         <v>172</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>328</v>
@@ -6619,7 +7330,7 @@
     </row>
     <row r="48" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>330</v>
@@ -6633,7 +7344,7 @@
     </row>
     <row r="49" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>173</v>
@@ -6648,7 +7359,7 @@
     </row>
     <row r="50" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>331</v>
@@ -6663,7 +7374,7 @@
     </row>
     <row r="51" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>199</v>
@@ -6677,7 +7388,7 @@
     </row>
     <row r="52" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>333</v>
@@ -6691,7 +7402,7 @@
     </row>
     <row r="53" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>175</v>
@@ -6705,7 +7416,7 @@
     </row>
     <row r="54" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>334</v>
@@ -6719,7 +7430,7 @@
     </row>
     <row r="55" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>176</v>
@@ -6733,7 +7444,7 @@
     </row>
     <row r="56" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>335</v>
@@ -6748,7 +7459,7 @@
     </row>
     <row r="57" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>178</v>
@@ -6762,7 +7473,7 @@
     </row>
     <row r="58" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>336</v>
@@ -6777,7 +7488,7 @@
     </row>
     <row r="59" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>104</v>
@@ -6794,7 +7505,7 @@
     </row>
     <row r="60" spans="1:5" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>107</v>
@@ -7521,7 +8232,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>19</v>
@@ -7535,7 +8246,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
@@ -7550,7 +8261,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>11</v>
@@ -7564,7 +8275,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>17</v>
@@ -7578,7 +8289,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>18</v>
@@ -7593,13 +8304,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7607,13 +8318,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7666,7 +8377,7 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>17</v>
@@ -7681,7 +8392,7 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>12</v>
@@ -7743,7 +8454,7 @@
         <v>164</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>23</v>
@@ -7780,7 +8491,7 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7803,7 +8514,7 @@
         <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>17</v>
@@ -7817,7 +8528,7 @@
         <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>18</v>
@@ -7832,14 +8543,14 @@
         <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -7847,10 +8558,10 @@
         <v>185</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>119</v>
@@ -7960,7 +8671,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>200</v>
@@ -8189,7 +8900,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>19</v>
@@ -8203,7 +8914,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
@@ -8218,7 +8929,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>11</v>
@@ -8232,7 +8943,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>17</v>
@@ -8246,7 +8957,7 @@
         <v>91</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>18</v>
@@ -8261,13 +8972,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8275,13 +8986,13 @@
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8289,13 +9000,13 @@
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8341,7 +9052,7 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8369,7 +9080,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8384,7 +9095,7 @@
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8392,13 +9103,13 @@
         <v>161</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8412,10 +9123,10 @@
         <v>39</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8429,10 +9140,10 @@
         <v>40</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8440,14 +9151,14 @@
         <v>166</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8455,7 +9166,7 @@
         <v>181</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>17</v>
@@ -8469,7 +9180,7 @@
         <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>18</v>
@@ -8484,7 +9195,7 @@
         <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>23</v>
@@ -8498,16 +9209,16 @@
         <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8515,16 +9226,16 @@
         <v>185</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D33" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>473</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8532,13 +9243,13 @@
         <v>186</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8560,7 +9271,7 @@
         <v>188</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>11</v>
@@ -8574,13 +9285,13 @@
         <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8588,7 +9299,7 @@
         <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>18</v>
@@ -8609,10 +9320,10 @@
         <v>39</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8626,10 +9337,10 @@
         <v>40</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akin.adebayo1/Documents/GitHub/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE5C40D-6C8F-AE4B-A1C0-CA3AE82EB665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B7F38D-2DA4-8A49-BCE7-2D4F059380A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="491">
   <si>
     <t>TS_02</t>
   </si>
@@ -1627,6 +1627,9 @@
   </si>
   <si>
     <t>TS_66</t>
+  </si>
+  <si>
+    <t>Highlight email input</t>
   </si>
 </sst>
 </file>
@@ -3435,7 +3438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA5472-2B02-F049-85CB-88F3464A6385}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -4810,7 +4813,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5971,10 +5974,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6360,13 +6363,13 @@
         <v>161</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -6374,12 +6377,11 @@
         <v>164</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>23</v>
+      </c>
       <c r="E26" s="13" t="s">
         <v>120</v>
       </c>
@@ -6388,43 +6390,44 @@
       <c r="A27" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>121</v>
+      <c r="B27" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>156</v>
+      <c r="B28" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>114</v>
+      <c r="B29" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -6432,16 +6435,13 @@
         <v>182</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>443</v>
+        <v>114</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6449,44 +6449,46 @@
         <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13" t="s">
-        <v>305</v>
+        <v>441</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>159</v>
+      <c r="B32" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="13" t="s">
-        <v>160</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>307</v>
+      <c r="B33" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="14" t="s">
-        <v>163</v>
+      <c r="E33" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6494,14 +6496,14 @@
         <v>186</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="14" t="s">
-        <v>316</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6509,13 +6511,14 @@
         <v>187</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="12"/>
       <c r="E35" s="14" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6523,13 +6526,13 @@
         <v>188</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>17</v>
+        <v>162</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -6537,16 +6540,13 @@
         <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6554,15 +6554,32 @@
         <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6579,7 +6596,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C24:C25</xm:sqref>
+          <xm:sqref>C24 C26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B7F38D-2DA4-8A49-BCE7-2D4F059380A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9358F84D-6B18-4442-9A4A-8BA0883565BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="492">
   <si>
     <t>TS_02</t>
   </si>
@@ -1630,6 +1630,9 @@
   </si>
   <si>
     <t>Highlight email input</t>
+  </si>
+  <si>
+    <t>Highlight contact email</t>
   </si>
 </sst>
 </file>
@@ -5976,7 +5979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -8066,10 +8069,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2898620-9CC7-5647-A027-6B2B9A954795}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8471,14 +8474,14 @@
         <v>164</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8486,12 +8489,12 @@
         <v>165</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="14"/>
       <c r="E27" s="13" t="s">
         <v>120</v>
       </c>
@@ -8500,44 +8503,45 @@
       <c r="A28" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>121</v>
+      <c r="B28" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>440</v>
+        <v>11</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>156</v>
+      <c r="B29" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>128</v>
+      <c r="B30" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8545,14 +8549,13 @@
         <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="14"/>
+        <v>436</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E31" s="14" t="s">
-        <v>311</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8560,14 +8563,14 @@
         <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>450</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8575,16 +8578,14 @@
         <v>185</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>119</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>158</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8592,44 +8593,46 @@
         <v>186</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13" t="s">
-        <v>305</v>
+        <v>441</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>159</v>
+      <c r="B35" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="13" t="s">
-        <v>160</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>307</v>
+      <c r="B36" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="E36" s="14" t="s">
-        <v>163</v>
+      <c r="E36" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8637,14 +8640,14 @@
         <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="14" t="s">
-        <v>316</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8652,14 +8655,14 @@
         <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>315</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="12"/>
       <c r="E38" s="14" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8667,14 +8670,14 @@
         <v>340</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>17</v>
+        <v>162</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8682,16 +8685,14 @@
         <v>341</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8699,15 +8700,32 @@
         <v>342</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8724,7 +8742,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C16 C25:C26 C32</xm:sqref>
+          <xm:sqref>C16 C33 C25 C27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9358F84D-6B18-4442-9A4A-8BA0883565BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236F55AE-33A4-404F-8C71-F5A8771002B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="494">
   <si>
     <t>TS_02</t>
   </si>
@@ -1633,6 +1633,12 @@
   </si>
   <si>
     <t>Highlight contact email</t>
+  </si>
+  <si>
+    <t>Click on name field</t>
+  </si>
+  <si>
+    <t>Click on name input</t>
   </si>
 </sst>
 </file>
@@ -5977,10 +5983,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6275,12 +6281,11 @@
         <v>96</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>99</v>
+        <v>493</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D19" s="16"/>
+        <v>11</v>
+      </c>
       <c r="E19" s="13" t="s">
         <v>117</v>
       </c>
@@ -6289,15 +6294,15 @@
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>414</v>
+      <c r="B20" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6305,10 +6310,10 @@
         <v>152</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="13" t="s">
@@ -6319,13 +6324,13 @@
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>100</v>
+      <c r="B22" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="D22" s="16"/>
       <c r="E22" s="13" t="s">
         <v>118</v>
       </c>
@@ -6334,28 +6339,26 @@
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>304</v>
+      <c r="B23" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D23" s="12"/>
       <c r="E23" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
+      <c r="B24" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>119</v>
@@ -6366,10 +6369,13 @@
         <v>161</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>490</v>
+        <v>101</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>12</v>
+        <v>256</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>119</v>
@@ -6380,13 +6386,13 @@
         <v>164</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -6394,12 +6400,11 @@
         <v>165</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>23</v>
+      </c>
       <c r="E27" s="13" t="s">
         <v>120</v>
       </c>
@@ -6408,43 +6413,44 @@
       <c r="A28" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>121</v>
+      <c r="B28" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>156</v>
+      <c r="B29" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>114</v>
+      <c r="B30" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6452,16 +6458,13 @@
         <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>443</v>
+        <v>114</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6469,44 +6472,46 @@
         <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13" t="s">
-        <v>305</v>
+        <v>441</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>159</v>
+      <c r="B33" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="13" t="s">
-        <v>160</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>307</v>
+      <c r="B34" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="E34" s="14" t="s">
-        <v>163</v>
+      <c r="E34" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6514,14 +6519,14 @@
         <v>187</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="14" t="s">
-        <v>316</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6529,13 +6534,14 @@
         <v>188</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="12"/>
       <c r="E36" s="14" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -6543,13 +6549,13 @@
         <v>338</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>17</v>
+        <v>162</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6557,16 +6563,13 @@
         <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6574,15 +6577,32 @@
         <v>340</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6599,7 +6619,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C24 C26</xm:sqref>
+          <xm:sqref>C25 C27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6611,8 +6631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8069,10 +8089,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2898620-9CC7-5647-A027-6B2B9A954795}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8381,13 +8401,13 @@
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="16"/>
+      <c r="B20" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="14"/>
       <c r="E20" s="13" t="s">
         <v>117</v>
       </c>
@@ -8396,15 +8416,15 @@
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>414</v>
+      <c r="B21" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8412,10 +8432,10 @@
         <v>153</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="13" t="s">
@@ -8426,13 +8446,13 @@
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>100</v>
+      <c r="B23" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="D23" s="16"/>
       <c r="E23" s="13" t="s">
         <v>118</v>
       </c>
@@ -8441,30 +8461,28 @@
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>304</v>
+      <c r="B24" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="14"/>
+        <v>313</v>
+      </c>
+      <c r="D24" s="12"/>
       <c r="E24" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>101</v>
+      <c r="B25" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>258</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D25" s="14"/>
       <c r="E25" s="13" t="s">
         <v>119</v>
       </c>
@@ -8474,12 +8492,14 @@
         <v>164</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>491</v>
+        <v>101</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="14"/>
+        <v>256</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>258</v>
+      </c>
       <c r="E26" s="13" t="s">
         <v>119</v>
       </c>
@@ -8489,14 +8509,14 @@
         <v>165</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8504,12 +8524,12 @@
         <v>166</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
         <v>120</v>
       </c>
@@ -8518,44 +8538,45 @@
       <c r="A29" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>121</v>
+      <c r="B29" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
-        <v>440</v>
+        <v>11</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>156</v>
+      <c r="B30" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>128</v>
+      <c r="B31" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8563,14 +8584,13 @@
         <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="14"/>
+        <v>436</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E32" s="14" t="s">
-        <v>311</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8578,14 +8598,14 @@
         <v>185</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>450</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8593,16 +8613,14 @@
         <v>186</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>119</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>158</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8610,44 +8628,46 @@
         <v>187</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13" t="s">
-        <v>305</v>
+        <v>441</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>159</v>
+      <c r="B36" s="14" t="s">
+        <v>306</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="13" t="s">
-        <v>160</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>307</v>
+      <c r="B37" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="14" t="s">
-        <v>163</v>
+      <c r="E37" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8655,14 +8675,14 @@
         <v>339</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="14" t="s">
-        <v>316</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8670,14 +8690,14 @@
         <v>340</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="14"/>
+        <v>315</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="12"/>
       <c r="E39" s="14" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8685,14 +8705,14 @@
         <v>341</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>17</v>
+        <v>162</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8700,16 +8720,14 @@
         <v>342</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -8717,15 +8735,32 @@
         <v>343</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8742,7 +8777,7 @@
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>C16 C33 C25 C27</xm:sqref>
+          <xm:sqref>C16 C34 C26 C28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236F55AE-33A4-404F-8C71-F5A8771002B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE6A2B-8724-2B44-8D27-5337162D588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -4822,7 +4822,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6631,7 +6631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -8789,8 +8789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74E2150-0FED-F24A-A5C1-F70208B8B334}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE6A2B-8724-2B44-8D27-5337162D588A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7E624E-FC90-3F49-862B-C8B274408880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="496">
   <si>
     <t>TS_02</t>
   </si>
@@ -1640,12 +1640,18 @@
   <si>
     <t>Click on name input</t>
   </si>
+  <si>
+    <t>change to txt_fname, Use EnterRandomText</t>
+  </si>
+  <si>
+    <t>key and value required</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1727,8 +1733,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1738,6 +1758,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,7 +1810,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1843,6 +1869,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2856,10 +2888,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2869,6 +2901,7 @@
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -2913,7 +2946,7 @@
       <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -3010,7 +3043,7 @@
       <c r="C9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -3119,41 +3152,44 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>369</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="28" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="F17" s="28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="28" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3166,11 +3202,11 @@
       <c r="D19" t="s">
         <v>375</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3184,7 +3220,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
@@ -3198,7 +3234,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
@@ -3212,7 +3248,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
@@ -3227,7 +3263,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
@@ -3237,10 +3273,13 @@
       <c r="C24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>161</v>
       </c>
@@ -3250,14 +3289,14 @@
       <c r="C25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="28" t="s">
         <v>383</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>164</v>
       </c>
@@ -3271,7 +3310,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>165</v>
       </c>
@@ -3286,7 +3325,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>166</v>
       </c>
@@ -3299,11 +3338,11 @@
       <c r="D28" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="29" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>181</v>
       </c>
@@ -3317,7 +3356,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>182</v>
       </c>
@@ -3327,9 +3366,9 @@
       <c r="C30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>183</v>
       </c>
@@ -3343,15 +3382,16 @@
         <v>394</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>184</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -3420,8 +3460,8 @@
       <c r="C37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
@@ -3433,7 +3473,7 @@
       <c r="C38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="14" t="s">
         <v>408</v>
       </c>
@@ -3447,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA5472-2B02-F049-85CB-88F3464A6385}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3502,7 +3542,7 @@
       <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -3599,7 +3639,7 @@
       <c r="C9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="14" t="s">
@@ -3715,13 +3755,13 @@
       <c r="B17" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>369</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="28" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3732,13 +3772,13 @@
       <c r="B18" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="28" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3755,7 +3795,7 @@
       <c r="D19" t="s">
         <v>375</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="28" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3826,8 +3866,8 @@
       <c r="C24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -3839,7 +3879,7 @@
       <c r="C25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="28" t="s">
         <v>383</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -3928,8 +3968,8 @@
       <c r="C31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
@@ -3941,7 +3981,7 @@
       <c r="C32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="14" t="s">
         <v>397</v>
       </c>
@@ -3959,7 +3999,7 @@
       <c r="D33" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="28" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3987,7 +4027,7 @@
       <c r="C35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
@@ -4013,7 +4053,7 @@
       <c r="C37" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="D37" s="14" t="b">
+      <c r="D37" s="32" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="14" t="s">
@@ -4073,8 +4113,8 @@
       <c r="C41" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -4130,7 +4170,7 @@
       <c r="C45" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="28" t="s">
         <v>376</v>
       </c>
       <c r="E45" s="14" t="s">
@@ -4161,7 +4201,7 @@
       <c r="C47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -4187,7 +4227,7 @@
       <c r="C49" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="D49" s="14" t="b">
+      <c r="D49" s="28" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="14" t="s">
@@ -4247,8 +4287,8 @@
       <c r="C53" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
@@ -4307,7 +4347,7 @@
       <c r="D57" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="28" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4335,7 +4375,7 @@
       <c r="C59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="14"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
@@ -4358,8 +4398,9 @@
       <c r="B61" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="29"/>
     </row>
     <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -4428,8 +4469,8 @@
       <c r="C66" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
     </row>
     <row r="67" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
@@ -4441,7 +4482,7 @@
       <c r="C67" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="14"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="14" t="s">
         <v>408</v>
       </c>
@@ -4822,7 +4863,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4992,7 +5033,7 @@
     <hyperlink ref="A5" location="TC002_AddDeleteSite!A1" display="TC002_AddDeleteSite" xr:uid="{12310066-B5F4-5247-823C-528CB73E0F44}"/>
     <hyperlink ref="A2" location="TC001_RegisterOrganisation!A1" display="TC001_RegisterOrganisation" xr:uid="{29AF2AF6-6A01-984E-8D48-D603E44F5F2E}"/>
     <hyperlink ref="A3" location="TC002_RegSupplierOrganisation!A1" display="TC002_RegSupplierOrganisation" xr:uid="{79B13C14-1218-F243-B661-5C545C3D0C79}"/>
-    <hyperlink ref="A7" location="'TC005-OrgAdminAddUser'!A1" display="TC005_OrgAdminAddUser" xr:uid="{0E1371B9-50E8-E84B-A5E0-410B089B4181}"/>
+    <hyperlink ref="A7" location="'TC005-OrgAdminAddDeleteUser'!A1" display="TC005_OrgAdminAddUser" xr:uid="{0E1371B9-50E8-E84B-A5E0-410B089B4181}"/>
     <hyperlink ref="A8" location="'TC006-OrgAdminEnable_DisableMFA'!A1" display="TC006-OrgAdminEnable_DisableMFA" xr:uid="{E962CC8B-A86A-454B-AE90-36F79CBB608F}"/>
     <hyperlink ref="A9" location="'TC007-OrgAdminDeleteOrgUSer'!A1" display="TC007-OrgAdminDeleteOrgUSer" xr:uid="{FE796359-D1BA-7C4A-A0A2-F194299D45C9}"/>
     <hyperlink ref="A10" location="TC004_OrgAdminCreateOrgContact!A1" display="TC004_OrgAdminCreateOrgContact" xr:uid="{CF672290-71BE-E546-832A-3507B606ED7B}"/>
@@ -8789,7 +8830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74E2150-0FED-F24A-A5C1-F70208B8B334}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7E624E-FC90-3F49-862B-C8B274408880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2931247F-2267-8B4F-8FAE-A32972573530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keywords" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="500">
   <si>
     <t>TS_02</t>
   </si>
@@ -1645,6 +1645,18 @@
   </si>
   <si>
     <t>key and value required</t>
+  </si>
+  <si>
+    <t>lnk_singout</t>
+  </si>
+  <si>
+    <t>Wait for sign out link</t>
+  </si>
+  <si>
+    <t>Click on sign out link</t>
+  </si>
+  <si>
+    <t>Wait for sign in page</t>
   </si>
 </sst>
 </file>
@@ -2890,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3487,7 +3499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACA5472-2B02-F049-85CB-88F3464A6385}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -6024,10 +6036,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3EB00A-36E8-8846-87D3-B89735A262F1}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6645,6 +6657,49 @@
       </c>
       <c r="E40" s="14" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -6670,10 +6725,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB3DC7D-3A45-FC42-8060-5032618F8DB9}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7599,6 +7654,51 @@
       </c>
       <c r="E60" s="19" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8130,10 +8230,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2898620-9CC7-5647-A027-6B2B9A954795}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8803,6 +8903,51 @@
       </c>
       <c r="E43" s="14" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8828,10 +8973,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74E2150-0FED-F24A-A5C1-F70208B8B334}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9452,6 +9597,51 @@
       </c>
       <c r="E40" s="14" t="s">
         <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/TestDataSheet.xlsx
+++ b/src/test/resources/data/TestDataSheet.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mibin.boban/Documents/Automation/Conclave UI/ccs-ppg-uiautomation-tests/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2931247F-2267-8B4F-8FAE-A32972573530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2931247F-2267-8B4F-8FAE-A32972573530}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="752" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="10" tabRatio="752" windowHeight="15800" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="11" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="4" r:id="rId2"/>
-    <sheet name="TC001_RegBuyerOrganisation" sheetId="20" r:id="rId3"/>
-    <sheet name="TC002_RegSupplierOrganisation" sheetId="21" r:id="rId4"/>
-    <sheet name="TC001_AddDeleteContact" sheetId="16" r:id="rId5"/>
-    <sheet name="TC002_AddDeleteSite" sheetId="17" r:id="rId6"/>
-    <sheet name="TC003_AddDeleteGroup" sheetId="18" r:id="rId7"/>
-    <sheet name="TC004_OrgAdminCreateOrgContact" sheetId="25" r:id="rId8"/>
-    <sheet name="TS005_OrgadminCreateRegistry" sheetId="26" r:id="rId9"/>
-    <sheet name="TC004_ResetPassword" sheetId="19" r:id="rId10"/>
-    <sheet name="TC005-OrgAdminAddDeleteUser" sheetId="22" r:id="rId11"/>
-    <sheet name="TC006-OrgAdminEnable_DisableMFA" sheetId="23" r:id="rId12"/>
-    <sheet name="TC007-OrgAdminDeleteOrgUSer" sheetId="24" r:id="rId13"/>
+    <sheet name="Keywords" r:id="rId1" sheetId="11"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="4"/>
+    <sheet name="TC001_RegBuyerOrganisation" r:id="rId3" sheetId="20"/>
+    <sheet name="TC002_RegSupplierOrganisation" r:id="rId4" sheetId="21"/>
+    <sheet name="TC001_AddDeleteContact" r:id="rId5" sheetId="16"/>
+    <sheet name="TC002_AddDeleteSite" r:id="rId6" sheetId="17"/>
+    <sheet name="TC003_AddDeleteGroup" r:id="rId7" sheetId="18"/>
+    <sheet name="TC004_OrgAdminCreateOrgContact" r:id="rId8" sheetId="25"/>
+    <sheet name="TS005_OrgadminCreateRegistry" r:id="rId9" sheetId="26"/>
+    <sheet name="TC004_ResetPassword" r:id="rId10" sheetId="19"/>
+    <sheet name="TC005-OrgAdminAddDeleteUser" r:id="rId11" sheetId="22"/>
+    <sheet name="TC006-OrgAdminEnable_DisableMFA" r:id="rId12" sheetId="23"/>
+    <sheet name="TC007-OrgAdminDeleteOrgUSer" r:id="rId13" sheetId="24"/>
   </sheets>
   <definedNames>
     <definedName name="TC001_AddDeleteContact">TestCases!#REF!</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="501">
   <si>
     <t>TS_02</t>
   </si>
@@ -1658,11 +1658,15 @@
   <si>
     <t>Wait for sign in page</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1816,84 +1820,84 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1910,10 +1914,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1948,7 +1952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2000,7 +2004,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2105,7 +2109,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2114,13 +2118,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2130,7 +2134,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2139,7 +2143,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2148,7 +2152,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2158,12 +2162,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2194,7 +2198,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2213,7 +2217,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2225,8 +2229,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0990-AD1B-5244-AC3C-8B60408730A0}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
@@ -2234,11 +2238,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="142.5" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="24.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="142.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2262,7 +2266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="40" x14ac:dyDescent="0.25">
+    <row ht="40" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2342,7 +2346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2414,7 +2418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>256</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>264</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>313</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>415</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>430</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20" x14ac:dyDescent="0.25">
+    <row ht="20" r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>441</v>
       </c>
@@ -2535,14 +2539,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C67F11-B389-8246-AC83-9E11E97E954F}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -2550,13 +2554,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="21" r="1" s="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="2" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="3" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="4" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="5" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="6" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="7" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="8" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="9" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="10" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="11" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="12" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -2747,7 +2751,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="13" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="14" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2796,7 +2800,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="17" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="18" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="19" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="21" r="20" s="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -2880,13 +2884,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
+    <hyperlink r:id="rId1" ref="D5" xr:uid="{059FDB00-A838-7E4E-9118-810FC7583C3A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C14E7F1B-D4EF-6041-ABC6-F723D90AB0C8}">
           <x14:formula1>
             <xm:f>Keywords!$A$2:$A$29</xm:f>
           </x14:formula1>
@@ -2899,8 +2903,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE24B080-BF25-004D-AF94-C24D4FE48ED9}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -2908,15 +2912,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="52.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row ht="21" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>74</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>76</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>77</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>86</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>87</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>88</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>91</v>
       </c>
@@ -3150,7 +3154,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
@@ -3164,7 +3168,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>94</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>96</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>153</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
@@ -3275,7 +3279,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>155</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>161</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row ht="21" r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>164<